--- a/data/uber_eats/raw_data/app_store.xlsx
+++ b/data/uber_eats/raw_data/app_store.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,65 +476,67 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45407.03428240741</v>
+        <v>45402.2977662037</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>I used Uber eats today along with my promo. My total came up to 2.48 and I tipped 1.00 which made my total 3.48. I used 1.33 in Uber cash and the rest was charged to my account. After this order my account says that I owe 1.00, after look at the receipt and my bank statement it shows everything was paid in full, i reached out to customer twice the first representative IAN was rude, he cut the chat short while I was still confused. I chatted with another representative who was nice but could not resolve the issue and transferred me to someone else. I’ve been using Uber for years and never had this problem. I’m disappointed because I am not being heard and this issue is not being resolved. I would suggest everyone to check their receipt and statement after each order in case you are over charged a 1.00 or anything. This is a hard time for me and I use Uber and Uber eats often and it saddens me that this is happening. It makes wonder how many other times have I been over charged.</t>
+          <t>When I first installed Uber Eats I was having amazing experiences so far with me getting out of work late and still getting food quickly delivered to my door late at night. However, I cannot say the same anymore. Uber Eats does not have the correct availability of a store in their app anymore and tonight I ordered from multiple different stores and my orders kept getting cancelled because of drivers stealing my food (I found this out by calling the restaurant just for them to advice me that someone already picked up my order and left). I don’t know what has gotten into drivers or the app having incorrect store hours posted for several stores but this is getting out of hand. At this point I would recommend ordering from DoorDash as they do have the correct store hours posted and have the correct menu prices instead of charging extra on the food and still charging many fees. I’m truthfully disappointed in the app and the fact that they allow drivers get away with stealing food.</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Uber eats</t>
+          <t>Poor experience</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ADNCTD</t>
+          <t>Jengmyiziau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45407.51168981481</v>
+        <v>45403.804375</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This past time I submitted that both my drink and fries were missing from the order. I was missing 2/3 of my order. So I rated my order and submitted that I didn’t receive those things. About a week or two later still no reach out and no refund. So I went through the help center and explained a part of it. Well your service team responded said no refund and closed the ticket. No chance to write back and I can’t make any more claims about it and there’s no where else to contact any support. Your app support is absolutely terrible. Why can I not chat with someone real time? Why can I not call someone real time? So you know what, I canceled all of my Uber Apps because you guys essentially stole money from me when the drink is the drivers fault and the sweet potato fries is the restaurants fault. You really need to explain when you’re “rating” the order that that’s not how you’re supposed to go about getting a refund. In fact rating makes 0 difference and does absolutely nothing because if the guy had maybe looked into my account he would’ve seen that I did rate my order within 24 hours of the order arriving. I did it right then and there before I even ate the sandwich which was only 1/3 of my meal. So I won’t be going through Uber for anything anymore. I’m using Lyft for rides and other food delivery services from now on. You used to be my go to, I even worked with the company but you just stole money from me.</t>
+          <t>Had a missing item, let the driver know, they just shrugged and left. Reached out to support, they said they couldn’t help me, provided no explanation, and continued to close out the ticket. Deleting the app, canceled my Uber one, I’ll go pick up my food if it means I’ll have a complete order. What’s the point in paying fees for priority/uberone/delivery if you can have missing items that they decide they don’t have to reimburse you for.
+Update:
+My questions still weren’t answered, but after the third time of reaching out to support I reached some sort of resolution. They refunded the order (which was not asked for, realistically I would’ve preferred they had someone deliver the missing item). Wish my questions were still answered and I didn’t have to run in circles for support, but I’ll change it from a 1 star rating to a 3 star rating.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Worst Food Delivery App Ever</t>
+          <t>Horrible Customer Service</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ohitsbubbles</t>
+          <t>lethal-squirrel</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45410.60262731482</v>
+        <v>45404.18243055556</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>I ordered McDonald’s last night already scared I wasn’t going to get my order because the drivers kept bouncing back and forth as to who was to pick up my order. A driver finally picks up my order and I’m relieved because it’s been a long day and I just wanted to eat. I get the notifications the drive is outside and when I go out I see that he is literally driving past my house so I try and flag him down using my flashlight and he drives away faster knowing he obviously seen me. So I go out and try to meet him and he drives off even more, which leads me to running. He didn’t expect me to catch up to him so I knocked on the window, he sees me and drives off completely. I trying to talk to him to tell him I was meeting him to get my order and he drove off so fast I hurt myself trying to meet him and when I showed Customer service what happened they had no response. I am highly disappointed in this service. I could not get in contact with anyone to talk about what actually happened and I am still very hurt after last night’s incidents. I will be telling people in the future to not use this app or service because for me to get almost injured due to a driver basically stealing my food in my face and having no response from Uber Eats or even a agent from within the chat of my order shows there is little to no care for the customers using this app. I am beyond disappointed and to say my experience with this app is a disgrace is beyond that.</t>
+          <t>There’s only a dropdown menu with very limited options on what the issue is, and NO ability to submit a report unless it’s with an order that has already been placed. Currently, a promotion that was given to me from the app, through the app, is completely glitched and unusable. When I click “shop now” to see the list of restaurants that are eligible for this 40% coupon that I recognize because I get sent it every couple weeks and I can usually use it with no issue, I get sent to my front page of the app. Okay, no problem right? Seems like maybe it’s available for any of the restaurants then. NOPE. It’s literally unusable for anything. I don’t know if this is something they don’t care about because they think hunger will make me just decide to get the food anyways, but if I get my hopes up thinking I’m going to get 40% (up to $15) and then I go to check out and it’s full price? I’d rather starve than spend that extra $15 I thought I had saved.</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -545,1454 +547,3157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The service is awful and hurtful</t>
+          <t>Your app support is terrible</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ToriKing8854</t>
+          <t>KaneASmith</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45404.81605324074</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>I used Uber eats for years. I even had an Uber one membership on and off for a while. I deleted my information a from the app today and deleted the app off my phone. 
+Why? Because they have a policy that unfairly punishes the customer for wrong orders from the restaurants. 
+I have had this happen a few times recently, but I finally had enough. I receive an order, something is missing completely or is wrong from what I ordered, so I submit that with photos and a description… except now instead of being given credit or a partial refund, I am told my order is not eligible for a refund. On Reddit this seems to be because over the course of my entire UberEATS membership, I’ve submitted too many. Unfortunately, the restaurants mess up orders frequently. But I should not have to pay for things I did not receive. I should not have to pay if they send me a sandwich when I ordered a salad. Especially at the prices being charged. That means I could spend $25 on food and the driver could bring me an empty bag and they would not refund me. It’s crazy. 
+I tried explaining this to customer service and asked to speak to a supervisor and kept receiving the same response over and over again that my order was not eligible. They would not cite the policy or give any additional information. 
+So I deleted. And you should too until they can provide transparency in these unfair policies.</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Deleted today because of poor policy</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>M14845838</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45405.47260416667</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>I’ve had really bad experiences with most delivery apps but this one surely takes the cake in how suspicious they are. If you’re a young adult on limited money or anyone in general who wants to keep your money, please don’t use this. 
+I ordered food almost three days ago that I had to go pick up myself and I had one charge for that. Today when I’d gotten my check deposited, I noticed an unusual charge from my account that was “pending” and was pulled at freakin 3am. First of all I was asleep at this time and didn’t order Jack squat! Second of all it was for an order I did ALMOST THREE DAYS AGO AND WAS ALREADY CHARGED FOR. Why are you pulling money out of my account AGAIN. When I spoke to customer service they said it was a hold that would fall off. However you still pulled the money at an odd time, and you could have left me in the negative??? See how bad that sounds? This is my second bad experience, in conclusion I will not be using these services again.</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Holds on your account</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lilly Michelle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45406.79599537037</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Typically you expect to get everything that you order, and can hold the courier or store responsible. However, when it happens quite often, the only fault goes to Uber Eats simply because there’s some sort of disconnect why there are different couriers and different stores to fulfill orders and completion to customers because I’m not the only one. Unacceptable given that Uber eats profits lots of revenue from being the “middle man”. Perhaps set some proper expectations or true consequences or risk losing customers. in fact, Uber eats is superior to one of the other courier services stopped for the same reason but the environment makes me want to order directly from restaurants, make my own food or go out to eat rather than rely on food delivery. I’m tired of receiving “credits” and refunds. I want to receive a full order consistently given that I order quite a bit from Uber Eats.</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Give what is owed</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>krissy_pie89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45407.03428240741</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>I used Uber eats today along with my promo. My total came up to 2.48 and I tipped 1.00 which made my total 3.48. I used 1.33 in Uber cash and the rest was charged to my account. After this order my account says that I owe 1.00, after look at the receipt and my bank statement it shows everything was paid in full, i reached out to customer twice the first representative IAN was rude, he cut the chat short while I was still confused. I chatted with another representative who was nice but could not resolve the issue and transferred me to someone else. I’ve been using Uber for years and never had this problem. I’m disappointed because I am not being heard and this issue is not being resolved. I would suggest everyone to check their receipt and statement after each order in case you are over charged a 1.00 or anything. This is a hard time for me and I use Uber and Uber eats often and it saddens me that this is happening. It makes wonder how many other times have I been over charged.</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Uber eats</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ADNCTD</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45407.51168981481</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>This past time I submitted that both my drink and fries were missing from the order. I was missing 2/3 of my order. So I rated my order and submitted that I didn’t receive those things. About a week or two later still no reach out and no refund. So I went through the help center and explained a part of it. Well your service team responded said no refund and closed the ticket. No chance to write back and I can’t make any more claims about it and there’s no where else to contact any support. Your app support is absolutely terrible. Why can I not chat with someone real time? Why can I not call someone real time? So you know what, I canceled all of my Uber Apps because you guys essentially stole money from me when the drink is the drivers fault and the sweet potato fries is the restaurants fault. You really need to explain when you’re “rating” the order that that’s not how you’re supposed to go about getting a refund. In fact rating makes 0 difference and does absolutely nothing because if the guy had maybe looked into my account he would’ve seen that I did rate my order within 24 hours of the order arriving. I did it right then and there before I even ate the sandwich which was only 1/3 of my meal. So I won’t be going through Uber for anything anymore. I’m using Lyft for rides and other food delivery services from now on. You used to be my go to, I even worked with the company but you just stole money from me.</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Worst Food Delivery App Ever</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ohitsbubbles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45409.35050925926</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>I’ve been trying to give Uber eats a chance time after time because they have great deals but for the past year I’ve received half orders or totally wrong orders from merchants. Just recently I had two orders that were wrong I sent photos of raw cooked shrimp from red lobster and a whole kids meal missing and they only refunded $7. Then just yesterday my daughter ordered from McDonald’s and only got 2 items out of 5 a whole meal was incomplete and a sandwich. I reported it and was told no refund is due I sent two pictures one of what we received and one of the receipt the person responding from their customer service says from the photo it matches the receipt REALLY!!  I do not like how they are turning against the customers now who have repeated issues and now it’s to the point we can’t even get honesty from the company. No phone number to speak directly to anyone and I was totally disregarded. I’ve spent a lot of money with Uber eats and I can say this is by far the worse I’ve experienced.</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Horrible customer service</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Lala the Dasher</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45410.60262731482</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>I ordered McDonald’s last night already scared I wasn’t going to get my order because the drivers kept bouncing back and forth as to who was to pick up my order. A driver finally picks up my order and I’m relieved because it’s been a long day and I just wanted to eat. I get the notifications the drive is outside and when I go out I see that he is literally driving past my house so I try and flag him down using my flashlight and he drives away faster knowing he obviously seen me. So I go out and try to meet him and he drives off even more, which leads me to running. He didn’t expect me to catch up to him so I knocked on the window, he sees me and drives off completely. I trying to talk to him to tell him I was meeting him to get my order and he drove off so fast I hurt myself trying to meet him and when I showed Customer service what happened they had no response. I am highly disappointed in this service. I could not get in contact with anyone to talk about what actually happened and I am still very hurt after last night’s incidents. I will be telling people in the future to not use this app or service because for me to get almost injured due to a driver basically stealing my food in my face and having no response from Uber Eats or even a agent from within the chat of my order shows there is little to no care for the customers using this app. I am beyond disappointed and to say my experience with this app is a disgrace is beyond that.</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>The service is awful and hurtful</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ToriKing8854</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45412.00271990741</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Drivers who have a hard time finding the area don’t reach out to the customers, and end up placing the food on the wrong door. This has happened many times to me and my friends living in the same complex. We usually go for DoorDash but thought the switch was needed as we heard good things about the app. We were wrong, every order pretty much was delivered to the wrong house so we never received the grocery’s or the fast food. Contacting support is pointless because they refuse to give refunds or price adjustments, or even to get on the phone to discuss it. Drivers don’t answer their phones either so you cannot quickly let them know that they left the order in the wrong house—- in the hopes they could fetch it back and deliver it correctly.
+In short, Uber is a mess with the drivers and they don’t want to help customers who never received their products. I recommend going to DoorDash where they deliver things right and make sure to help the customers.</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Very poor customer service.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Us17)#</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>45416.67579861111</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>On multiple times I’ve received orders with missing food items or sometimes the restaurant will just cancel the order all together. On this last time May 2nd I ordered from PF Chang’s. 
 The delivery driver arrived but I was dealing with the children so my wife picked up the order at the curb. I came down to the kitchen to find just one bag with a single appetizer and desert and a box of rice. We ordered 8 items total. Two entrees, other apps and sushi. The total was $130 and so I went to the app to get help. I had the option to reach out to the driver and he said that was all they gave him at the restaurant. He said my bad and he would report the missing items and I could do the same in the app. I did an didn’t receive a response. Usually they tell you right away we apologize for the mistake. Then I got a message that I wasn’t qualified for a refund. I reached out on the app chat and said to please review it. The agent who responded said sorry multiple attempts have been made so they can’t refund me. If you go to a restaurant and have a meal and the waiter only brings 2 of the 8 items you ordered then you only pay for what you ordered. What type of fraud is going on here? Uber eats should have their service license revoked in Puerto Rico.</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Uber Eats in Puerto Rico is committing fraud</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>ibond</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45418.61454861111</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>I really wish I would have read the reviews before downloading the app. The five stars are actually one star and from my experience, accurate. Avoid this app at all costs.
+There is an “auto-confirm” feature during the checkout process that doesn’t allow enough time to actually check your order - which means you will place the wrong order at the wrong location and even if you cancel immediately and call the restaurant and confirm with them, support is unable to reverse the charges. I canceled my order and got the cancel confirmation but turns out just because the order was canceled doesn’t mean you get a refund. That was a $200 lesson and an app uninstall from me. They’ll say they can within 48 hours but that doesn’t even allow a credit card “pending” status to resolve.</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Actually Read the Reviews</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Average556</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45422.82364583333</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>We placed an order for 3 items for breakfast at 10am, order showed up missing one item at 11am, called Uber and the establishment, and all we where told is they could refund the item, and we would have to repurchase, so after spending 2 hours on the phone with Ubers what they call “customer service” and even getting their “supervisor” to call us back, all the food is now cold, people still hungry, and a $12 waffle on first order with $16 in fees, gets refunded, and then we have to repurchase it for $25, and all Uber will do is give the $16 credit for the item. We were not asking for millions, we simply wanted what we ordered, with out being charged more for the item, and basically told they are only going to still only refund the $16 because the order was not late or missing, when the order was missing, had to be reordered so it was late, because they would not order it for us. And that they are ok with us writing reviews, and never ordering from Uber eats again so that they can save their $9.</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Horrible process for missing items and happy to lose customers</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Wasupnorth</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45423.64523148148</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Uber eats i asked for help with my order right after my order was delivered because i found hair in my food my family had to find something else to eat and I contacted them and they wouldn't do anything to help that day so i disputed the charges for it once my bank refused the funds from them they say now that i need to
+Figure out how to pay it back with a different payment method i will not be paying it because i don't agree to it i contacted customer service and they are now saying it's been over 48 hours so they will not help fix the issue on the app and they will not do anything for it so it will sit there and i will be using other apps to deliver goods to my house i am disabled so this is very frustrating that they will not do anything i hope others
+Will be able to see to help them in a event like this if someone disputes a charge they are not going to pay it even if it requires to use this service again customer support is not helpful just keep on saying is past 48'hours which I contacted 3 hours after my order and no one wanted to help</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Uber eats is not very helpful</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Stevbaa</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>45424.01519675926</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Please don’t buy from Papa John in Gunston plaza on Richmond hwy, I went there for wings I asked for all flats , I was told it had to be half and half I got home and they were more legs, I called and spoke to the manager who was nasty from the start , he said his name was Tony, after talking to him that Friday night May 3rd 2024, he said oh ok we dropped the ball you can bring them back, I said I will be bringing them back tomorrow he said oh ok, my general manager will be there he will take care of you, when I got there Tony was there, he was so nasty again I will take them back but you want get a refund, in fact get out my store I asked for the general manager he told me he said was the general manager and get out he said who bring chicken back anyway. I owned the store and if you don’t leave I’m calling the police, I tried waiting for the police for 30 minutes or more. I am a 67 year old black woman only there to settle the issue we had the night before, I wrote corp. no response, I call in a complaint that night I was told I will get a response and in 48 hours, still no response. Its no reason a customer should have been treated the way I was treated. I wouldn’t excise any one to go their with such customer service.</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>papa John</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Peach by</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>45424.70069444444</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>I live in an area where there isn’t the infrastructure to support bicycle delivery. Generally, I pay for priority delivery and it’s not fair for that to be the case for bicycle delivery when it takes three times as long as by car. I live 15 mins by car from the establishment I ordered from but it took the cyclist 45-50 mins to PICK UP my order then an additional 45 mins to make it my house and my food had bumped with every bump they hit. I reached out to Uber eats about this and they claimed it was within the window and were apathetic. I didn’t complain the first time this happened but this is the second. There should be an option to refuse bike delivery. They should not charge you for priority delivery when it took three times as long as if someone had gotten it by car, nullifying the purpose. This is a horrible business model and it’s not like the delivery person gets extra compensation for it being priority- they do. I want a refund. I want an option to refuse bikes. I’m done with this company for the foreseeable future.</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C18" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Poor customer service</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>annayoung04</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45424.96013888889</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>I received my food an hour late, and that was after paying for rush delivery.  When we ordered, it said an hour max for delivery on their app.  The food took two hours to get delivered, and they just updated their delivery time and called it good.  Three customer service reps terminated the chat after giving me canned responses after I wanted to know why they could just move the goalposts and still charge me for rush delivery.  After the order was delivered, the app’s menu tree would not even allow me to reach another human.  It’s clear they don’t care about customers, which is sad, since they have some great restaurants on the app.  For those restaurants we had sucked up several bad experiences with UberEats, but it’s just not worth putting up with their absolute indifference to the problems they caused by breaking their commitments.  This ruined our Mothers Day dinner.  I think we’re done hoping that UberEats will get better, and back to any other food delivery app.</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Super late and didn’t care - ruined Mothers Day dinner</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tre130a</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>45425.07335648148</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Giving 5 stars so it’s closer to the top. The restaurant accepted my order , without checking to see if they had gf product. I was told they could not make the product (milkshake) in any flavor. I just had oral surgery so I couldn’t have anything else from the restaurant. The order was canceled. Uber tried charging me $6.21 for a shake I couldn’t get, not even one I didn’t want, but one the restaurant was unable to provide for me. How does that make sense? They told me I needed to make sure the order was accurate before placing it next time. It was accurate. I ordered exactly what I wanted. The lady did on Uber did not want to help me. It was only after I got incredibly angry did she escalate it and finally get me a “one time” refund. It is a really sick and twisted policy that you think it’s ok to charge people for a service that they didn’t cancel voluntarily, but because the restaurant is unable to provide the product. I will not be using this platform in the future, it is much easier to get refunds for situations like this via DoorDash.</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C20" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Bad service</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>queenb9728</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45427.17017361111</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Was in a different location and they didn’t update address location like DoorDash does and informs you when you are far away. I ordered 4 pizzas totaling 65$ dollars, recognized location pick up address was wrong and tried to correct or cancel order with in 5 min and the app didn’t allow me. Contacted customer support and told me they had no access to the locations number and couldn’t process cancellation. I told them I wanted to cancel order, they did and charged me full amount for the order. I got back home near the original pizza franchise place and they never made the pizzas and kept my money. Uber didn’t help me and the place kept my money and didn’t even make the pizzas. Horrible app, they lost a loyal customer for life. 65 dollars saved for life, I will now use the official apps to the restaurants for pick ups. Half the time I order food for delivery it’s never correct, Uber truly isn’t innovating anything in the delivery industry. They are bad. Stray away</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Poor app</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>xxssagittariuss</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45431.09516203704</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>They have no support in place for a driver who delivers to the wrong place. I recently placed an order that was delivered to one of the other 100 units in my neighborhood. The photo showed a different home than mine, yet Uber refused to redeliver or refund my order because their tracking system said it was delivered. I was unable to contact the driver because he didn’t have his voicemail set up properly. I was then told by the support person that it’s my responsibility to ensure my food is delivered properly. This is ridiculous, I gave the correct address and instructions for delivery, Uber Eats needs to take responsibility for their mistakes. Had I been able to contact the driver, I could have tracked down where my food was left. 
+All of these issues still led to me paying for an order I never received. When I asked to speak to a supervisor I got a call late at night with a voicemail that gave me no option to call them back. I do not recommend using this app if you expect to receive the service and items you paid for. Will be contacting my bank to report them.</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Robbery</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>jlc09c</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45433.02622685185</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>I placed an order for pickup at a restaurant, and they took close to an hour for my order to be ready. Which was more then the estimated time upon placing the order. I contacted support and they refused to give me my money back, eventhough my order was never started on, and the fact that I had to leave to go to work. That’s not okay for them to steal my money.
+You cannot speak to a live person, they over charge your account, and lack empathy for their wrong doings! They will end the chat when they want too without helping you. Some of the CSR’s are extremely rude. They will not offer you a resolution, even if they are wrong. Definitely don’t recommend if you want to avoid a stressful situation.</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Terrible customer service, no refunds on canceled orders:</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Nina_33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>45435.36489583334</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>I’ve been an Uber one member for the longest time. Now all of a sudden you can’t get a refund on missing items. They want you to take a picture. Of what?! Air? The item is missing. “We’ve determined the delivery matched the order”. How? When the drivers can’t even check in the bags because everything is sealed for delivery. I order a chipotle salad, there was no lettuce. The rep is going to tell me “we’ve determined the delivery matched the order”. How?! When there’s no lettuce in the picture I sent you. Restaurants keep screwing up and Uber eats is making the customers pay for the mistakes. I’m going to have to stop using this app. It’s not worth it anymore.
 I didn’t want a refund. There was still food. I ate it. I wanted to report that it wasn’t the right food. Restaurants are increasingly messing up orders by leaving things out or giving the wrong items and customers are having to  forfeit a refund because it does not “follow the community guidelines”. In what community is it okay to slight your customers for your own benefit?? Uber already marks up the prices on items and then charges fees (even with Uber one) and now we can’t even get refunds on incorrect orders. All about the money I guess.</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C24" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Worst customer service suddenly</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>kwest86</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45435.66162037037</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>I ordered from CVS. My order was incomplete. The driver did not follow my request for deliveries. The driver did not call upon arrival and left my bag on the porch did not knock or anything. I just happen to look out the window and seen a car park on the do not park side in front of my house as the passenger walked back to the car. I ordered Half gallon of whole Milk, StarBucks Pike Coffee, 2 Febreze air freshener holders, 4 Talenti ice cream. 
+I didn’t receive a phone call or a text or a email that these items were not available as I received 2 Ben and Jerry ice cream of flavors that I do not eat. 
+Please resolve this situation the tipper should not be tipped all the way because the person who went and got my stuff did not pick up what I asked for and did not communicate with me. Failed to communicate anything with me did not follow any of the rules.</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Unsatisfied</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>jamesp4u2</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45436.99180555555</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>I’m probably giving this too harsh of a review because I’m mad, but today I got Uber eats from two different places (this is in Spain) but they were both in this mall. The Uber driver made it to our place earlier than the Uber eats app said they would, he only waited about five minutes, and when he called, I answered and I messaged him. My boyfriend then went down right away soon as I figured out he was waiting, which, as I said earlier was probably only five minutes, and then my boyfriend catches the Uber driver with our food and asks if it’s for him and the Uber driver just looks at him and says oh no and takes our food. He even took a picture of it and left a note saying he was leaving it at the door, but then did not and took all the food. I then contacted Uber to try and get a refund and I explained the whole situation and the amount of time and they still said we can’t do anything and you won’t get any refund. I just feel like that outcome is not fair because I did spend a lot of money on that food and I was in contact with the driver and he didn’t even wait that long. The food also came earlier than stated. This has not been the only problem, sometimes the food takes an outrageous amount of time to come even though it says it will be pretty quick, there are always missing or wrong items, and it is never easy to contact Uber. Will not be using this app thanks for stealing my money</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Bad customer service</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Sat¡</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>45440.26444444444</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>You have about a 10-20% chance to have your order stolen by a delivery driver, and the clever ones just cancel your order after they take it from the restaurant so you can’t even rate them poorly or get any recourse. The customer service will let you wait for an hour or more before telling you they can finally cancel a stolen order, and at best you’ll get a refund, but not always. They’ve had many other issues related to deliveries and customer service has only ever been even remotely helpful with any issue one time. Most often they will make you repeat yourself many times with questions already asked, then make you wait for as long as thirty minutes or more, then just tell you they won’t do anything to help and call it a day. This app’s customer service sincerely appears to be in place only to annoy you until you’re exhausted and no longer willing to complain, so you will accept paying money on an order that never arrived, or paying for missing items, or items ruined/spilled by deliverers, or paying for priority delivery and not getting it, etc.</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Horrible customer service and theft issues</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Xenowarrior</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45440.99450231482</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>If I could give no stars, I would. Very disappointed in the treatment from the customer service on Uber eats. I had to go to the hospital ( needed stitches) right after I placed my order. They would not cancel my order. I paid for the order, they didn’t refund and no one was there to get the food. Then when I had my daughter reach out to them there simple response was “ I thought you needed to go to the hospital” they didn’t ask if I was even okay. They didn’t care at all. They ended up giving me a $1.38 credit.  Which was just insulting at that point. I have picture proof and everything. Shows a lot about the people who run and operate Uber eats. NEVER USING UBER EATS AGAIN! Sticking with door dash !</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>If I could give no stars , I would !</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Phoenix6137</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>45441.02377314815</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>I know everybody’s wondering why would I give Uber Eats one star first things first I accidentally signed up for the subscription membership and could not cancel down below. It said I have to pay $98 after the free trial and I was confused because I accidentally pressed it because uber eats has to many pop-ups just to order some food then after that, I tried to order some food and they would not let me cancel so I’m confused and I tried contacting the front office, but nobody answered. I emailed too still no answer. at this point they were  just ignore me I will not be paying that fee I don’t care what it takes. I will go to court for this how you gonna give somebody a membership and won’t let them cancel it Another thing is the taxes there’s no way I order a $10 meal and the tax is 6$ it comes up to $18 the math is not adding up at all uber eats is just broken and  will always be broken. It’s been like this since the first time it came out I always had trouble canceling my orders cause they wouldn’t let me so I have to go through it. I don’t know if this happens to other people or just me, but I consider this as scamming because you’re taking money from people without giving information about it I will not use Uber Eats again if this happens you i recommend switching to DoorDash!!!!</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Broken company</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>DarRius Tray’von</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45441.49788194444</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>I used uber eats because I heard it was better than doordash, but I don’t know about that. With DoorDash they pick restaurants that are close to you automatically. I’m at work, so I decided to order something, and when I went to order, it told me, “it seems like you are far from this location.” Something along those lines. I noticed that I had my home address, so I changed it to work and ordered. When they notify me that the order is being picked up, I check the map, and they are delivering from the restaurant close to my house!!! So the food is going to take an hour to get here! Why would they allow such a far delivery? Why the driver accepted such a far delivery is beyond me. We are in rush hour traffic… I’m so mad. They need to do better with their suggestions according to location, and/or maybe warn when you are ordering above a certain distance.</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Bad with locations, not automatically updating your location</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Jejelinda</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45441.99063657408</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Food delivered cold more often than not, the restaurant frequently gets your order wrong and then Uber refuses to refund you even when the food doesn’t show up, because they’ve screwed up so many times that they flag your account to receive no refunds. The taxes and fees are so exorbitant none of their “deals” are actually deals at all. Whatever discount they offer is set so you have to add a large enough number of items to your cart so that the increased price for the menu items and the exorbitant convenience fees eat up the entire discount and then some, so you end up paying $50 for $20 of food that gets delivered cold. There’s zero reason to use Uber Eats at all, total waste of time and money. And don’t believe a single thing the worst customer service team on earth and the most tactless developer’s response team tells you- they are never working to improve anything for you. They’re only working to figure out how to deliver lower quality service for a higher price.</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Scam artists</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>simondeldesierto</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>45442.12844907407</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>This is unacceptable. I've waited two hours for my delivery, and the delivery person hasn't moved for the past hour and a half. I had to deal with a frustrating automated chat and then an agent who offered a small discount for more waiting, which I accepted. However, the delivery person remained uncontactable by both me and the agent. After expressing my frustration and asking for a solution, the chat was ended, and the delivery still didn't progress. When I contacted support again, I received the same unhelpful response and was offered an inadequate discount despite my premium membership and the increased frustration. A 20% discount on an undelivered order in two hours, wasted were starving talking to two agents who are very inefficient for more than 40 minutes is insufficient. Considering the poor behavior of the delivery person and support agents, I will not renew my premium membership if nothing is done. This situation does not reflect the loyalty I have demonstrated to this app, and it has been extremely disappointing. I canceled my Uber one. I understand a delivery person going missing in action, but having two unprofessional, inefficient support agent that both and the chat promptly without my consent, and without solving the issue was too much.</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Was loyal but omg this one was a dealbreaker.</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Romain2024</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45442.69131944444</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fraudulent app with the worst customer service. I’ve experienced on the App Store. This app pays companies to give them great reviews. It’s a common theme as I’ve traveled throughout Southeast Asia and I’ve been to 12 countries. Grab continuously has terrible customer service, including no availability to cancel an order that’s existing an hour past It’s promised delivery time. Additionally, there’s no way to dispute a charge on a delivery because the Grab drivers can charge you whatever they want and then it’s between the grab driver and you and you have no way to dispute it! Meaning, I was promised a certain charge yet the crab driver can sita the promised charge between you and Grab and charge you 3 to 20 times more even if you didn’t agree to it. Don’t fall for the scam of this company. I’ve never met a worst ride hailing app then Grab and I’ve traveled 196 countries in the world. This means that I’ve out of all the multi billion dollar companies that are right healing services. Grab is by far the worst.</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Wow, a new customer service low</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>13686446764333</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45448.12811342593</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Really disappointed in how customer support has been lately, you’re stuck dealing with bots if anything goes wrong. It’s great when Nothing goes wrong. The moment anything happens in or outside your control, that’s your problem now. You can vent to the bot, they don’t have a phone number to call, you can email and wait 7-10 business days for them to respond with a question you answered in the email. 
+I made the mistake of ordering groceries, because they gave me a 40% discount. I got the recommended items and they ended up only having 4 out of 11 items, when the shopper asked me what I wanted to get instead of the 7 items I asked them to cancel the order. The shopper said he cannot, I contact support they said they can’t. And yes I contacted them while the driver was shopping I was stuck with 2 of my 11 items paying more for the fees than the food. It’s been 4 days and they reply at a pace of one sentence per day. It’s bots. I’m done.</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>I don’t even write reviews</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ponze16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45451.45864583334</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>So I ordered food that I have ordered to my home before how eveer I had it set to my friends address witch we have also delivered to before so I attempt to change the address to the proper one it says it's to far away when it's right around the corner like 15 min walk tops so I say fine and go to cancel it was just now getting into prep when I cancel so their food wasn't being made yet and the refused to give me a refund so I never got my food and I lost 60 dollars for no reason Uber eats needs to be sued bc ik I'm not the only one this happened to me myself have delt with this over 13 times I deleted the app and will no longer be getting food from this app they also char gee almost 3x the amount of the actually merchants food I ordered 2 crispy chickens from mc Donalds that are 13 bucks and somehow  came out to 62 dollars and some change how does that even make sense 60 bucks for 2 samwiches is insane</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Highway robbery</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>anonymous110101</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45453.87703703704</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Don’t bother downloading this app. I had been using Uber eats for a while, even had a membership, but I have to stop because of the deplorable service. Majority of the time, my deliveries would have items missing, would be cold, or would be an entirely different order. I understand that’s sometimes a restaurant or driver issue, but when I take issues to customer service, they seem like they’ll do anything in their power to keep as much of your money as possible. My final straw was being charged the full amount for an accidental order I cancelled immediately. As soon as the confirmation screen popped up I cancelled, but I was still charged the full amount because the restaurant had “already begun preparing the order.” I don’t understand how they possibly could have done so within literal seconds, but go off I guess. When I contacted customer service they told me that they can’t issue refund because it is not fair to the restaurant. I’m livid. Don’t bother wasting your money on their fees or membership. Use DoorDash instead.</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Horrible customer service.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>nsbarber123</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45455.40290509259</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>I recently ran into some issues with my order. I ordered Burger King using a promotion that they had. Upon check out, it told me I would receive 2 original chicken burgers. I saw that my order was totaled at $9.89. I selected no tips. And went to check out confirmed $9.89. I ordered the same exact order, saw the same thing at check out. However I was billed $11 the first time and $13 the second time. It was the same exact order with the same exact promotion. Sent a message to the agents, just requesting an explanation. No one would explain. They all just typed the promotion was attached and they answered my question. Which they didn’t because I still don’t see how it is I was changed more than what I saw when I click check out. And I selected no tips, because one of my order was hella late. 
+The agents, Deepak, just ended the chat abruptly, being very rude, because I still wasn’t sure of what was going on. The agents are not nice and the app is selecting what it chooses and billing people incorrectly ( different price from check out amount).</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Rude Agents &amp; Non friendly app</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Abgail134</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>45455.81685185185</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>I don’t understand how every single time I order something through this app, it gets delivered to the wrong location. The past two times, I’ve needed to drive around my neighborhood trying to find my order. This time not even that worked, my food is literally nowhere to be found. Yes, I got a "full refund" this time around since I got absolutely nothing and I understand the driver needs to keep the tip which doesn’t get refunded to me, but I think the company should take that cost as well. I literally just paid for nothing to get delivered (once again).  Basically just paid somebody to drive to the wrong location, while I get no food on top of that.  
 Not once have I ever gotten my food delivered somewhere else by any other restaurant or app besides strictly Uber Eats. It is such an easy address too, literally four numbers and the name of the street. It is really not that complicated (no apt no., etc). If you’re going to run a delivery company where you outrageously overcharge for fast food to be delivered, at least make sure your location services work properly. Just ridiculous.</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Same problem every time. Their locations are wrong.</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Raqueljmm</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>45457.64734953704</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Made this 5 stars, partly for visibility, and partly because I do genuinely like and rely on Uber Eats. I’m physically disabled and can’t cook, so this has been what I have relied on for the past 3 years.
 BUT!!!! Within the last year in particular, it feels like Uber Eats has been taking advantage of the fact that you kinda *need* notifications turned on your phone in order to know when your food is here, so they can shove ads in your face. It’s already bad enough that you can’t watch videos or scroll social media without seeing add every 5-60 seconds; why must my phone notifications be ads too? Wasn’t this corporation already generating enough money already *before* making all these ads for fast food chains? It just feels greedy, unnecessary, and inconvenient. And news flash: the more these apps keep inundating me with ads, the less I want to consume what they are advertising to me.</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C39" t="n">
         <v>5</v>
       </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Why must the world become an advertising hellscape</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Please just lemme post</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45457.89472222222</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>I have been using Uber Eats since it became available in my area, and while most of my experiences with them have been amazing, I sometimes struggle with the Help and Support area. It doesn't always work with the VoiceOver screen reader on the iPhone. Also, if you accidentally have the wrong address put in, there is no way to edit it. When I went into the chat section, the representative told me they couldn't change it on their end either and that I could message the driver and let them know of the change and maybe the driver will help. It didn't work, and the driver didn't respond to any of my messages or answer the phone when I called twice. For the Uber app developers, you need to make it possible to edit the address, and if there is a way to do it visually, then it's not accessible with VoiceOver.</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Love the Service, frustrated with the support</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Fhl28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45458.84716435185</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>I was told there was a bug with a promo for Uber eats for a little 2.00$ off and that it was bc a bug on their end Ofc. And I just needed to ended to order than inform them and they could refund the 2.00 which is fair -sort of- since I explained to them I only had enough to pay for order with promo bc I’m staying at a hotel amd limited on funds. I asked them if they could just give me. 2.00$ and that would solve the problem and I could order and after that I guess I went to far in our discussion bc the immediately ended chat. Very unprofessional. I was very respectful the whole time and use yes sir no sir and Ty and all the proper ways to show respect but not once was I shown the same. So order if you wish but don’t count on promo
+Comes because the ones in app and ones in emails they sent you tend to never work. If they do it’s a rare thing. Much love and I will pray for this company I also contract for.</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Promo issues</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>LayZmon</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45460.14482638889</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>I noticed tonight that I was charged an odd amount for a Uber order that was delivered wrong- the delivery driver didn’t bring a drink I paid over $6 for. 
+As a prerequisite, I set my tip to $0 when I order just to be sure I’m not tipping if they are a bad driver (I’ve had plenty- my instructions say not to ring the doorbell and I’ve had drivers not only ring it but refuse to leave it at the door, ask me to come to their car, etc). Once it’s delivered I change the tip to be adequate to how their service was, but I ALWAYS tip. 
+Well tonight after the driver didn’t bring half my order, I tipped them $4. Only for two hours later for my card to be charged for $8, which I know I didn’t agree to seeing as you have to manually type in the tip if you go to change it. 
+So I went to Uber to dispute this, their only customer service is a chat or email. The only option I had for changing the tip was the instructions for changing it as usual, but they only allow you a hour to do so. Seeing as I was charged two hours later- I cannot change it and Uber stole money from me, and is giving me no option but to just let it happen or go dispute a $8 charge with my bank. 
+Check your total directly after the order is delivered, make sure you aren’t being charged for anything you didn’t agree to. Thankfully mine was just a tip, which goes to the driver.</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Pay Close Attention To Total</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>EmmaF1015</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45461.64740740741</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Consistently saying a delivery time and then changing it after ordering! The past 5 times I have used Uber Eats for delivery, I have ordered from places that said 30-45 minutes in the delivery time. As soon as I order, it changes to an hour. My most recent order was literally just sushi and it took AN HOUR AND A HALF to arrive. I have tried speaking to customer service about this and they are unhelpful and useless, they just say things along the lines of “well your order arrived, sorry it took longer than advertised”. I cancelled my Uber One today  after speaking with Manpreet, as I ordered a coffee and it once again said 30-45 minutes and took over an hour to get to my house and when I asked why this keeps happening, she ignored my question and said to contact customer service if my order doesn’t arrive because I don’t “have any problems yet” . Useless and pointless to pay for services that take longer than it would for me to just drive myself. Is this app not supposed to be convenient? It causes more trouble and annoyance than it’s worth</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Useless and Dumb</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>BostonCeltics98989</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45461.72125</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>I have to say there is nothing better than having my breakfast, lunch or dinner in bed. My wife and I both work long days so unfortunately we use this service way to often. I don’t want to know how much we have spent but with that being said Uber Eats has done a really great job. Some times you will have the occasional canceled order and that’s not good but 99% of the time you’re food shows up and you get your grub in time to watch your favorite movie and cuddle up with the family. There are definitely more times than I like the driver does not check the order and items are missing or wrong but Uber Eats tries to reimburse you the best they can and that’s all you can expect from a company. I applaud Uber Eats for a job well done. Thank you for all these years of fantastic food and time back with my family and friends. Cheers Uber, 
+Michael</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Over 300 orders now.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Stylist911</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>45462.87518518518</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>App steals your money The other day I placed an order for a salad and when it came in It was a mess packaging open with juice leaking on it I reached Uber and they gave me a credit from the order that did not include the tip which Is normal The order total was around 26 dollars and I tipped the driver 5. So I received 21 dollars in credit Then an hour later 5 dollars disappears from my credit (Uber Cash) it goes down to 16 dollars and it list an extra 5 dollars being taken out for the tip even though the driver received a prior tip and I never altered anything. Then the last straw hits when I wanted to order some sushi with my credit. The order was 29 dollars minus the 16 that was there I should have only spent 13ish dollars out of my bank account TELL ME WHY IT DIDNT USE MY UBER CASH IN THE TIP 18 CAME OUT FROM MY ACCOUNT. Why would they take the tip out of my credit two times AND then make me pay 5 out of pocket with the tip on the next order!!! That’s sooooo wrong I only received 10 dollars covered by credit when it was supposed 21. ABSOLUTELY DISGUSTING THIEVES Ill probably switching to DoorDash where they don’t steal credits they give to there loyal customers after a mistake has been made</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Stole my credit</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>peter gggoo</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>45466.55366898148</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>***Leaving high stars so hopefully people can read this**** Great app to easily order food….assuming everything goes well with your order and everything is correct. 
 Dealing with customer service trying to correct issues with orders is the problem. We would order 4+ times a week so obviously not everything is always correct. The first few times needing assistance was fine. Fast forward and they will flag your account for reporting problems. We spent over $100 one evening on dinner. Did not receive an entire entree priced around $30. Contacted customer to fix the issue and they said there was nothing they could do and my account was flagged and no refunds or coupons would ever be received again due to too many reports. When you’re ordering 20+ times a month OF COURSE things are going to be incorrect or missed occasionally. And of course I’m going to contact customer service because that’s my hard earned money but apparently there’s a limit with UberEats on how much they think should be corrected for you! So order away but just know eventually you’ll be paying them for incorrect and missed orders.</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C46" t="n">
         <v>5</v>
       </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>PLEASE READ THIS!!!!</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>KenzFla</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45468.92756944444</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Uber does not provide any help with actual concerns any customer has and their main goal is to make sure their pockets are filled regardless of the satisfactory of the customers. There was a time my order was stolen by the driver and they refused to give me a refund even though I had placed the order again. Even if you place an order by mistake and manage to cancel it within 30 seconds, they still take half of what the order was for “fees” even though there is no assigned driver and the restaurant never made the order. I’d recommend using doordash because they provide way better help for any issue you would have and they don’t just give you automated replies behind human names to make you feel like you aren’t talking to a bot. They all provide around the same inflated prices, so you’re really only using the app for the support, features and promotions. Uber is 3/10 on a good day if you had no issues with your order.</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Terrible customer service</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Jedz!</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>45468.95204861111</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Honestly, I’ve used Uber eats for years now. I recently got a new phone and number and had to remake an account with them, with that I got multiple promotions stating I could get $20 off or $25 off my orders. When I apply them to my order they never work. I’ve called them about this issue and they just tell me the promotions got deactivated, even tho I received them that day. When asked why they got disabled they have no actual answer and keep repeated that Uber reserves the right to do so whenever they’d like. When I asked if there was a supervisor I could speak to about this issue since she was unable to help me and this isn’t the only promotion that hasn’t worked she instantly hung up the phone. I used to love the app and used it all the time especially during Covid, but now it’s a scam and I will never use Uber eats again and advise you to not use it either. DoorDash gives you promotions and you can use them, they have a better setup for if food is missing or wrong where they actually give you your money back, and they function better all around now.</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>Uber is a scam that steals your money</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Honest reviewer !!</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45469.0059375</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>“This app is a SCAM DO NOT WASTE YOUR MONEY!! I ordered uber eats one night and my driver literally stole my food, as soon as he stepped out of the restaurant he pressed ‘order delivered’ and I never got my food so I contacted Uber and they refunded me the money which was THE RIGHT THING TO DO. So that same night I placed another order with a different restaurant because I was still hungry and the restaurant forgot one of my items so I had to contact Uber again and sent them a picture showing that one of my items was missing. They contacted me back saying they were not going to refund THE ITEM I NEVER received because apparently I have a history of asking for a refund. And please keep in mind that I don’t cook so I order Uber eats EVERY SINGLE DAY!!! And I only complain when something is seriously wrong or missing!!! I mean how ABSURD is that??? Not only my first order was never delivered now I still have to pay for an item I never got??? I’M NEVER ORDERING FROM UBER EATS AGAIN!!! They have a HORRIBLE CUSTOMER SERVICE!! I even had their Uber one monthly membership WHICH I JUST CANCELED!! Uber eats should be ashamed of how they treat customers!!</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>HORRIBLE APP!!!!</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>GabSophia</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45469.62175925926</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>I live on Uber Eats. I only had maybe three or four issues ever over the years. The first one was handled very quickly and easily. The rest were in one week in Tennessee while I was on the road! When people are spending hundreds-thousands of dollars with a company each year (like me) and Ubers’ vendors mess up, it should not be difficult for customers to receive the money back or speak to someone since they clearly have shown a pattern where they are not trying to cheat the system. But instead, we are sent to chat to someone in another country with poor customer service. They ignore you and clearly are just trying to get rid of you. So it’s OK if my food doesn’t show up, or that it’s left in the mailbox and the driver doesn’t tell me when I’m talking to them on the phone, or that the food came and it was soaking wet like it had been dumped in water. So guess what? I don’t care about the Uber cash sitting there. Im deactivating my account today and I’m going with GrubHub and DoorDash. Just read an article about how bad Uber has gotten and I just don’t wanna deal with it anymore.</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Loyal customer gone</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Pam the globetrotter</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45470.811875</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>I’ve had multiple grocery orders take hours beyond what the time they estimate is and far past the latest arrival. There are massive language barriers at times which I get, but I can’t communicate with my driver and they make mistakes. Customer service through Uber eats is absolutely atrocious. It is all fluffy words and they rarely read and take the time to figure out a problem, or it takes so long because they keep tell me sorry and how they understand rather than fixing the problem. I have had several drivers sit in one place for an hour and then deliver my order, and there is no repercussion for the driver. Once they pick up the order you can’t change the address or anything else they say you can do then tell you they will charge you to cancel the order that you know is messed up because of them. Honestly, don’t give these people or the drivers money. This is a super easy job and it is apparently to hard for them.</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>These drivers are garbage</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kyle E13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>45471.88025462963</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>This is based on dozens of orders. 
 It’s like some mad genius optimized an app for taking good people that work hard to deliver good food that people worked hard to cook to people who work hard for the money to pay for it. Everyone’s incentives are aligned to make this works. Then comes the Uber effect. The most stupidest decision is always selected. I just ordered from Jack’s Urban Eats, a local chain favorite that has a storefront a mile or two away. When I check on the order, the driver picked it up, then drove 20 minutes in the opposite direction to make another deliver then drive 22 minutes to pass the same Jack’s and 1 minute to deliver the now 45 minutes old sandwiches and urban fries.  Stupid. The same restaurant, another story, they sent the order to a store 2 town over and waived the services fee so it looked legit. 
 They have this deal add a 2nd stop for your driver for no service fee. If you set it up so the 2nd place (like dessert or boba drinks etc) is on the way from the first place to make it easy they inevitably send 1 person to the the drinks or desserts spot immediately and later dispatch a different person to get your dinner order 20-40 minutes later</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>Horrible</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>bad app bad sppp</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>45475.28063657408</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Overall a great delivery app in its sum but I do have a few complaints. Such as order cancellations, it’s a thing that has a slim but decent chance of happening to your order. It’s annoying though it’s only happened once to me, it was quite annoying because I don’t order food quite often. So it was pretty frustrating to deal with. I hope Uber has improved this and I’m not sure who’s fault it was on their end whether the restaurant or the delivery driver just hoping this can improve. Another complaint is sometimes the prices can be outrageous, like for a small slurpee with tax and delivery fee is $7? I might as walk but I guess. I don’t think they can do much about prices but I’m glad it’s not to bad. It’s just a little higher than preferably acceptable. Other than these 2 things. I highly recommend this delivery app, it’s better than any other app (Postmates, DoorDash, etc.) so go ahead and install it and order yourself some.</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C53" t="n">
         <v>5</v>
       </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>Great delivery app! But..</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>goji_fs</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45475.98547453704</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>I highly recommend getting DoorDash instead. The customer service is non-existent and the only way to chat with someone is by searching through old orders and selecting something random like "missing item" just to get the option. There should be a way to easily connect with somebody for an issue. On top of that, I have often received promo codes that end up disappearing. When I asked, they tried to falsely claim that I was being fraudulent and yet, had no evidence of such a claim when I asked. The ONLY thing I have ever done is try to apply promo codes found online depending on holidays, special occasions, etc. When I tried to confront support about such an awful claim, I am immediately disconnected. This app used to be much more user friendly and I had great experiences in the past, but now it is almost unusable. DoorDash reminds me of UberEats when they first started and it's a much better customer service team.</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Bad customer service/Disappearing promo codes</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>FormerSlackerLover</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45476.58532407408</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>I will end up deleting the app today. The delivery driver delivered to the wrong address and blocked my phone number when I tried calling them. Uber support was absolutely horrible to me and I ended up walking to every building in my complex to see where my food is. I am 7 MONTHS PREGNANT and having to do this. And just to have Never found it! That driver more than likely stole it and that’s why he blocked me. UBER support refused to give me a refund, refused to give me credit for my order and refused to replace my order. Instead when I chatted and called them about the issue they said they would just reach back out to me on email or call whenever they “can”. This doesn’t do anything to help resolve the solution for the customer now. Now I am out $70, upset, hungry and having to wait for a response. Keep in mind the meal I ordered typically would cost $45 if I went there but I am in the middle of moving and just needed it here to eat and pack. This app is horrendous and terrible to its customers, spend your money somewhere else.</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>DO NOT USE THEM!</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Abbystare</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>45479.41449074074</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>I buy a lot of stuff from Uber food groceries etc. I’ve been doing that for years. Now that things are still missing lately and there’s nothing I can do about it cause they won’t pay me back and I’m supposed to prove that they’re missing when something missing I asked for a refund or whatever and they say no they will not give it to me. Some of the money has been as high as 50 or $60 and I don’t get the money back. I don’t understand, but somebody told me that because I had too many problems with my food. Now they will not give me any refunds no matter what the situation is so they said that once that happens, you are no longer getting any refunds ever. I remind them that I buy more much more than I am missing and I I give them positive views and information when they do well, but when they don’t , I give constructive criticism of missing items or it was slowly made doesn’t matter. I asked if I could talk to somebody in reference to this ordeal and I was told that there is nothing I can do, so as long as I keep using them and I don’t get what I paid for I will never get a refund from them again and they won’t tell me why</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>Food and items keep being missing and I don’t get paid back for them</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>crappy to find location</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>45479.71423611111</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Order food from my Uber app. When I received my order my drink was missing the fries where severely overcooked making them inedible and the sandwich was missing everything I asked to be put on there and the food was cold. When I contacted customer service not only did they not do anything but when I tried to make my complaint about the food it kept saying you left no tip as a justification for my order being completely wrong. I tipped the driver the next day as I told them I would. Customer service not only didn’t help they said my order didn’t meet the qualifications for a refund. I paid almost $9 dollars at Wendy’s for their $6 biggie meals to have my order cold, missing food and inedible food because the fries had been so overcooked you couldn’t eat them. I even sent a picture a second time to show on my dispute that the food was overcooked. I never got a response back and on the app it says that my concern was handle when it wasn’t. I wouldn’t use UberEats or any other platform like it. I would only use that specific restaurants app to order delivery and just pay there fees.</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>Customer service</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Shav253</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45481.89270833333</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>I ordered Uber eats on a Sunday night for some  Popeyes. As my order was being prepped at the location, I was called by the driver who told me the order wasn’t received by the restaurant, and I had to cancel my order. I did, and was charged nearly $35 because of this. I contacted customer support who were HORRIBLE at helping me through this issue. They told me I would revive a full refund within a week. After 2 weeks, I still was not in my account, so I contacted them again. After chatting with multiple service reps, they all told me that since I hadn’t contacted them within 48 hours there was nothing they could do. Apparently having a customer service agent lying to you and say you will get a refund is not a big issue. Uber eats stole my money and probably will to you. Don’t download this dumpster fire of an app. If something goes wrong on their part, they will still keep your money and blame you for it.</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I don’t normally write reviews, but I had to because of this.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Altraeric12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45483.70979166667</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>I had this happen numerous of times now where my food isn’t all there. These people you hire are absolutely terrible. I ordered fire house subs with a drink and chips to combo none of those items where in there and my bag was open. Clearly on the receipt it says chips and a drink. I don’t like that you have to pay money for those extra things but when there but there you can’t get a refund or even the stupid store credit. It says it’s not refundable. Yet I’m spending 25 extra dollars for those extra items just to not receive those items. The dashers done even communicate and tell you they forgot them or the workers completely over look the order completely or they take it them self. I’m done with this app completely.</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Not bringing the entire order</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Bonyan20</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45485.13578703703</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>This has got to be the worse delivery app i’ve ever used. Starting out they advertise promo codes to promote everyone to purchase on their app for them to not even work. If that’s not enough you will get these fake promos not only in app but through email and text. Secondly, if you ever have an issue with an order you mind as well kiss your money goodbye because you won’t be receiving anything. Third, their customer support is terrible, good luck with that. Forth, even if you do tip good, your order can be dropped about 5-6 times before it’ll even arrive. And by that time it’s already cold and you could’ve just made food at home because you’ll have to reheat it unless you want ice cold food. (even when it doesn’t drop the food is cold no matter the distance). Fifth, all the extra added fees for delivery (which delivery drivers don’t see a penny of), and the extra fees on the food you again MIND AS WELL TAKE YOUR $$$$ elsewhere because it’s a waste of your time and $$$!!</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>worst delivery app ever, would give 0 if available</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>The helpful guest</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>45485.20409722222</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Firstly the fact that they wont post your one star review shows how many people are dissatisfied. I would rate this 0 stars honestly. The amount of issues I had with Uber eats is just pathetic I CAN GIVE MULTIPLE EXAMPLES  weather it be with the order taking way longer than is said or with issues with my order. The fact that you can’t talk to someone on the phone and theirs only a  chat is frustrating .
 My most recent experience was the order sent to me was completely incorrect. I reached out to them and they told me they can’t refund me. After emailing 2 more times that I want a refund they said they’ll give me $10 credit for Uber eats. I tried to order something and apply the credi  it and it didn’t work. I emailed them back and instead of answering my questions they just said we can’t refund you. The lack of customer service and the fact that they don’t value or appriciate their customers AT ALL!!!!!! Is honestly pathetic.
 ( I order form Uber eats all the tome sometimes as much as 5 days per week). I decided to try Uber eats again after not using it for a while but after this recent experience I’m not using them EVER again and will most definitely not recommend to anyone to use it. I will be using DoorDash instead as my experience is a lot more pleasant with them.</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C61" t="n">
         <v>2</v>
       </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>Don’t use Uber eats</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Tzippss</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>45485.66833333333</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>We ordered from Uber Eat App for food delivery , and our order was delivered but missing two out of four main courses. The receipt on the bag listed our order correctly, but was not including in the bag. We have tried to reach out to Uber Eat through the App, but was not properly refunded for the missing items. After several attempts to get to the correct refunds, the only respond was: “You’ve exceeded your support attempts”, and that was it. No number to contact customer service and no chat available. Our food was still missing, but we can not get help, nor a proper refund. We tried to contact the restaurant, there was only pre recording and not able to speak with a real person. Tried the restaurant app, it mentioned the deliver through third party (aka Uber Eat) has to contact the third party. We’ve learned our lesson.
 Update:
 Received feed back from support team a day later. The support team had provided refund for what is just for our missing delivery items plus some extra for the next order. I considered it was fair compensation for what we had went through.  Only hope Uber Eat will bring back the chat options for anything that goes wrong with orders. Either way, we will continue use the app for our convenience.</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C62" t="n">
         <v>4</v>
       </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>No customer service</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Austin M&amp;M</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45485.73265046296</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Today I had a food delivery to my office. Somebody gave me a gift card and so I thought OK I’ll finally figure out how to use it. I’ve had it since Christmas. I have use the Uber app to order a car for my friends for my children now and then. But never food, so I placed the order saw that it was picked up and the driver was going to be here in 15 minutes then I got a notification that the driver had to make another stop on the way and it was 10 minutes after the original time they were supposed to be here when the lady when the female showed up and it was supposed to be a male driving a car I said to her is it normal that Uber food delivery people make another stop in between the delivery she just gave me a blank look and the way you are not the male that’s in the picture she got back in her car. I lowered the tip to 10% and I was going to give 22% told her that I was going to report her and she said I was rude. I’ll figure out how to use the rest of my money or just let it go to waste. This was horrible.</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>First time food delivery</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Andy9456</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45485.75306712963</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Continuous problems with deliveries. This time a driver just straight up didn’t deliver my food, marked as delivered, then declined my calls through the app. There was no contact with the driver. Trying to get help on the app tells you to contact driver. Took over 10 minutes after the incident to actually get to at least chat with someone. And they’re agents are very polite, but have NO IDEA about actual customer service. I outlined my problem with the steps I had already taken, and was told to do the same steps I had already outlined I had done. They would then refuse to let me speak to a supervisor. Took 3 different agents to get a confirmation that at the very minimum I get a complete refund to my method of payment. There idea of a resolution was originally refunding the money for the food I never received, and that’s it. No offer of redelivery, not even refund of the fees and tips, let alone compensation or an attempt to make it right. For such a big company, this is an actual shame they’re incompetence on all fronts has reached this level.</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Just door dash…</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>GnarfulFunk</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>45486.00826388889</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>I’ve had a few problems with orders in the past, missing items or bad replacements, but my order tonight was terrible. I had a sick dog at home so I decided to order in. I ordered 6 items. The delivery driver changed the quality of 2 items which cost me more. He then said they didn’t have any Rose in the entire grocery store and no cake. This is obviously an outright lie. He didn’t speak any English but I shouldn’t suffer for the lack of ability to communication. To add insult to injury, he charged me for 4 items and only brought the 2 that he upped the quantities of. After leaving off the wine, he still insisted that I show an ID for alcohol and sign for it. I simply signed, “no wine” since I didn’t receive any. There’s no number to call for Uber Eats and the Help option is extremely limited to preselected options like missing item or it would just direct you to self service with no help at all. I hope to be refunded for my missing items but the entire experience was for convenience. This order took an hour of my time and wasted my money, then I still had to go out get dinner. I’d caution anyone thinking that Uber Eats would be convenient; they’re unreliable.</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C65" t="n">
         <v>2</v>
       </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>Nonexistent Customer Service</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>Customer480</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45487.31164351852</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>This app and company are fraud. They claim to want to make life easy and they are the problem. In the last 6 months I have had an issue with them not honoring their own benefit policy with my cc . I have reached for the last 3 months trying to solve the issue. Well first there is no number to call directly so I attempted to go through the app and they waited over three days to respond and when they did they gave instructions that deleted the app and the entire conversation. Secondly to locate any type of help through the app took over an hour to begin a chat because non of the help options lead to a representative. The app is horrible especially since they have the Uber and uber eats separated. You are the same company why would you not just combine into one . It because they have no consistory their guest / customers. They are only in the business of taking money and not giving service. They state that they are always doing upgrades and making sure the app is functioning but in reality it’s all false.</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Fraud</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Diamond Goddess</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>45488.81510416666</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Uber Uber eats is the worst food delivery app ever not only Do they not have a real customer service line but when you do reach out for support in the app, all of the representatives use the same lines which makes it seem automated. They can’t help you with anything, I had a $20 off promotion for any order over $25 and it applied to my order but when I went to go check out, it says the coupon can’t be applied when I reached out to customer support they said the coupon should work for my order, but since it’s not they gave the trash idea to purchase the meal full price anyway and after my food got delivered, they’ll apply the promo after when I asked for details as to how that worked, they couldn’t give me any details and ended the chat abruptly they said that a lot of people were having issues with applying the promo and it’s a bug inside of the app. Uber Eats has to be the worst thing created for food delivery ever, and I hope the entire company burns to the ground. hungry people have the worst attitudes so considering that this app is so trashy I don’t know why they won’t put the work in to fix it. Uber eats isn’t even half as good as DoorDash, but I only used it to use my promotion which again doesn’t work.</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>Worst food delivery app</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>Autumnmonet</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>45488.89679398148</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>The app isn’t great and I’m finding myself ordering directly from businesses more and more often (which is probably better for them anyway.) 😒For example, sometimes order tracking does not work so it looks as if an order was never placed. That is how i ended up with three pizzas the other day and spent $70 as opposed to the $20 something dollars I intended to spend. Second complaint has more to do with the uber one membership rathe than the app. Users paying a premium for a membership should get delivery priority but right now drivers can pick up multiple orders to deliver… so you maybe waiting forever to get your order. BUT for an extra fee… on top of your membership premium, you can pay an extra fee to have your order delivered first. Uber with the ten million fees for the win. Next, you’ll most likely NOT receive your order more often than receive it. If the driver delivers your order to the wrong house, Uber will issue a refund for the food and fees BUT THE TIP WILL STILL GO TO THE DRIVER. Thanks for hijacking my tip and rewarding the driver for their incompetence. I personally do not like to tip
 if my order never gets to me.  More and more often the driver in the picture is not the one that shows up… so much for safety.  Lastly, more often than not drivers do not speak english so good luck trying to resolve something with them if there is an issue with your delivery.</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>fees up the a**, terrible service, I do not recommend</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>nicknam3123456789</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>45489.21886574074</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>After I was given TWO of the FIVE items I ordered which I paid full price for, I sent my request into the help center and asked repeatedly if I can get help about my items missing from the order and all I was ever told is that I’m not “eligible” for a refund, I asked to see why I was not eligible and if there is a list of reasons someone wouldn’t be eligible but what made me the most unhappy is that I never even spoke to a real person and when I called my delivery drive, I was unable to communicate with him due to a language barrier. I was in the same help chat for the order for three days and got the same response from the “person” taking my ticket and I’m writing this review mainly because under the different names of “people” sending me responses send messages not too distinctly from how a ChatGPT Ai with a prompt that most likely tells it something like “write a message to a customer that informs them there order is not eligible for a refund”  because I am getting a very similar message repeatedly with the same core meaning, something ChatGPT Ai bots do. I am very frustrated with the service I received and no longer wish to pay this company a dime ever again.</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>The Customer service</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>SteinburgGoldmann</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>45491.66815972222</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>For the most part Uber eats has been pretty solid . I use it some what often on most weekends for my wife and I. There’s been a handful of times where I have had to contact customer service , the customer service is absolutely terrible , I have had them legitimately tell me, you’re out of luck and just leave the chat , even when asking simple questions, ignored .. I will be deleting the app moving forward and spending my money elsewhere, I’m only 1 guy ordering and it won’t make a big deal, I’m aware . However, with the customer service being so rude when an issue occurs and ignoring simple questions on why I’m waiting 2.5 hours for food after they assured me at the 1.5 hour mark it will arrive within the time window ( 10 minutes after the convo )and it just continued past it , again, and again. They shouldn’t make guarantee’s when it’s out of their control. It was 5p on a Friday evening so I’m sure that’s a busy time but no one was picking up the order and customer service just kept lying saying someone had was on the way so I couldn’t cancel it . It was a place 5 minutes away, so I just wanted to go pick it up myself and they also wouldn’t let me switch that either . Just waited the 2.5 hours .</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C70" t="n">
         <v>2</v>
       </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>Some issues</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>CATVI.</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="G70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45492.02653935185</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>I have order items from grocery delivery service, my order wasn’t delivered once and got cancelled after I had communicated with the delivery person for 2 hours. Second time I was given promo from uber one and which wasn’t applied after the grocery delivery and got payment with added cards. Later I order an item and communicated with delivery person about replacement when it wasn’t found, but got entirely unwanted new item and support team is rude and won’t help out with any of the concerns once they get the payment through. Overall the support team is bad and delivery is given as per their wish and doesn’t really care about the customer. Their promo given by them doesn’t work, standards of delivery bad and support team is the worst they just literally connect with you for 1min and leave the chat with the same copy pasted answers. Don’t waste your time with uber eats and literally any other delivery service or direct delivery from the restaurant or grocery stores are better and worth your money</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Bad experience with uber eats</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>JanuJ4</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>45492.808125</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>While yes , it’s cool to get food delivered. Uber is terrible. 
 Restaurants do not tell you when items are out of stock, and ur left with making 1-2 hour call to Uber and they can’t do anything about it and you have to settle for something you didn’t want.  This has happened with every ice cream store we have ordered in Uber eats. 
  Along with restaurants saying their open and when you place your order they close the restaurant and you again have to call customer service and ask for a refund or cancel and in reality it takes so long. Restaurants forget certain items and you have to experience the frustration every single time you order.  Some Uber drivers cancels your order. My family has have to wait 2 hours once to wait for a driver and  also the 20-30 minutes to the drive to drop off the order. I recommend DoorDash as it’s better then Uber. Thank you</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="C72" t="n">
         <v>5</v>
       </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>Terrible.</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>Elie_82</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="G72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45492.90648148148</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>I was an Uber One member for several years and regularly used Uber Eats, as well as their ride app. I cancelled my subscription and will never be using them again after they refused to give me a refund when my order was cancelled immediately after placing it. Their customer service uses a script and will not treat you like a human, and will just pass you along to another representative who will copy and paste the same script. They do not want to help you find a solution for your issue. If you look on Reddit, you’ll find countless stories of customers who have had this happen to them. I genuinely don’t understand how there hasn’t been a class action suit or some kind of investigation with Uber Eats, because this business practice genuinely seems unethical to me, and a scam for customers. To be treated with such dismissiveness and rudeness by customer service after spending many years frequently using their service was just really upsetting and disappointing. Use Uber Eats with caution.</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>They Will Refuse Valid Refunds</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>MegMegMoog</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>45494.3084837963</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>Delivery people can deliver rain soaked food orders, delivery people can deliver food late (like I watched him on the tracker go from picking up my food 6 blocks from me down 30 blocks, then East a dozen blocks, then back up to me - my food was disgusting by the time it got to me). Salmon can be delivered BAD - smelling and tasting foul. Restaurants can put mustard on your food when you ask them not to. Heck, you can even declare a allergy to an ingredient, ask they 86 it, and they can ignore it with no recourse. In fact, none of these issues get justice From Uber eats. They put the cost and the blame on the customer. About a thousand dollars I’ve spent on Uber eats this year and raw salmon which I ordered medium was the last straw. While I’ll be filing a charge back through my bank for the raw salmon I received and couldn’t eat - I now know that Uber eats doesn’t care about the customer at all. It’s more concerned with keeping restaurants happy (ie; no refunds). They don’t take responsibility when multiple issues happen too close together on a timeline - they don’t take in account how often a user uses the app in relation to the amount of issues they report. It’s a scam, really. A useless app and service unless you actually like flushing money Down a toilet.</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>Non existent customer service</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>nycgirl2021</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="G74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>45494.86635416667</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>I have $80 Uber cash . The app won’t allow me to check out . Customer service is a complete waste of time and can’t solve one simple problem . What are you working there for if you don’t know tihs? Then they’ll hang up and tell you someone will email you within 6 hours . I’ll never use Uber again . I though DoorDash was ssa ….. Nope it’s definitely Uber Do not use this service , the other services compare so much better . They won’t let you use Uber cash that you’ve paid for . They want you to wait 30 days to be refunded . Due to their diputs excuse stating that your account has to be deactivated for 30 days and that it’s just their policy . A specialized team means they’ll never get back to you . They’re just collecting your money and ignoring you . Do not use this service !! This is their response just pure incompetent ! We know how important it is for you to be able to book a ride. We made an investigation into what's causing the error when you are booking a ride and we noticed that there was a restriction on your account from accessing the Uber app for activity that oversteps our Terms of Use. Though we cannot go into details as to why a restriction has been applied to your account, we recommend that you check our Terms of Use. We appreciate your understanding. Illiterate would be a compliment .</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>Uber cash</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>FYPMBI</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="G75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>45497.98342592592</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>I used Uber eats delivery multiple times a week. Been using for years and am a Uber one subscriber. Normally if there is an issue with the order I submit an help report and get a refund. That has changed last couple of months. Unfortunately there are 2 restaurants that have been not providing all the items or wrong items repeatedly. I submitted pics of wrong items and was told my order was right and no refund would be given despite the picture showing otherwise. I go back and forth and now they claim I am violating refund policy. Not sure how when I pay for items that don’t arrive. It seems Uber is violating their own policy. 
 I am starting to just grab food myself now because their support has really declined and try claiming I am abusing refund policy for asking for refund for missing/wrong items, even when pics are provided.
 Ultimately I may just cancel the subscription and stop using the services. For the mark up and fees Uber charges they need to own up to their issues.</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C76" t="n">
         <v>2</v>
       </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>Customer Service Has Gone Way Downhill</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>Geowa</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="G76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45498.26008101852</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>If you look through the reviews, a lot of people are putting 5 stars but writing horrible reviews. This is so the review will be seen. Uber doesn’t show much of the lower star reviews. This company as a whole is absolutely TERRIBLE. Uber cancels orders for no reason, drivers are rude and unprofessional. When you do have a problem, customer support doesn’t actually exist. It’s just an AI bot that sends script after script so your concerns will never actually be heard nor resolved!!! This app is not worth it! Learn from me! Someone whose been a customer of both Uber/Uber Eats for 4 years. They do not care how much business you give. They will not help you. Btw the 4 years were a struggle. I didn’t stay that long because they were good. I stood because they were convenient but it’s not worth the frustration and straight up disrespect from customer service</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>5</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>WARNING!</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Uberisascam11</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>45499.58375</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>I ordered priority delivery. My order was not delivered in priority, which was clearly tracked through the app. Food arrived late and cold, Restaurant was unable to provide details as to what happened to the food other than the driver had picked it up more than 20 minutes prior with other orders. Clearly, they were delivering the other orders first even though I had paid for Priority delivery. 
 Understandable that mistakes are made, and things happen, however, when reaching out to customer service to try to resolve the issue, I was met with a slew of chat bots that were entirely unhelpful, and even ended the chats abruptly with no resolution. There is no human customer service rep that you can contact or phone number that you could reach out to. All responses are extremely automated and not at all customize to the situation at hand. 
 Bottom line is they are charging for a service, then not providing that service. When a customer tries to reach out for resolution, it is the most frustrating process that ends with the issue unresolved, the customer left unhappy and blatently ripped off.</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>Priority delivery is a scam. Worst customer service in history.</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>FL Advocate</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45500.76296296297</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Spent $144 on a family order and an entire bag worth of items wasn't dropped off (about 30$ worth). They "determined" that I received my items and said my order was ineligible for a refund. HOW??? How can they get away with just stealing your money? Especially as someone who has a Uber One subscription, I'm paying for something more than "We appreciate you letting us know about this. We understand this experience has been frustrating, but this order isn't eligible for a refund." There's just no way they can legally steal your money like that. I got kids that didn't eat had to drive to the store and order the food AGAIN myself. 
+DO NOT buy the Uber one subscription you'll be bound to them for an entire year and they have zero intentions of refunding you your money.</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>5</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Not 5 stars at all DONT BUY UBER ONE</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>---MrDaniel</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45503.60047453704</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Been using uber eat for years because of my AMEX credit card. They were all good until you have issues. This app is stupidly dumb because when you type in the pizza restaurant in search bar. First result come up I found it’s 20 miles away from my home. While there is a same pizza restaurant right 1 mile from my home. And it’s not even new build or anything. It’s been there for years. And I had place the order and I had to cancelled it literally 2 seconds right after it’s placed once I noticed the address is not right with the city. They told me it’s not refundable anymore like it used to years ago. It seriously was only 2 seconds between ordering and canceling! What a joke. Then I found Uber eat only got 1.5 rating out of 5 on a popular customer service site based on nearly 18,000 reviews. I know I will not use this app anymore. Jokes on me thought they put customer on the first. But I guess they just wanted to bully me and steal my money that’s all.</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Uber are going down. Straight down</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Eddie Chen babe</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>45504.85113425926</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Uber eats is good for convenience and I appreciate that but I’m not satisfied. Uber eats when I first downloaded the app had many promos for food deliveries which made me want to use it. I then tried a free trial for Uber one to lower some fees and that’s nice. But ever since I started paying for Uber one, I have not been receiving any food delivery promos. It almost feels like as soon as I fell into paying for Uber one, all of the promos I was using often to get food delivered just stopped immediately. I still check the app regularly to see if any % off food delivery promos are available but I haven’t seen any in months (hence me not using the app anymore). I am now stuck with Uber one for a few more months but I don’t use the app anymore. Overall the experience was okay but I just feel like as soon as I became a paying customer, they stopped offering me the promos that made me use the app in the first place. 2 Stars for now because it’s been many months since I’ve been offered a good promo on food delivery. Uber can do way better</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C81" t="n">
         <v>2</v>
       </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr">
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>It was good until it wasn’t</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>tinderfukinsux</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>45508.76403935185</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Placed an order at noon and latest arrival time kept getting pushed back for several times from initially 1:15pm to 2:25pm. I monitored the order status consistently and noticed the delivery person was at the restaurant for more than 40 minutes without moving. I tried to reach out to the delivery person through calls or ubereats messages but received no responses. I then reached out to customer support twice. The first representative told me to wait til 1:50 PM as it was the latest arrival time at the time I was speaking to the representative. Despite of the fact that I told him the delivery person has been around for 40 minutes he told me it could be due to app glitches or bug. I reached out again after 1:50 PM as instructed and during that time my order got cancelled automatically…. No valid reasons were provided. I kept asking for what exactly happened and the second representative told me not to get personal….. after two hours of waiting for my food and got cancelled without a valid reason despite of several efforts I tried to communicate with the help support… I am truly shocked by the service that Ubereats provided and the way they treat their customers in circumstances like this.</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>Order Cancelled after two hours of waiting</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>A hungry man without his food</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="G82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>45508.83016203704</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Only a five star so you can see this comment do not I repeat do not download this app, I promise you DoorDash is wayyyyy better. I literally placed an order waited for two hours, even though the restaurant was only seven minutes away from my location. I contacted the restaurant, and they informed me that my order was ready, yet it took two hours to find a driver. The first assigned driver never picked up the order, and when the second driver arrived, they were told someone had already picked it up. This confusion resulted in the cancellation of my order right as the restaurant closed, leaving me without my meal. At no point was I contacted or updated about these issues, which left me scrambling to find food as other nearby restaurants were closing. When I finally got in contact with support they gave me $10 for the inconvenience. Literally if this was DoorDash not only would you get a refund and coupon but also they would reorder your food. Don’t use this app if you don’t have to.</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="C83" t="n">
         <v>4</v>
       </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>Terrible customer service use DoorDash instead</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>8.queen.8</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>45509.84905092593</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>I ordered food from this trash app and I only use my home address for these type of things and when I look saying that it’s on its way to me it shows a very different address from my home address. I contacted the driver 3 times but she never picked up the phone. I send her a message with the correct address 10 minutes before she gets to the other address, but never contacted me. When she gets to the wrong address she messages me saying that it’s 3 miles away from the location that she is at, ( basically 5 mins way) when I get the notification saying that my order was cancelled and I WAS STILL CHARGED. I called customer service hoping that they would give me a refund or make another order for free of charge, my god was I so wrong. What the guy told me that it was my fault for not checking the address properly and since the driver did get to the location that was provided she TECHNICALLY delivered the food. When I told the guy that I have never even seen the address that was used, he basically told me tough luck. I immediately hung up the phone and called my bank to cancel the transaction, and luckily they did. So yeah morale of the story don’t use this app it will randomly put in other addresses that you have never even seen. Use door dash they at least put in the address your using in bold letters while your looking and ordering food.</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>Absolute garbage app/ customer service don’t care</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>Rippingwave</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="G84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45511.4894212963</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Why is it when a restaurant gets my order wrong it’s not eligible for a refund? Why can’t your remedial support team see that I took a photo of the receipt on top of the food that I’m not going to eat(cause I didn’t order whatever they replaced my actual order with) &amp; somehow support acts like it’s impossible to make things right? Uber goes crazy adjusting the final cost of my uber rides by 50cents and more.. but don’t attribute the fact I have to walk a block away from my pickup spot cause the gps system is flawed.. yet you can’t refund me for my side order being onion rings instead of fries? This has happened 6 out of my last 8 orders with various restaurants. I ask to speak to someone else and I get petty repeated responses from support(whom isn’t AI). Please light a fire under your work team cause clearly they’re trying to get cooked. $$$ lost &amp; potentially fully lost a customer who was subscribed to your uber one service cause your support team can’t read or comprehend that I’m not trying to scam your service. Do better.</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Uber One Subscriber**</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>John Modest</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45513.67450231482</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>They’ll ignore complaints and charge the full price when a restaurant doesn’t fulfill the order. I had proof that even though I ordered items the restaurant didn’t make the sandwich and gave me the wrong size side dish. On the receipt  it shows the restaurant didn’t charge for the sandwich because they didn’t make it and I have a picture of the smaller size version of my side dish when I ordered a larger size. Kept asking Uber to actually help adjust the price (laugh) what an utter waste of time. This is the second and final time I’m bothering with this.  I foolishly was an Uber one client too. I would rather eat dirt than use this app again. While I had a one time bad experience with door dash they actually responded effectively and resolved the issue when a driver failed to delivery. Not only did I get a better driver that they arranged for me but also ensured the second driver got the tip instead of the first one that didn’t even attempt to make the delivery.</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Uber one - No respect. Ignores and won’t refund their errors.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Rene-Chan</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>45513.9050462963</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>I accidentally charged a transaction to a merchant by mistake and immediately went to cancel soon after (after the "go back" button disappeared) but I ended up having to pay a cancellation fee that was more than the cost of the meal itself. I called customer service to resolve this but they said that the merchant already received the order and they couldn't refund the amount nor even offer a one-time courtesy credit. One representative even told me I should have called Uber Eats customer service instead of cancelling on the app and, if so, that should plainly be indicated as an option instead of cancelling directly on the app and having to eat exorbitant fees. I kept calling customer service and asking to speak with a supervisor who might be able to effectively resolve this but it's been an endless waiting game and it just feels like the customer representatives don't really care. It's ridiculous to lose money over cancelling right after an accidental transaction and before any food preparation has begun. So, beware if you accidentally make a transaction that you didn't intend because you'll be liable for fees plus no support from Uber Eats customer service. Incidentally, I signed up for membership but I will be canceling.</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>Poor Cancellation Process &amp; Customer Support</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>Ellen Lucky</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45514.11181712963</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>I put 5 stars just so y’all can see my review. Uber charged me $50 for an order, messed it up and gave me $5 Uber cash back. Ok fine. Then I went to order something else a different day and it asked if I wanted to apply my $5 credit. I said yes. Then I added up the cost of my food; delivery fee and other added taxes and fees; and it doesn’t include the $5 credit I included. So I turned it off. Then I see it doesn’t give u the option to keep the Uber cash for another time, it makes u think u have to use the $5 credit. So being forced to leave it on; I calculated it again and see though the option for credit is on, they’re not actually giving you $5 off and you’re paying full price thinking you’re using your $5 credit. This app is insane. Never using it again.</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>5</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1 star not 5.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>kaumudicentral</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>45517.02719907407</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>I’ve only used a few times but right now my car totaled so I had to get groceries delivered. At first my app was glitching and when I added eggs to my cart it wouldn’t show anything in my cart. It was having a hard time loading so I figured it just didn’t process. I get my order delivered in a timely and professional manner, but then they show up with 3 cartons of eggs. I thought no big deal I’ll just get a friend to take me to the store to return 2 of em. I called the store and they said I could bring them back but I’d have to contact Uber for a refund. Uber support chat is so insufferably glitchy that sometimes the chat you’re typing out just deletes before you write a sentence. Then I was told “we don’t deal with returns” but I don’t understand why? I guess it’s not a huge deal but I’m a little miffed because I’m a college student trying to save up to fix my car which is already hard enough having to Uber to work and getting everything delivered. I just find it odd that the store is willing to take the item back and Uber just isn’t willing to return my money. Can they not just call the store and confirm the items were returned?</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C89" t="n">
         <v>3</v>
       </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="inlineStr">
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>No returns?</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>Redbear707</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="G89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45517.48435185185</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>I spend hundreds a week traveling with you guys to work, my drivers never can communicate with me, the cars run poorly, their driving is all over the place from speeding to going way under to posted speed limit! They pull up to pick me up in unsafe location due to my house being on a busy street! When getting dropped off with my daughter and car backed into your driver cause he didn’t park in space and almost ran my child over! I have been trying to reach y’all for months due to the amount I spend and it’s not easy to get in touch with yall. You can go back back through my rides and check every that has gone wrong with my rides and now today I order food and the order is completely wrong, not on y’all’s part but the restaurants but I spend too much money with yall everyday to not be recompensated some off it back. I rely on your service to get me to work everyday to have to worry if I’m gonna make it there safely! Sorry for the rant but I spend way to much money with your service to have issues every time! Please get back with me, thank you</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Upset</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Tyfxdf</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>45519.00556712963</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>I stopped using Uber several years ago because our delivery drivers couldn’t seem to get the full order to my house, and Uber NEVER refunds for missing items (they refund for incorrect items, but never missing items). We started using it again recently and had an order delivered missing over half the $60 order. I contacted Uber and asked for a refund of the missing items only, didn’t include tip or tax in the request……it was around $17. They said they would refund my whole order. Suppose, they did not. They refunded $7. I contacted support the next day and was told the first time that because the order was 48 hours ago, they couldn’t help me. The order was less than 24 hours ago…..then the second agent seemed friendly and happy to help, until they responded with “the system is experiencing difficulties” and abruptly ended the chat. The customer service here is nonexistent. And I paid for my kids food order then when they didn’t get it, I had to take them food and pay a second time for items I had already paid for!!! Cancel this service if you have it and use DoorDash or Grub Hub…..thier customer service is a million times easier to deal with.</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" t="inlineStr">
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>If 0 stars was an option, I would have chosen it!</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>unhpy mom</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>45519.1190162037</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>I used to love Uber eats, it was an easy way to get tons of different types of food. The reason I give it 3 stars is that in the past few years there has been so many deliveries where they say the food is delivered, there is no photo evidence of delivery, no door bell ring, nothing. Just “delivered” but the food never arrived. The app is good with refunding you but after this happening 5x in a row multiple times it’s like why??? How does this happen?? What if you’re waiting on Uber eats for dinner after 12 hours of working and you come home to a “delivered”
 Dinner only to find out that nothing is there and your courier either stole the food or.. something else went wrong? It’s horrible. Contacting support is useless they tell you that the money is refunded and this event has been documented. But nothing has improved over the course of several years. This app has become so undependable it’s almost not worth using. I wish the app would fix this but they refuse to care.</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="C92" t="n">
         <v>3</v>
       </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>Gone downhill since COVID</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>Fuvhyu</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>45521.10070601852</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>I ordered a drink and then it charged me for it but the. I check my bank account and it charged me for an order that was apparently placed last month on my birthday. I never made an order to that place and would never order something on my birthday worth my own card. Then called and they said someone else may have ordered from my account I told them “take them out of my account or find the address” they responded “sorry I can’t do that” then I ask can I get my money back, I wanted it back bc it was over 50 dollars in a purchase (fraudulent purchase). Apparently they can’t give me money back so they keep texting me for five days I can’t see the transaction, but the day before she said the exact order total that was charged and it was in the texting history. So I thought this was a scam. I feel bad if this happens or did happen to anyone else other than that I liked this app I used it for like 1.5 years and nothing like this has happened. If this order was somehow over that amount of money or if this person who ordered wit my account and card got ahold of my info that would have been a bad situation for them. To this app or to those people I’m giving u three stars to be nice.</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C93" t="n">
         <v>2</v>
       </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
+      <c r="D93" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>Can’t protect your payments</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>zfhfddfb</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="G93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>45521.29953703703</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>We all know that order food delivered via Uber Eats mean you pay all kinds of extra fees. And we all know that the delivery drivers are “independent contractors” so that Uber does not have to take responsibility for them the way most businesses have to take responsibility for their employees. 
 But I still expected them to take some responsibility when I live chatted with customer service about my delivery driver stealing my food. He had been 6 minutes away from my house, then I checked a few minutes later and he was 18 minutes away driving away from me on the interstate. And then shorty after that, he was half a county away and the eta was reading 31 minutes with him not responding to my messages. I told customer service that I understood that there was no chance I was getting my food that night, but  wanted to be able to leave a review of this guy so others could be forewarned, and I wanted some type of credit from Uber above simply allowing me to cancel the order at no cost to me. But customer service instead cancelled the order, then when I asked about the credit ( which they give as a matter of course if a meal is delivered late), they signed out of the chat. So I got no credit, and because it was a cancelled order, I was not able to leave a review of the driver.</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>Terrible Customer Service</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>Hungry and Very Unhappy</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45521.78755787037</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>I am very disappointed with Uber Eats service. I ordered food from a place in the UK, and the food was never delivered. I got a notification from the driver that the food was delivered with a picture of the packages on his car seat. I was staying at a hotel to be someone at the front desk. I tried to contact the driver, but he never picked up the phone. I contacted Uber Eats to report the issue, and they answered that the driver tried to contact me by knocking on the door where I was staying, which was a lie. First, he would have to pass by the reception, where someone is always there. This is very disappointing since I waited for an hour without food or money.  My son was starving, so I had to order the food from the same restaurant again and wait another hour. So I used the restaurant driver this time, and I had no problem!! I will never use Uber eats again and I will make sure to tell my friends and family to not too since they don’t care about customer satisfaction.</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Very disappointed</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>CJ G.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>45521.90376157407</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>It’s not MY fault that the restaurants I ordered from messed up my order almost all the time with either not giving me my drink, burning my food, or giving me the wrong item….. just to let you guys know that to a certain point Uber eats will just stop giving you money back for the items that were messed up if you send them messages too many times due to something out of your control^-^ like thanks so much for wasting my money UE… I can’t even get it back because of something not my fault at all.. I even provided evidence and everything like it’s not like I’m lying…… the customer service is just something else too like when you ask for a refund after so many they just don’t even send you a confirmation email anymore after asking for help like how I used to. Then the response was even more unprofessional without a single ending… like RUDE! This customer service agent also ended our conversation when I wasn’t even done talking last time when I asked why I couldn’t get my money back on a wrong item but yeah. Anyways yeah.</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="C96" t="n">
         <v>2</v>
       </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="inlineStr">
+      <c r="D96" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>Unhappy and frustrated..</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>kdybunnyc</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>45522.72896990741</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>I’ve been using Uber eats for years and I have consistently witness nothing but being robbed by this app and before we get into the parts of the restaurants messing up the orders, I know the difference because I work in the food industry and I work for Chick-fil-A however, using the Uber Eats app will cost you so much more to get a meal and you don’t even get it on time ! I have decided not to make it an issue or complain but today was my last straw. I ordered one single specific item from Burger King and that cost me so much money almost $30 and my order is taking two hours to get to me and Uber has switched out my drivers multiple times making an even longer wait for me , I’m awfully hungry and now dissatisfied for my food. I will say that the construct of the app is a great idea, but it’s not helping the customers the right way, but rather taking away from the community and people who also work in the food industry.</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="C97" t="n">
         <v>5</v>
       </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
+      <c r="D97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>PSA ‼️‼️‼️ read this !!</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>abigail yiadom</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="G97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45522.76306712963</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>I downloaded this app because my sister got this amazing deal and I wanted to try it for myself, I make my account while I’m hungry and check my inbox saying that promo codes have been sent, sweet right? I don’t need to do all this extra survey stuff and deal with scam ads. But low behold As soon as I try to use it boom I can’t. Must be a glitch let me try another restaurant. Nope same again. So here I am jumping from restaurant to restaurant for a half hour on my phone while hungry and then instant regret while my 5 stages of grief hit. I ask customer service and whelp, “We can’t tell you why it’s not working”. Yay! Did not live up to the “Deals of a lifetime” recommendations I’ve been getting, my hopes risen as I open this app for the first time yet may be my last as failed me INSTANTLY when I needed food the most.. Very disappointing.</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>4</v>
+      </c>
+      <c r="D98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Instant problems</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bre08250</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45523.83260416667</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Never again will I give this company my money. I placed an order through Uber eats. The order was taking along time so I called the restaurant to find out what was going on. I was told that the Uber tablet was down and also they don’t have the meal I ordered at the moment so I should go ahead and cancel the order on the app. I did that only to have Uber eats charge me $33 for the inconvenience to the driver and the restaurant…. But there wasn’t a driver yet assigned to pick up the order and like I said previously the restaurant didn’t have to food item available. I reached out to Uber only for them to tell me there was nothing they could do about it and the restaurant had accepted the order. I called the restaurant only to be told the same thing that their tablet wasn’t working, reached back out to Uber only for them to be short with me and end the chat on me. I took an Uber 6 day a week to and from work for about 8 years or more. NEVER AGAIN WILL I USE THIS COMPANY…. They are thieves.</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Stole $33 from me</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>anansha</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>45523.92945601852</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Update: I switched to another service and my experience has been great. Orders always on time and no more mistreatment from Uber. Happy to have brought my over $1000 of monthly business elsewhere along with family and friends. You can only mistreat people for so long Uber! I saw an ad for your service with a lie claiming that orders are delivered on time 95% of the time and simply had to update my review. You might not care about 1 Customer, but Thousands of others will soon be joining me. We’ve had enough I spend over $1000 on Uber eats per month. Every order my food has been taking longer and longer to arrive. They switch drivers several times. Today, I asked them to cancel My order (after paying extra for priority). They instead closed the chat on my face and gave me Uber cash. I am DONE with this app. We should all just go to restaurants for pickup (and save money) instead of supporting this unethical tech giant. I’ll be doing that going forward and when I absolutely can’t make it to a restaurant, I’ll be using door dash or anyone other than Uber!</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" t="inlineStr">
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>Waiting hours for my order - switched to another app and experience is 100x better</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>Z Poster</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>{'id': 34300440, 'body': "Hi, We're extremely sorry to hear about your concern regarding your recent experience. This is certainly something we'd want to deep dive into. For us to be able to resolve your concern, fill in your details here: https://bit.ly/343HNsE. We shall get back to you at the earliest.", 'modified': '2023-01-16T06:22:32Z'}</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45524.02194444444</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>I've used this app 2 times and never plan on using it again. First time was a solid experience, got my food and that was that. Second time (today) I ordered Popeyes and they had no chicken apparently. No big deal, I tell my driver to cancel, he does, but it makes another guy get my order but I don't want it anymore, so I end up cancelling the order myself. They still charge me over half of it even though this guy went there and never recieved an actual order, I get he put his gas money into it but they did not need to charge me well over half for food that was never even prepared. I put in a complaint but the agent was rude and disconnected never even reviewing my issue, same with the second agent I talked too. I ordered from another place and then got charged twice and am currently waiting to see if that's a bug or not.</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>5</v>
+      </c>
+      <c r="D101" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Awful</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Jobef Ehag</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45525.08824074074</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>I will not be using this app any longer. I placed two orders tonight. My first order came with no problems. Came time for my second delivery. I got a message saying grab your order. I told one of my kids to get it. He goes out to grab the order and calls me telling me there’s nothing outside. I said maybe the app sent the message but the person has not yet arrived. I waited a few minutes and nothing. I called the delivery person no answer. I said this person stole my food. I then with frustration click the help tab and requested my money back not realizing the thing was set on Uber cash before pushing it. I then hurry up and call them only for them to keep trying to give me Uber cash. I told the person to put their supervisor on the phone and they said they will have to call me back. Every dog has it’s day. Once upon a time there were big companies that was on the top and fell right to the bottom. I bet those companies thought they were not going anywhere. When you cheat people it never works out good. I will never use this company again.</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Do not use</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Review 2$$</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>45525.09292824074</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>I am writing this review to draw attention to two issues. One with the app is I received two promotions on my Uber one membership account, meaning I’m paying Uber to receive coupons and deals each month. I had a 40 percent and 50 percent coupon on my account that I could not add and use. It has stayed on my account for over 3 weeks and seems to be infinitely taking up space for working promo codes which I am again paying money for every month. I tried to ask why I could not use the coupons (the t&amp;c do not say they are deactivated, excluded from my account, or have special conditions I need). I went through 4 service representatives who all very rude and short with me. I just wanted to make sure I could still receive working coupons (because again I am paying for exclusive deals and hadn’t received a working one in over a month). I was very dissatisfied with my experience. All I wanted to know was how can I remove these promos so I can start getting working ones again because these two had been sitting in the “rotational queue” potentially blocking future promotions until the app saw that these were used. I just wanted to have a confirmation or not to what was going and was treated poorly and I am unable to utilize my membership because of a glitch/Uber eats problem which I tried restarting, logging in/out, and all the other fixes but received no real help after months of loyalty I changed my rating for this mess of an app!</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>Promotion glitch and rude customer service</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>Tencent382</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="G103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>45525.81353009259</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>Uber Eats is a joke. I’ve decided after my order today to never use it again. I’ve used uber eats many many times but apparently you can only “rate your order” negatively 3 times and uber will credit you for a bad order received. After that, if the restaurant screws up your food, it’s automatically your fault and uber will not do anything about it. In fact, they will tell you that you’re not allowed to complain more than three times about bad food. I spoke with three reps and got disrespected in the worst way. I ordered my lunch at work at 2:00pm and no driver was assigned to it until an hour later. The time kept changing for when I’d get my order. The reps I spoke to said they’d fix the issue if the order came later than 3:40. The time changed again and it was after 3:40….i leave work at 3:30. I notified them of this. They said if I cancel I have to pay for it. And that they were kidding and couldn’t help me anymore when my order came after 3:30 AFTER they promised to fix the issue which they didn’t fix. Don’t use this app. They lie and disrespect their customers. I will no longer Uber eats. I’ve never been disrespected to the point that I have been today by a food delivery service. What trash.</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t>Not allowed to complain more than 3 times</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>Sara.alw</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>45527.6009837963</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>First time ever using the app a few weeks ago while on vacation with my family because we don’t have Uber in our hometown but they did at the beach. Uber Eats took my money for an order that was never delivered, when I tried to file a complaint and request a refund considering the order wasn’t delivered. I I tried to contacted the delivery driver phone call sent straight to voicemail. I called the restaurant the order was coming from they told me they never processed the order, meaning they didn’t charge Uber eats for the order at all. So I tried to reach out to the customer support and all I was met with a “your order is not eligible for a refund” response 3 days later. So basically Uber took 70$ out my bank account, the restaurant never charged Uber Eats for my order so they never actually paid for the food, and I never had order delivered. So Uber Eats just took my 70$ and kept it, not paying the restaurant and not delivering my food. I even talked to customer support multiple times in chat logs and explained everything to a real person I was told “unfortunately your order isn’t eligible for a refund, we’re sorry”. 
 0 out of 5 Stars I would drive 10 hours in a black truck, through a desert with no A/C in the middle of summer before I never use This app again.</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t>Complete scam</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>Tripp Cassidy</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="G105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45528.87846064815</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>My last order I had been trying to place for the last 2 hours! I used two different credit cards(one being a bank card and I ended up getting a fraud alert because Uber eats for some reason would not process my order!) and I also used my capital one credit card which was also not able to be processed for some reason 2/3 different times. From the 3 cards I used I tried to processed the order 8 different times to no avail. I waited 10mins and logged into the app and it finally went through. This was a huge waste of my time and then there’s no phone number or live chat I can reach out to or contact to speak to someone directly to find out what was going on and why it took about 2 hours for my order to go through. I WILL NEVER USE UBER EATS AGAIN!! I can’t believe how prehistoric and outdated the website is. Uber eats needs to step their game up by 100% I rated the app one star but that’s because I couldn’t not rate it and I wanted to leave a review so I can let everyone know how horrible, time consuming, and time wasting this website/app is!!!!!</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Uber eats DISGRACEFUL UNPROFESSIONAL SERVICE</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>MsTedder</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45529.78677083334</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>I have been a loyal Uber Eats user, often relying on the app for its convenience due to my busy lifestyle. However, my recent experiences have been nothing short of frustrating and disappointing. 
+Firstly, the lack of customer service is alarming. I've encountered multiple issues, primarily with my food arriving cold. It seems that drivers often pick up orders only to drive further away to drop off other deliveries before bringing my food. This lack of accountability from Uber Eats is unacceptable.
+Today, I had an even worse experience. After taking a bite of my meal, I discovered a hair in my mouth. I promptly took a picture of the hair on a napkin and sent it to customer service, expecting some acknowledgment or resolution. To my dismay, I was informed that since the hair wasn't directly in the food in the photo, they would not take any action. This response exemplifies how little they care about their customers.
+After spending around $2,000 on this app this year, I can no longer justify using a service that shows such a blatant disregard for quality and customer satisfaction. I will be deleting the app and will be seeking alternative delivery services. I even hesitate to use Uber for travel services now, given this experience. 
+I highly recommend looking for other options for food delivery—you'll likely find a better experience elsewhere.</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>READ THIS BEFORE THEY GET YOU TO!!!</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Guy who hates temple run</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45529.99173611111</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Today was my last using Uber eats. I don’t really write reviews but I have had with this app and their customer service and honestly the people that work for them in general. Today was the third strike. I ordered something from sprouts farmers market lured in by the promotion they were having , praying that I would have someone to have just enough patience to shop for my order, nope. Not only did I have THREE of my items missing but also the wrong item substitution. When I realized later on in the day that I also didn’t receive my third item i quickly opened a chat just for them to tell me that they can’t refund me the item and feel free to leave a review….. why do you think you can’t physically get on the phone with someone? They know exactly what they doing.  I even sent them pictures as proof. This isn’t the first time they do this . It’s my fault I keep falling for it . You literally have to SHOP AT YOUR OWN RISK. A company that makes millions daily and STILL look out for themselves and not for others.</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Shop at your own risk.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Jamile R.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45530.71283564815</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>I hope this message reaches who it needs to. I am writing because I am frustrated and disappointed regarding an unresolved issue with an extra tip charge that should not have gone through on my recent order. Despite multiple attempts to contact the customer service team the same day the transaction took place, I have yet to receive a satisfactory response or resolution. 
+A week later I get a response after I reached out and I was told they can’t do any refunds after 48 hours. Uber has proof of me reaching out immediately when they screwed up double charging me. The support team is horrible. They are choosing to rectify the error, and messages are going unanswered. This lack of response is highly concerning and falls short of the standard of excellence they claim and what I expected from Uber. 
+As a customer, I am deeply disappointed by the poor customer service I have experienced. The inability to address and resolve this issue promptly reflects poorly on your commitment to customer satisfaction.</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Unresolved Issue with Extra Tip Charge and Poor Customer Service</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>ACGKOSS</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45530.72899305556</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Five stars for visibility only! Do not download this app! The moment you make an account, it kicks you out to the login screen! I tried to log back in but was told my account had been locked. When contacting Support, they gave me a pre-written, cookie cutter statement that my account was "involved in activity that violates our terms of use". This is not only false, but physically impossible. I had just created my account. There had been no time to place an order, let alone commit an act that violated the terms of service! So I pressed them to make sure it wasn't a system error. They instead sent the same statement again and refused to elaborate before cutting the chat feed. This app is poorly maintained and Uber's support team is exceedingly unqualified and unprofessional.</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>5</v>
+      </c>
+      <c r="D110" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Support Team should be fired!</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Pokéman151</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>45530.93454861111</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>This app and service has become very sketchy. They are charging people for tips without prior knowledge at random. They changed the amount after I paid for my order without my consent. You can tip as much as you prefer, but making a customer obligated to tip and charging them something they aren’t aware of is illegal. Their customer service has very limited access to help their customers with anything.
 Separate incident, I have ordered on the app for a pickup order and the owner of the store decided to close the store before the time they had listed and I didn’t get my order. It was $35 worth of food and I immediately contacted the customer service. Similar to the other issue, they didn’t know how they could help me and told me to wait 24 hours, which made no sense. There was no refund and follow ups or resolution provided. What’s even the point of having a customer service team if they dismiss you at their slightest inconvenience? 
 Definitely going to refrain from ordering with Uber Eats after these experiences.</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="C111" t="n">
         <v>2</v>
       </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="D111" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>No effective customer service</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>nontrump2020</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="G111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45531.01854166666</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>I only use Uber Eats when I am in a jam and I’m happy for those occasions. But today I’m extra desperate because I have COVID. Seemed like a good idea to bundle delivery from two places. Nope. Different drivers. I would have delivered from my one mile away store not the one that is over 10 minutes. Good service when it works but don’t add on light grocery shopping - 4 items $7 more in tip on top of $5. Live and learn. But wait there’s more. My meal delivery came an hour ago and still no groceries. Driver could find 3 out of 4 items including a pint of blueberries. Suggested subbing bacon for smoked salmon. That would not go well with the Hallal or Kosher set. I got an offer for $10 of food but with $12 in fees and tips what’s the point??
+And the punchline? After 30 minutes of shopping and what will be 2 hours from order to delivery for 4 items there is no smoked salmon. Zero chance there wasn’t any in the store. All they needed to do was ask.</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Don’t bundle groceries with take out</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>eetphilly</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>45531.53925925926</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>I have been a loyal customer for years, and even an uber one member that I paid monthly subscription because of the perks that comes with it and also to maybe get the best out of uber eats. I ordered last week complaint because I pick up the food from the restaurant but then restaurant said somebody picked it up, and never get a refund for it. Then 2 days ago, I placed an order again on uber eats because I work late and this is the most convenient way of getting a late dinner. When they delivered my food, it was a completely wrong order. I called uber immediately and complaint, i was promised that I will received a phone call from a supervisor in 30mins but no calls come through, I went and drove to the restaurant and returned the order and they did not even try to fix my food, i was told by the restaurant to contact uber eats. then I received an email stating that the order matched but I went to the restaurant and returned the order and left empty handed. I feel robbed twice, and the money I earned for my hard labor just flew in the air. I explained and told these customer support about the situation but they keep closing the issue I submitted. This is unacceptable</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr">
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" t="inlineStr">
         <is>
           <t>Uber Eats steals money</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>rhen1001</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="G113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>45532.06037037037</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>If you’re considering driving for Uber Eats, I strongly urge you to think twice before signing up. My recent experience highlighted a major issue that every potential driver should be aware of: Uber Eats allows customers to drastically change the tip amount after delivery, leaving drivers shortchanged and frustrated.
 I accepted a delivery for $15, which included a tip, to drive 7 miles. After completing the order and delivering the food, I was shocked to find that the customer had reduced the tip to zero, leaving me with only a $3 base fare. This was a complete waste of my time, gas, and vehicle mileage. When I reached out to Uber Eats customer support, they informed me that customers have the right to change the tip amount after delivery, regardless of the effort the driver puts in.
 This policy effectively allows customers to abuse the system, leaving drivers with little to no recourse. Uber Eats’ stance on this matter is highly disappointing, as it shows a lack of consideration for the drivers who are the backbone of their service. Before you decide to drive for Uber Eats, be aware that you could end up being severely underpaid for your work.</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="inlineStr">
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>Uber eats drivers application</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>ghjkhddhjkkl</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="G114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>45532.13621527778</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>I hate writing reviews but this gotta be done. Lately the customer support just don’t want to refund you your money or they only give out 5 dollars in Uber cash. I’ve had countless items be missing from my orders and whenever I go to get my money back they either close the case without giving me my money back or offer a small little 5 dollar Uber cash that isn’t even the equivalent of what I paid for and honestly doesn’t take much off the order. Even with my latest order I was missing a whole meal. I did what I was supposed to do and was expecting a refund cuz what I ordered cost at least 14 dollars. They hit me with the “someone will reach out to you within 48 hours” and when I did get a message it was just them saying that my food was all there and then closed the case! I had to order more food that night because I didn’t get my food. So to see that I’m not even getting refunded for that meal I never received gets me upset. I’m finna just leave because it’s always something with them. I should not have to jump through hoops to get my money back over food I never received. Do better Uber eats!</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="C115" t="n">
         <v>2</v>
       </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="inlineStr">
+      <c r="D115" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>Never want to give your money back</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>Jujuchxn</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="G115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>45532.81744212963</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Look, can you please stop hiring drivers that don’t speak English??? I had to eat a cold sub because my driver couldn’t get thru the entrance gate of condominium complex I live in. He kept texting me that he doesn’t speak English and that the security wouldn’t acknowledge him. I told him to just tell the security the address he’s delivering to, tell them his name and hand them his license. He texted back, “How am I supposed to do that when I don’t speak English?”. I got fed up after going back and forth texting, I just wanted my food. I had to walk all the way to the front gate to get my food and when I got there he was arguing with the security and blocking traffic. The guy was a complete jerk arguing with everyone he was blocking. He gave me my food and ranting a bunch of mumbo-jumbo. I told him he needs to learn English or find another job. As I was walking back home it started to rain and I got soaked along with my food. I gave firehouse subs a good rate because it wasn’t their fault my food was cold and wet but I gave the jerk driver a bad rate and took my tip back. Please, STOP HIRING DRIVERS WHO CAN’T SPEAK ENGLISH</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="C116" t="n">
         <v>2</v>
       </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
+      <c r="D116" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>Drivers do not speak English</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>mandingo1thousand</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="G116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>45533.6135300926</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>For my friends sobriety gift I purchased and sent a forever flower to her from Bloomingdays. On the app I put the delivery instructions in to bring to the front and who it was for. The time came for delivery and when the driver called me it showed him 2 mins away from the school she works. The driver answered the phone saying “Hello no one’s there”. When I told him to buzz and they will come out he then proceeded to tell me “I don’t speak English”. I tried my hardest to explain, but he kept saying “no no no no”. I called the school and they had people outside looking for him and there was no one there. He called me back and said “Uber”, I said “yes the school is looking for you”, he then said “wrong number sorry”. Then my order showed as delivered. When trying to contact Uber to get a refund or to just get this fixed, they will not refund nor fix the issue and keeps closing the help chat, without even giving me a number to speak to a manager. I have all the screen shots to prove the horrible treatment as a customer. I’m going to continue to fight till I’m refunded or my friend gets her flower! This is insane that clear as day ROBBERY is ok with this company!</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" t="inlineStr">
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>Thieves</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>blah1@86</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="G117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45533.98185185185</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>I don’t recommend to use this service. I’m writing this because it happened second time to me. They charge you two times for tip. First time it was maybe a year ago when I was was charged the same amount of tip that i already had been charged for. This sudden charge appears after delivery is made. That time when I contacted customer service I was told by the agent that “sorry, but nothing can be done about this and you, the customer, simply lost that money, and you have to accept that”. Simply I was told that. Yesterday I ordered food after a year and, guess what, again the same situation. Of course, I did contact customer service. All the agent told me that this is a known issue, and that’s it. So if you don’t want to lose money each time due to known issue that nothing can be done about, what agent told me, and nothing has been done about for at least a year - then simply use another service which I’m using. It happened yesterday that I used it and I lost money again</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Sudden changes to the tip</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Konrad 1111111</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>45534.65476851852</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>We have been loyal customers with Uber eats for a couple of years now but our latest experience has made us end our Uber one membership and delete this app.
 We ordered pizza. Now with this order we got 1 pizza and got 1 free pizza, a 2 liter drink, 3 sauces, and cheese bread. After we got the notification that our order had been delivered, we open the door to only find the sauces and the cheesy bread.
@@ -2000,439 +3705,684 @@
 And of course they wanted proof that we didn’t get those items with a receipt and a picture of what we got. Upon further investigation on their side, they told us that we HAD received all of our items and they could NOT refund us for the items we had not gotten. So we called to speak to an actual person, and all they told us that they couldn’t help or refund us so they sent us to yet again another message group for support. We even asked multiple times why they couldn’t respond us and they couldn’t give us a straight answer. Low and behold, they said the exact same thing… They couldn’t refund us because we got everything. So again, we cancelled our membership and will not be using Uber anymore.</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" t="inlineStr">
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="b">
+        <v>0</v>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>Over it.</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>Volley101Ball</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="G119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>45535.02825231481</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Man I must say I’m not to smart with the technology theses days however this app made it easy and understandable for me to place this order I was really afraid to do it myself and I called someone else to help me and I tried to place the responsibility on them just in case I made a mistake of course my stomach is going off but to be honest I took the chance and I’m shocked at how well I did not only that this just shows me that if I just get out and come out my comfort zone I may just may be able to accomplish so much more if it wasn’t for just this opportunity I wouldn’t know my actual potential now I do thank you so much Uber eats god bless you and I hope you say the same thing about me ;one to be honest I would refer anyone and every single person I know to use this app because it was easy and understandable so once again thank you and you get not five stars from but fifteen right on and congratulations to you and whoever helped and put your format together far as the app goes right on again keep chasing the bag</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="C120" t="n">
         <v>5</v>
       </c>
-      <c r="D58" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
+      <c r="D120" t="b">
+        <v>0</v>
+      </c>
+      <c r="E120" t="inlineStr">
         <is>
           <t>Uber eats</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>Roofss</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="G120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>45535.17587962963</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>I know that I shouldn’t use this app. They treat their workers badly, and they treat the restaurants they partner with badly. But I currently have Covid and needed groceries, and it seemed like this was the cheapest way to get them delivered because they had a promo for $40 off. But when I increased my tip because I thought the dude was really fast and did a good job with substitutions, they removed that promotion and refused to reapply it without a screen shot, which I would have had to take before putting the order in. It was totally ridiculous. It’s like, you’re a tech company, and you can’t make sense of this without me sending you a screenshot. Like, I’m pretty sure I’m talking to a chatbot right now, and it’s claiming not to have the technology to look up a receipt. And there is no way to talk to an actual person. It was so frustrating that I just gave up. Delivery should not be kafkaesque. It’s supposed to make things easier. I won’t be using this app in the future. You used to get good customer service in exchange for the moral compromise of using such a trash business, but that is no longer the case.</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59" t="inlineStr">
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>Bad customer service</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>GonzoMello</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="G121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>45537.46818287037</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Ive been using uber for years but just yesterday i go and order food and get told the item i want they don't have so i asked for a refund on my whole meal I'm not paying for something i literally can’t have thats insane so the delivery driver told me to cancel the order now the only option you have in the app is to talk to a bot you don't get a choice of talking to a person unless it sends you to one so it cancelled the order an i still got charged the full amount i am now being told i can not get my refund because i didn't talk to a person but they don't make it so u talk to a person first but now i being told its my fault their app is built off of bots and i should have some how talk to a person when i never even got redirected to one i am going to make this a bigger issue with my bank and make sure i get my money back but i will no longer be using uber for this reason their isn't even a customer support call for these issues you talk to another bot an they will send you to a person copy and pasting messages from a document they are given like come on!!!!</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" t="inlineStr">
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="b">
+        <v>0</v>
+      </c>
+      <c r="E122" t="inlineStr">
         <is>
           <t>Cancellation won’t give you money back</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>Lilbunnybean</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="G122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45538.14208333333</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>I recently started paying for a Uber One membership because I thought I would try it out. You have to spend $10 extra a month for “exclusive benefits and discounts.” The FIRST promotion I used was a 50% off any grocery order. I was babysitting so I thought I would try it out and got groceries for dinner. The total was $58 with the 50% off promo when I confirmed it and after they were delivered I was charged $106. I contacted customer service and every representative I spoke with said they could do nothing about it because I had no proof. I looked this up online and found that many others have experienced the same issue and have been blown off by customer service. I will be cancelling my subscription and using better services like GrubHub and DoorDash since I’ve never been taken advantage of by the other (and better) delivery services. I will no longer be supporting a company that TRICKS and CHEATS their customers into “deals” and then doubles the charge to your card and says “I’m sorry for the inconvenience but there is nothing we can do.” How unprofessional…</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="b">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>TERRIBLE Customer Service - SCAMMING</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>G Layne</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>45539.82429398148</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>App likes to upcharge ridiculously. Then will charge random absurd fees when they waive delivery fees because you have a monthly subscription. Then after paying monthly, having to meet a minimum order total, and being charged random fees, they will attempt to guilt you into a tip that is as high as half your total or more. Now I will not order if I can not adequately compensate my delivery driver but asking $10 on a $20 order to deliver it 3.2 miles and it only has a handful of light items is a bit egregious. My last order had a free item on it which they used to boost my order total so as to be able to charge more fees and higher tip. After paying for the subscription and spending enough to qualify( so meeting 2 requirements) they had the audacity to total out my order with 12 in fees being discounted but the taxes and tip based off a total with my promotional items cost tallied in. They will also estimate your delivery and it can change up to almost an hour. As well as if no driver will take your order but the store started to make it and you can no longer wait for your order you will be charged simply to cancel it. Literal cash sucking all around for anything they absolutely can. THE ONLY UPSIDE IS THE FRIENDLY DRIVERS.</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="b">
+        <v>0</v>
+      </c>
+      <c r="E124" t="inlineStr">
         <is>
           <t>Would rate zero if possible</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>Cheshire130</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="G124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45540.57200231482</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>A guy stolen my food and I contacted them and they said willl email okay. They won’t refund or credit a new meal okay. They don’t care about there costumes okay they only care about themselves and they don’t care if they steal the food I am done with them good bye they have ppl who don’t full where the address is. I am done with this service good bye😞they are stock up and they lie in costumer support and I wanted to say my rights yesterday they hang up so I had enough don’t wast your time with them okay trust me they allow ppl to steel your food. They don’t step in and do something about it. They dont refund it if don’t see it in there end I put they go but I don’t want to lose there money okay. I will call my bank dispute this problem.</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>5</v>
+      </c>
+      <c r="D125" t="b">
+        <v>0</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>They are horrible service</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Bsbgirl84</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45540.62861111111</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>I've been a customer for many years and I want to share my recent experience with food delivery services. Sadly, out of 5 orders, only 2 arrived on time and in good condition. The customer service team was unprofessional and rude. My most recent incident involved ordering food from a restaurant for almost $100. After processing the payment, I realized that I had forgotten some items, so I used the "forgot something" option to add the additional $20 order. Despite both orders showing as being delivered by one courier, only the $20 order was delivered the $100 one was NEVER delivered. When I contacted customer support, they suggested that I go to the restaurant to pick up my missing order myself!!! Why would i pey for delivery?. After long hours on the phone and messaging, I received neither a refund nor the missing food. I felt cheated and, as a result, have decided to delete the app from my phone. I will no longer be using this service and also won't be using Uber again. My advice would be to stay away from these services. They STILL your money</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="b">
+        <v>0</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>They still your money</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Viliura</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45543.7787962963</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>I only receive 2 of my 11 items ordered and paid over $140 yet. Uber eats is only refunding $56 which means I am paying $80 for only two items that I received. I immediately contacted the delivery driver to verify, and he said that he double checked and asked the restaurant if all the order ready, and the restaurant indicated that everything was ready to be picked up, however, when the order was delivered, only two items were delivered. Uber eats says sorry, but they cannot refund for those items that I am still paying for. What company does this? I tried to chat with them three or four times and finally they cut me off and refused to respond. I will have to dispute this with my credit card company, but Uber eats. You are a terrible company for trying to make me pay for items that I did not receive. Additionally, I also called the restaurant and they essentially said that it’s not their problem. Totally unacceptable!</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="b">
+        <v>0</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Only received 2 of 11 items and still paying</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Shady Uber Eats</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>45544.15215277778</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>I’ve been using Uber one for the past few months at least, but I’ve been using the app for years and years. I use all the delivery apps because I’m lazy. I always have problems with delivery apps. It’s part of the tradeoff. Someone is bringing your craving to your door, you have to accept it might be soggy or cold or missing this or that. I started on DoorDash and hit a point with them where it was too many mistakes too often and it never seemed like the restaurants or the app cared. I lasted a lot longer on Uber than DoorDash, but I am at that point. Maybe il go be a Grubhub guy for a while. 
 My last order was overpriced as is but it was from a place I’ve been really excited about. I paid extra for more toppings and stuff too! They didn’t put any of it on. They didn’t even give me some of the stuff the base meal came with. Plus the food was terrible. Now these are all issues with the restaurant, but Uber eats offers me $3 refund in 3-10 business days and a $5 credit for my very incorrect and bad $30 order. I can’t justify paying every month for Uber one and getting such a terrible service all around. I had low expectations and Uber eats could not live up to them. 
 I gave it two stars because it wasn’t the worst for a while! But it’s defitnely not worth that 4.8 average it’s sitting at right now!</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="C128" t="n">
         <v>2</v>
       </c>
-      <c r="D62" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr">
+      <c r="D128" t="b">
+        <v>0</v>
+      </c>
+      <c r="E128" t="inlineStr">
         <is>
           <t>Former user, premium member leaving the app</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>travis13131</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="G128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>45544.17516203703</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>the customer service here is beyond saving. though i made a simple mistake ordering to the wrong location, i immediately canceled my order to a restaurant. ubereats could not cancel on my behalf, so i called the restaurant location directly to try to cancel my order. they did so but told me a refund was out of their hands and i would have to take it up with ubereats. i did so and there began my long battle with customer service. not only was the agent i was talking to INCREDIBLY unhelpful and unknowledgeable, she ENDED THE CHAT without listening to my situation in full once she said there was nothing else she could do. the next agent was EXTREMELY hard to reach, and i was left hanging for 30 minutes with no foresight as to when i would get assistance regarding my issue. i was then told to reach back to ubereats after 10 days as they could not do anything in the moment regarding a refund for my already CANCELED ORDER. it has been 10 days and i reached out again regarding the inquiry, only for them to still not connect me to an agent for nearly an hour. terrible service, terrible people working here, and just lazy business.</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" t="inlineStr">
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="b">
+        <v>0</v>
+      </c>
+      <c r="E129" t="inlineStr">
         <is>
           <t>WORST CUSTOMER SERVICE EVER</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>rdk1521</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="G129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>45546.5427199074</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>I am not a person who normally writes reviews but this app is a rip off and a scam. I used this app about a week ago, and taking in mind the food took forever to get here and it was way overpriced. Then , I deleted OFF of my phone. A week later I get a notification from my bank that Uber charged me $9.99 for a subscription at 10pm. I NEVER signed up for a subscription of theirs. They used my information without my permission AND signed me up for an UNWANTED subscription and charged my bank account. Then I go download the app back to see why I was charged and it would not let me unsubscribe for something I didn’t even get in the first place. This just made me more angry seeing that I am trying to go to bed and at 10pm they charged me for something I didn’t get. They were trying to be sneaky with this charge because it was at 10pm so they probably thought I wouldn’t be able to catch it. I just deleted the whole account. I am mad and will never use this app again . If it was possible I would give them ZERO stars. If you go on Google and search “why is Uber charging me $9.99” they will tell you that they have probably forced you to subscribe to something. This is PROOF that it has not only happened to me, but to many others as well. That is probably how Uber makes all of their money, by ripping people off.</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="b">
-        <v>0</v>
-      </c>
-      <c r="E64" t="inlineStr">
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="b">
+        <v>0</v>
+      </c>
+      <c r="E130" t="inlineStr">
         <is>
           <t>THIS IS A RIP OFF &amp; THIS IS A FRAUD</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>Aswokn</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="G130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45549.03118055555</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>I have paid for priority service on several occasions. Once the order is dispatched to the driver, the driver then sits one location for about 20-30 minutes while your order dies at its location. When you contact the “help” desk, they won’t allow you to cancel your order (you’ll have to pay anyway if you try to cancel while your driver sits on your order.) The app will continually update your order delivery times with no record of the previous time that was stated. You can not get your money back after paying for priority delivery service. Better to order directly from the restaurant, save yourself some $$. Or go pick up your order, you save time and a headache for useless priority service.</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>5</v>
+      </c>
+      <c r="D131" t="b">
+        <v>0</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Priority service scam</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>User vpas</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>45550.07848379629</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Me personally do not use this app but my girlfriend does. In some not very often you’ll get a good price for delivery but many scenarios it is ridiculous in price. So, I took a little long in leaving due to work and was ready to go get food when the pride of my girl ordered through Uber eats, as seconds passed I tried to cancel and only way was to chat with “customer service” through messages to mention that it already has been processed and they can cancel the order from coming but will be charged the full amount. In what world do you think this is right?! Really, you want to charge me for the food that won’t appear and charge me the delivery of the food when there wasn’t a person delivering the food! Ha, outrageous! Super poor customer service on your behalf. I knew there was many reasons for not personally using your services. I prefer to pick up my own food when eating out. Thanks for your service and wouldn’t recommend it for anything.
 Looks like I already left a review, one of the places I go doesn’t have the other options to choose from and makes me order through Uber Eats and even picking up your own food, there is a price increase of about 20%</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" t="inlineStr">
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="b">
+        <v>0</v>
+      </c>
+      <c r="E132" t="inlineStr">
         <is>
           <t>Expensive &amp; no customer service</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>ReefFrankie</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="G132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>45550.94605324074</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Been using Uber Eats for years and finally decided to delete it today. The service has been down falling lately. Customer service usually need long wait times, so many back and forth conversations, and don’t know how to solve the problems. One case I had they needed to engage other teams and it took two days to solve the issue. It was quite instant before.
 The bugs also didn’t help. The latest order I had was using a hotel I stayed at a while ago, usually other apps reminds me that the location is too far and ask for correction / confirmation, somehow Uber Eats overlooked it and didn’t tell me anything. I only figured out later when the driver is already on the way - just gifted the food to the driver. These little things matter - I hope it’s a bug not a design failure. Having a function to add temporary address and make them non default seems pretty straightforward. Reminding customers when the location doesn’t seem right also seem like a feature that’s necessary. 
 I usually don’t leave reviews but when I’m hungry I’m angry so here are my two stars.</t>
         </is>
       </c>
-      <c r="C66" t="n">
+      <c r="C133" t="n">
         <v>2</v>
       </c>
-      <c r="D66" t="b">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
+      <c r="D133" t="b">
+        <v>0</v>
+      </c>
+      <c r="E133" t="inlineStr">
         <is>
           <t>Bugs and customer service downfall ruins the experience</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>not-calm</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="G133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45551.14740740741</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Unfortunately I tried to rely on this service for a long time and got many disappointing results. I did not receive my food several times. My money was refunded at about an 80% rate. My food was not made to the specifications I entered and I was refunded at a roughly 30% rate. This is unacceptable and no longer an app I will use. I would recommend that you try any other available option before trying this. They do not stand by their product. Almost every time, at least 90% of it, the food is more than twice as late as their app says. They never compensate you for it or allow you to cancel. 
+Tonight was the last straw for me. I ordered 6 items and 5 had missing ingredients or were the wrong item entirely. I wish I could provide more details but I have since deleted this app. Their solution tonight on my $93 order was to award me a $6 refund.
+Please try something else unless you are comfortable being frustrated slightly less than half the time.</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="b">
+        <v>0</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Horrible service with many problems</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Matthew Herman</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>45551.82100694445</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>I ordered food online from a store &amp; it had me go through Uber Eats. I did not know I had an account; I do not even have the the app on my phone. I assumed I was going through the process as a guest. After I put in my payment information I was not given an option to enter an address. I assumed it used my current location. I didn’t not receive my food &amp; found out it was sent to a different address. I called customer service to get a refund or at least credit so I can reorder for the correct address. The customer service worker rejected me &amp; kept saying the “policy” doesn’t allow to approve my request. I think it’s absurd I paid $50 for food I didn’t get to eat. It wasn’t even my fault, I was not given an option to enter an address. Uber eats used the address from my account, which I didn’t even know I had. I didn’t go through the app! I wasn’t even given a receipt via email or message so I had to do some digging. I was venting to the worker after getting denied &amp; she was rude. She kept trying to talk over me &amp; tell me about the stupid policy. I understand the policy I think it’s a disservice to your customer. Anyway I was really upset because I’m pregnant, was really hungry, &amp; it was the food for my moms birthday. I’m now disputing the transaction with my bank because I refuse to pay for something I didn’t receive.</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E67" t="inlineStr">
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="b">
+        <v>0</v>
+      </c>
+      <c r="E135" t="inlineStr">
         <is>
           <t>Absurd policy &amp; customer service</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>A. Marie MN</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="G135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45552.01519675926</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>I received an offer for a week long free trial of Uber One. After the trial was up I forgot to unsubscribe so that I wouldn’t be charged and consequently was charged $9.99 for Uber one. I was okay with charge and went about my business thinking I had Uber one for a month. Fast forward to today September 16, I go to the Uber app to order food using Uber one just to see that I don’t have it… but my card was charged just 2 days ago? I go to my statements to see if I was refunded or off it was an error but no, I was specifically charged for Uber one. I talked to multiple agents even giving them all of my card information just for them to say they have no charge under that card information. I have multiple receipts showing that it is the exact card that was charged for one specific thing. They are currently stating that I should talk to my bank, which I have, but this was a charge from Uber and I am not sure how my bank would be the issue or how they’d resolve it. Uber is scamming their customer! STICK TO DOORDASH!</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="b">
+        <v>0</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>I was charged for Uber one and never got Uber one</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sxthorne</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>45553.67976851852</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>I get it, people false report all the time just to get their money back, but when you treat honest customers as thieves then how do you expect people to want to return to this app? I always submit photos of incorrect items, but with these last two incidents, the first one y’all didn’t want to refund me cause of policy? Then when I asked the agent to go into specifics or to send a link to me on what policy I violated they immediately end the conversation. I let that one slide cause it wasn’t worth the headache but for this second incident I received someone else’s order, I sent in a picture showing the order and name on the order ticket, and guess what ? I’m ineligible for a refund. How can y’all expect to keep customers when you refuse to pay out for your mistakes, I sent UNDENIABLE proof and have been treated as if I put in a false claim, it’s been nearly 24hrs since I sent in my first support ticket since they won’t let me have a direct agent anymore and yet guess what? No response. It would take only two seconds for someone to look and see the name on the order ticket is wrong. If you don’t want me as a customer just say it cause that’s what it feels like having to go through hoops just to get a refund on incorrect orders or incorrect items</t>
         </is>
       </c>
-      <c r="C68" t="n">
+      <c r="C137" t="n">
         <v>5</v>
       </c>
-      <c r="D68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" t="inlineStr">
+      <c r="D137" t="b">
+        <v>0</v>
+      </c>
+      <c r="E137" t="inlineStr">
         <is>
           <t>YOU WILL BE TREATED AS A THEIF</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>Do better Ubereats</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="G137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>45554.64803240741</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>I used exclusively Uber eats for about 6 years and was a Uber one member ordering regularly, around 3 times a week, from the app. Previously when there have been issues they were quick and easy to fix but recently I have had more issues with more difficult resolutions. The last straw was when I ordered food and after it taking awhile with 0 communication from the driver it said it was delivered with a photo from the driver giving a dark and blurry photo that did not give any identification to where it was delivered. It was not at my front door, it was not on my deck, it was not even in my building. I called the driver and didn’t receive any answer, by this point I had ordered my food 2 hours ago, my husband was on his way home from work so I just had him pick me up something. I submitted the request saying I had not received my food and could not contact the driver. My request was denied saying they had no proof it was not delivered and that since I didn’t order a replacement meal that they can’t verify or give a refund. After going back and forth multiple times and trying to escalate my chats started getting immediately denied from support and after sending an email and messaging their support instagram and receiving zero response I have decided to never use the service again. I have switched to DoorDash and have had 0 issues yet and will NEVER use Uber eats again.</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="b">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr">
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="b">
+        <v>0</v>
+      </c>
+      <c r="E138" t="inlineStr">
         <is>
           <t>Never Again</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>Perceyhere</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="G138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>45555.16430555555</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>I ordered one item (curry), and the app encouraged me to order another item (alcohol) to “get a discount” before a 10 minute timer finished counting down, I added the item and then when the first item I ordered arrived, I saw that the second item was cancelled, mind you I was waiting outside during all of this and I had to chase down the person who dropped off the first order to me, then when I get the first order and head back inside not caring about the second order cause I didn’t intend to order it in the first place, I noticed they charged me 25 dollars for the second item that I never received. Confused, I complained through the app asking for a refund and they said that the second order person had called me while I was collecting my the first order and messaged me, none of which I received and as a result they had to return the second order and charged me 25 dollars. This is not the first issue I’ve had with the app, but it was the worst one, after this I’m done using it altogether and I’m going to encourage other not to use it as well, sorry for the rant.</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" t="inlineStr">
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="b">
+        <v>0</v>
+      </c>
+      <c r="E139" t="inlineStr">
         <is>
           <t>They charged me for something I never received.</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>TheDonkus</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="G139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45557.04912037037</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>This was my first time ordering from uber eats and i accidentally put the wring address in for an order so i cancelled it within the minute of which i order it and i was charged a 7 DOLLAR FEE. I than proceeded to contact uber eats about the situation and to no avail i kept getting disconnected from phone calls and finally just decided to go through the app internal messages. I was than told that i can’t receive a refund because the merchant accepted my order but i cancelled my order within 30 seconds of ordering it. (which the customer support told me) now I'm left  wondering can u even cancel an order without a fee and because in my instance i was charged an extra 7 dollars for doing the right thing and on top of that the restaurant that received my order was 30 minutes away(pollo tropical), and there is a pollo tropical within 10 minutes from my area . I’ve ordered from DoorDash and gotten better service and had the same issue. i guess i should just continued my business there</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="b">
+        <v>0</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Terrible first experience and service</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>leonburgess</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>45560.04715277778</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Honestly with most food services you shouldn’t expect much- but Uber Eats is by far the worst app I’ve used in a while for food delivery. The service is god awful, one time I ordered some fast food from hardees and the restaurant had made my order, but THREE different drivers cancelled on me and I was baby sitting at the time so I ended up having to cancel the order. At this point, me and the kid were starving after having to wait 2 hours for some soggy food. I got refunded after cancelling the order, as if that was enough to pay back for the time i wasted using this app, and then I had to go through an entire other order through a different restaurant. It took 50 minutes for a restaurant that was right next to me, and then the food was cold. I swear they dont have any sort of employee policy on purpose, anyways I deleted this app a long time ago since I was already paying for the subscription and they couldn’t even provide mediocre service. It’s not worth the time or money, fix ur app Uber!!!</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="C141" t="n">
         <v>4</v>
       </c>
-      <c r="D71" t="b">
-        <v>0</v>
-      </c>
-      <c r="E71" t="inlineStr">
+      <c r="D141" t="b">
+        <v>0</v>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t>My Experience With Uber Eats</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>Effy Hernandez</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="G141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>45561.08432870371</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>I didn’t receive 2 of the combos in my order, the 2 for my children were missing and I tried to call the store but nobody answered the phone! I also tried to reach the Uber customer service via chat but they gave no option to speak with a representative, I put in my information in the missing item option and I decided before that I wouldTry to reach the driver. With no availability to do so due to time I believe, there was an option until I input my missing items and then the process switched from a step by step process to a 1 question q&amp;a which I gave a description and then I got notified that I only received a refund for a 3rd of the total amount of each combo missing! The wrap I got was cold the biscuit was stale and the other items cold! I contacted KFC directly via customer service and gave my information to see what they would do if anything and I am awaiting the response from management basically no help in the moment. I really am dissatisfied with how my order turned out altogether but my other driver and order was pretty good other than my food was luke warm and needed to be reheated. This was really disappointing!</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="b">
-        <v>0</v>
-      </c>
-      <c r="E72" t="inlineStr">
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="b">
+        <v>0</v>
+      </c>
+      <c r="E142" t="inlineStr">
         <is>
           <t>Unsatisfactory Refund</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>Nick'sNikes&amp;J's💯</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="G142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45561.69207175926</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>I’ve had the Uber Eats App for a few years now, but only occasionally (4-5x a year) since it’s very expensive. Never usually had any huge issues until our most recent order. I ordered $120 worth of food for a group of people (including taxes, fees, and tip) through the app which included six entrées, an appetizer, and side. Only two entrées and one appetizer arrived. after contacting Uber eats they only refunded me $45… not even half of the total cost. I reached out again and asked for at least half of my total cost refunded since I didn’t even get half of the food ordered. They only offered me $5 in Uber cash and refused any other refunds. Just very disappointed. Especially since we couldn’t even re-order the missing food for $45… so half of the group went hungry. Buyer Beware.  You are taking a HUGE risk ordering through Uber Eats. In theory, it could be a great app, but there’s just too many flaws and very poor customer service.</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>2</v>
+      </c>
+      <c r="D143" t="b">
+        <v>0</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Buyer Beware.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Jessie???</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>45562.10162037037</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>I am extremely upset and frustrated with the service I received from Uber Eats. I was charged $100 for an order that was never delivered to the correct location, and it seems as though Uber Eats has effectively stolen my money. The driver claimed to have left my order outside on the sidewalk, at a completely different pin location than the one I provided in the delivery instructions. No photo was provided to confirm the delivery, which is standard practice.  
@@ -2441,1913 +4391,4019 @@
 This is unacceptable. I trusted Uber Eats to provide reliable service, and instead, I've encountered unprofessionalism and a complete lack of accountability. I expect immediate action on this matter, including a full refund and a proper investigation into the behavior of both the driver and the support agent.</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" t="inlineStr">
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="b">
+        <v>0</v>
+      </c>
+      <c r="E144" t="inlineStr">
         <is>
           <t>Horrible service from theft driver and bad Agent from support named Bon</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>Tavenmkb</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="G144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>45562.79638888889</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Disgusting company! Out of the kindness of my heart. I did not write a review about the driver or the place that I ordered. I was missing two things from my order. I am immediately filed a report and I was issued a refund of $3.61 which usually goes to Uber eats Wallet that wasn’t the case this time they took the refund they being Uber and paid the driver a tip so basically I paid still didn’t get what I ordered and they paid the driver and then when I reached out to them, they’re punishing me saying that they can’t do anything for me that they still issued the refund but they used the refund to tip the driver. And I had one of their agents stopped the chat and refused to assist me and transfer me to someone else. I don’t always use Uber eats sometimes you don’t have transportation to get something to eat, but after this experience, it left a the bad taste in my mouth and I won’t come back, not that coming back it’s gonna hurt their pocket. Just really disgusting their part and how stealing and thievery they are. They must be in a recession as well because they’re so desperate to keep the money in their pocket. I hope they enjoyed the money they took from me.</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74" t="inlineStr">
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="b">
+        <v>0</v>
+      </c>
+      <c r="E145" t="inlineStr">
         <is>
           <t>Disgusting wretched Company!!!</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>gffnccghm</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="G145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45564.76246527778</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Uber eats is the scummiest app for ordering food I’ve ever used. Not only does the app and customer service actively try to scam you for your money using promo codes and uninformed subscriptions but if you want your order correct and not ice cold even tho you leave a tip and are 5 mins from said restaurant then don’t use this app. Also the prices without saying are obvious scams to they jack up the price on all menu items make you pay for taxes and delivery just to add a hidden fee to force you to tip I would not have put this review if the customer service wasn’t terrible honestly they don’t want you as a customer I have dealt with drivers who have given me the wrong order without my name even on it gotten wrong items but since customer service is so cheap and lacking they jus treat everyone like they are lying funny how after we fall for the scam of ordering food they continue it more by not fixing there own mistakes I’m done getting stolen from deleted</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="b">
+        <v>0</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Don’t waste your money plzzz</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Keith leeen</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45564.86780092592</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>I ordered my food at about 12:45pm. Estimated delivery time said 1:55pm. This was fine. When I check the app at around 1:40 the delivery time was changed to 2:10pm. I check the driver’s location and he is far far away. I figure he’s probably delivering something else. I look again at around 2:15 as my food hasn’t arrived and he’s still at the same location and now my food’s eta is now 2:36. I’m upset but I decide to keep waiting. Then a few minutes later I check again, still at the same spot and now my eta says 3:44 so I contact the delivery driver asking if everything is okay, no response. I contact customer support and they are extra unhelpful. They tell me my only options are to cancel the order or get 20% discount from my order. I tell her that I am still dissatisfied and disappointed. I wasn’t expecting a free meal, just someone who was more compassionate and not robot-like. What’s the purpose of talking to a human if they just give out robot-like repetitive answers. Awful. Will not be using this app anymore.</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="b">
+        <v>0</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Awful Customer Service</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>LCarolinaRR</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>45565.01087962963</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>App works fine but also has a lot of shortcomings I.e. no restaurant hours, doesn’t show location of restaurants, has A TON of “virtual restaurants” with cool, exotic sounding names/menu items that look better than cheap restaurant food. These are also more expensive and sometimes have extra delivery fees. These restaurants are not real, they are places like Big Boy, Coney Islands, and other cheap restaurants disguised to fool customers and charge them even more than they already do (every item is at least a few dollars more expensive on here than in person or ordering directly from the restaurant). Also, they pay drivers $2 per delivery and don’t provide much or any incentive for drivers to deliver orders with care (using insulated bags, pizza bags, messaging customers updates, driving the fastest route, etc.). This also leads to many people not tipping drivers or leaving very small tips because they don’t do a very good job of incentivizing customers to tip higher amounts or add more tip for excellent service. The executives make millions and millions over charging and utilizing those in need of work so badly that they tolerate $2 per order. It is very convenient and has many options which are positives and likely the only reason people still use it. But I would love to see the issues listed above change.</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" t="inlineStr">
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="b">
+        <v>0</v>
+      </c>
+      <c r="E148" t="inlineStr">
         <is>
           <t>Super Greedy Company</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>Poo-Ber Eats</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="G148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>45565.08960648148</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>A lot of my issues with uber eats are usually food related, restaurants frequently forget parts of orders or send the wrong items, however, today my problem is with uber itself. I’m terribly sick and feel like death so I wanted to order some covid tests and medicine to check if it’s covid and start trying to get better as I’m in a lot of pain and it’s keeping me from sleeping even. I click the option to “leave at door”, naturally, as I don’t wish to get the driver sick as well. Problem is, I get a notification saying it can’t be left at my door and I have to meet them at my door instead. Why would I have covid tests and cold/flu medicine ordered to me to avoid getting others sick, just to have to get too close to the driver in order to get my order in the first place? Does uber not care about their drivers? Are they okay with possibly spreading covid/the flu etc? Would it not make more sense to allow the order to be left at the door to keep their drivers safe? I don’t know, but I’m gonna order through doordash as they seem to have a better handle on things like this.</t>
         </is>
       </c>
-      <c r="C76" t="n">
+      <c r="C149" t="n">
         <v>3</v>
       </c>
-      <c r="D76" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" t="inlineStr">
+      <c r="D149" t="b">
+        <v>0</v>
+      </c>
+      <c r="E149" t="inlineStr">
         <is>
           <t>Uber Risking Getting Drivers Sick</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>A_Haunting_Death02</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="G149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45566.4483912037</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>I have had a heart procedure and we had been out of power because of the hurricane. We couldn’t make food and and a couple friends thought got us some gift cards to help us through. 
+Let me preface that I use Uber eats a lot for my businesses and for when we have parties. We use Uber a lot to because we don’t drink and drive. We are fortunate enough to be able to treat ourselves. 
+We placed an order and it was taking a long time. I tried texting the driver who was just sitting there. Carlos, was unresponsive. I went down the rabbit hole of Uber eats auto response help center. I was told that the restaurant hadn’t started preparing food. At this point we were really hungry and decided to cancel because we couldn’t get anyone to help. We tried calling the driver again and nada. So we cancelled. 
+Uber charged us for everything. There was no warning or even mention that this would be a possibility. 
+So I go over to the help center - they were copying and pasting responses. They couldn’t understand the issue of me unable to do anything. I was making arrangements for something else but we couldn’t do it because they stole our money. All I received is so sorry and we will use this as a training experience. I asked for a supervisor, a number to call and they were unable to provide. If only the driver would have responded….
+So, no more Uber products for me. 1 personal and 2 businesses are walking away. I’m disgusted</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="b">
+        <v>0</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Uber Eats doesn’t deliver in time of need</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Heartbroken and healing</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>45569.50012731482</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>Please do not download this app. I order food delivery a lot. Door dash never charges me the types of fees I get with Uber eats. Every single order there’s something wrong. They deliver to wrong address, miss items, won’t refund, and take forever. They don’t care and you’ll get charged for it all. One day I ordered an egg sandwich and a soda. Wawa deleted the sandwich and they were intending to deliver a soda only for $12 to my house (their tipping is high). I cancelled (obviously) and got charged $3 for Uber eats error. It was bait and switch! They said they had the food and when I ordered the food, they said it’s not available - and I got charged $3 for a cancel. This is only one of many issues I’ve had. They delivered 4 times to the wrong address and I was charged over $100. The charges are so much higher than door dash. I added it up and was astounded at how much more. This companies policies are predatory and unethical. Do yourself a favor and download door dash instead. They refund practically everything if you reach out even give credits if there’s an error. I’ll never deal with Uber eats again and I’m telling everyone how bad they are.</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" t="inlineStr">
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="b">
+        <v>0</v>
+      </c>
+      <c r="E151" t="inlineStr">
         <is>
           <t>Worst food delivery</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>wvmountaineergirl</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="G151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45571.30655092592</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Don’t order food over $25 in Henderson, NV  food has been stolen many times. This is an on going issue. I’m tired of hearing drivers telling me they can’t drop off my order cause it was STOLEN. 
+Uber Eats you can do better. The drivers canceling orders before they tell the app they picked it up. Then they cancel with a lame excuse, and keep the food, which the app doesn’t know nor does the  restaurant know after the driver stole it.
+ Then me over here waiting like a fool. The dumb app tries to find another driver cause it doesn’t know the “thief”driver already got the food then dipped. Not only one driver but 2 drivers tried to pick up my food that was already picked up by the thief driver. The last driver was nice enough to reach out to me &amp; told me what happened so I can report it. The customer support doesn't care if they lose money. Uber eats must have enough to keep feeding thieves. Plus give me my money back &amp; pay the restaurants too. UE you need to come up with some better policies! Maybe start charging drivers for canceling orders they accepted.</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="b">
+        <v>0</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Stolen Food by Uber Eats Drivers</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>STOLEN_FOOD</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>45576.9177662037</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>I am extremely disappointed with my recent experience with Uber Eats as a loyal payed member. Due to the aftermath of Hurricane Milton, I have been left without power and water, and I was simply trying to order a hot meal. I placed an order totaling $44 but quickly realized I had the wrong delivery address since I had recently moved. I tried to change the address just a minute after placing the order, but Uber Eats informed me that my new location was too far for delivery. As a result, I decided to cancel the order, assuming I could order somewhere else with the correct address. However, despite cancelling less than 10 minutes after placing the order, I was still charged the full amount. I reached out to customer support, hoping for some understanding and assistance, especially given my difficult situation during a hurricane, but I was met with rude and dismissive replies. One representative even ended the chat on me as I tried to explain that I had no power or water and was just trying to get a meal delivered. This is completely unacceptable and feels incredibly unjust. In a time of need, I expected a higher level of service and empathy, but instead I was charged for food I never received and treated poorly by your support team. I will reconsider using Uber Eats in the future if this is how customers are treated.</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" t="inlineStr">
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="b">
+        <v>0</v>
+      </c>
+      <c r="E153" t="inlineStr">
         <is>
           <t>After the aftermath of Hurricane Milton</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>LunaAstrophel</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="G153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45576.92393518519</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Customer service is basically nonexistent. I have had problems before but this time is the last straw. Placed an order and received a notification 20 minutes later saying that I cancelled my order and it was refunded. Took another 29 minutes to actually get a customer service representative because the app itself offers no options to actually reach them aside from sending prewritten prompts to an AI which didn’t include my issue. When I finally got in touch with a representative he was very unhelpful and at first still tried to insist that I cancelled the order until I pointed out that if that was the case it wouldn’t have been fully refunded. He then claimed it must have been stolen by the driver so the system automatically cancelled and refunded me but I didn’t receive any kind of restitution or even a small credit to make up for the fact that I now have no lunch as I work full time and had no time to re-order a new meal. I will never use this app again.</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="b">
+        <v>0</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Worst customer service of any company.</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>KaptaiKoala847</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45577.0646875</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>I used ubereats until the third time their drivers showed up yelling at me about how they couldn’t find my apartment… it’s just a normal apartment yall. I got footage from my neighbors ring. As a young woman living alone it isn’t worth having strange unhinged men show up at my doorstep screaming at me! Also, the customer service I’ve (not) received as some one who has spent a lot of money on their app over the years (a lotttt of money I’m talking like thousands). Never got a refund when they delivered me wrong orders many times, I just ignored it because they make it such a hassle to contact them. And now this- over a month ago, I wrote the company a very brief message in app about these events and they never even bothered to respond, much less apologize for their employees yelling at me... so that really put me off. Have had NO issues using their competitors apps, not one. In fact my food arrives quicker now, hotter, from drivers who have no issue finding my clearly labeled apartment!</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="b">
+        <v>0</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Not worth the safety risk I faced</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>jekdbsjsbcj</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45577.10493055556</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Its been 4 months since I used UberEats, I don’t know why I came back. The stated delivery time is typically half the actual time, meaning you’ll end up waiting a good 30 minutes longer than originally promised, and the ‘no later than’ time simply updates later and later so you can’t cancel without incurring a fee. I don’t know if this is due to greed on the part of UE via stacking multiple orders with a single driver (yay for lukewarm soggy pizza!), I wouldn’t assume they are competent enough to do this deliberately rather than on accident, but I’ve had enough, this is my last order (October 2024), farewell!
+EDIT: i left a 22% tip and still I had time to go get gas, visit the atm, go home and have a shower, change the load of washing then pour myself a drink. Pizza arrived stone cold about 10 minutes after the ‘no later than’ date as promised. If I was this bad at my job I’d be reprimanded but instead there will be no consequence of course.</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="b">
+        <v>0</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Service level has dramatically declined</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>MBPPT</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>45578.61961805556</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>had to order the other night , ordered from Pizza Hut through Uber Eats and I was waiting  hours for my food then I kept getting new drivers and some how someone “ ended up taking my order and cancel my food through Uber Eats” what I was told through a manager from Pizza Hut so i was contacting and calling Pizza Hut nobody was answering back to me after a while. They ended up sending my money back  without explanation of the person nor did I get food then I went to Taco Bell Uber eats. I went ordering. I was waiting hours as well. I started ordering my food at 9 o’clock they told me that my food would be  alesst ready for pick up at 10:30 at the latest then the time kept changing to 11 to 11:30  to 12 in the morning, so then I ended up canceling my order on that because I have 5 children and it was a school night they had there baths and all just waiting on dinner  they never sent me my money back from Taco Bell because “the order was already preparing “ I waited it out til the next day then I contacted Uber Eats and never responded back to me once i kept calling and calling I got back to them. They basically said that the money is taken, so almost 100 dollars was taken from me for nothing I won’t be using Uber eats again they are inconsiderate  scammers!!!!</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="b">
-        <v>0</v>
-      </c>
-      <c r="E79" t="inlineStr">
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="b">
+        <v>0</v>
+      </c>
+      <c r="E157" t="inlineStr">
         <is>
           <t>Big families please don’t do deliver orders from here !!!</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>byaaws</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="G157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>45579.1146875</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>I haven’t had much trouble with Uber Eats before, but I ordered two boba teas separately because they added a larger fee for my friend than for me (without premium in the same location with the same drink), and they ended up with the wrong item. My uber delivery driver was super nice about this situation and tried to call uber eats on our behalf because we weren’t able to contact uber eats or the original place about the wrong order. We go over, in person, to the location and it ended up being a super sketchy location where I was unable to access help. When I was placing an issue report for a refund, they only would refund the original amount of the drink and nothing else that I paid, which in general was a super long process for no reason as i gave tour photos for two different parts of their process. I am extremely upset by the fact that they are offering food that is made from someone’s house and not an actual establishment where I can’t receive help.</t>
         </is>
       </c>
-      <c r="C80" t="n">
+      <c r="C158" t="n">
         <v>3</v>
       </c>
-      <c r="D80" t="b">
-        <v>0</v>
-      </c>
-      <c r="E80" t="inlineStr">
+      <c r="D158" t="b">
+        <v>0</v>
+      </c>
+      <c r="E158" t="inlineStr">
         <is>
           <t>wrong order process is very long for no reason</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>syd_28</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="G158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45581.17989583333</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>I had a really frustrating experience with Uber Eats, and honestly, I’d recommend thinking twice before using this app. I placed a pickup order and canceled it within a minute, but I was still charged the full amount. When I reached out to customer support, they said they couldn’t refund me because the restaurant had already accepted the order. This just didn’t make any sense – if I paid, I should either get my food or no food but money back, right?
+To make it worse, I called the restaurant, and they said they never even got the cancellation notice from Uber, so they went ahead and made the food. Uber basically charged me full price for an order I never got, all because they didn’t communicate properly with the restaurant.
+It’s just really disappointing, and I feel like Uber Eats doesn’t care about their customers at all. If you’re thinking about using this app, I’d suggest looking for alternatives. It’s not worth the hassle or the risk of losing your money like I did.</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="b">
+        <v>0</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Charged Full Amount After Cancelling in Under 1 Minute</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>夏メ</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>45581.94180555556</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>I don’t write reviews often and when I do it’s usually to give positive feedback. Unfortunately, today I have to break that habit. I’ve been using Uber Eats for years now. I’ve had issues every now and then, but for the last 10 or 15 orders I placed, ALL of them had issues. Missing items, incorrect items, late deliveries, etc… One took an hour before the driver told me someone else had picked up my order. No problem right? Just have them cancel the order and get something else. Support expressed their disappointment and apologized and told me I would be given a $10 credit to use. I never got that credit and was then told that they couldn’t provide it since I wasn’t charged for the order. Good customer service honors what their reps promise especially after a bad experience. What’s $10 to Uber?!! Nothing. Next day I order a pretty large order that came out to almost $50. I waited and waited and nothing. I check the app and the picture shows someone else’s door. GREAT!! Yet another poor experience. I contact Uber for a refund and low and behold, they say they can’t refund me. All they have to do is check the picture of the doorway that shows at least 100 times and see that the last picture is of someone else’s door. So I was lied to and then stolen from. Very poor customer service. Implement some QC, your success rate is horrid and you make the customers literally pay for it.</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="b">
-        <v>0</v>
-      </c>
-      <c r="E81" t="inlineStr">
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E160" t="inlineStr">
         <is>
           <t>I was lied to and then stolen from</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>Best Wishes…</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="G160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45582.08067129629</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>I’m not normally the one to write reviews. But this is just ridiculous. My husband and I just ordered $90 worth of food. Yes, NINETY. Our driver stole our food. Pulled up to our house. Sat there and clicked delivered and drove off. Took no proof of delivery picture like he was supposed to. We even checked the neighbors to be sure we didn’t miss him getting out of the car. I contacted customer support and they said it was MY FAULT that their driver stole my food because I selected leave at the door and they can confirm my food was delivered solely based on the fact that the drivers location pinged at my address. When I asked about the proof of delivery photo, they ended the chat..I had $90 stolen from me and was forced to call my bank and file a dispute and now will have to wait and hopefully soon get my $90 back. Uber this is ridiculous! Do better! I waited over an hour for this food after a long day of nursing school being exhausted just to have it stolen from me and told it’s my fault and I can’t get my money back. Thanks!</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="b">
+        <v>0</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Never been so aggravated in my life!! Just cancelled my membership.</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Case1191</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>45586.18635416667</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>I had my order “delivered” at the wrong house and when I walked down to go find it, it was absolutely no where to be seen. When I previously tried calling the driver when i couldn’t find my delivery , it gave me an automated message in a different language. I knocked on one door that was pinpointed as the location and they didn’t see any orders and they have a camera that senses when people drive by and there was no footage found of anyone even passing their house (it’s the only way to get to my house because of the one way road). I checked all the way to the main road because I didn’t want my money to go down the drain and low and behold THE FOOD WAS NO WHERE. Not to mention the driver left a picture of his car console and not the delivery? This is insanely unprofessional and I now just got my money refunded but it also means that I don’t have food for work tomorrow. When I tried calling the driver back a second time it said something about my number being blocked by the user. UberEats I would recommend that you double check the people that you let work for your brand.</t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="C162" t="n">
         <v>3</v>
       </c>
-      <c r="D82" t="b">
-        <v>0</v>
-      </c>
-      <c r="E82" t="inlineStr">
+      <c r="D162" t="b">
+        <v>0</v>
+      </c>
+      <c r="E162" t="inlineStr">
         <is>
           <t>Order being taken</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>ImaGuava</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="G162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>45586.97112268519</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>It was my first time using the app in a while so I bought the uber one subscription and a month goes by I been liking it so I decided to use it again and couple days go by and I check to see what deals they got and it logged me out of the account and I was wondering this must have been a bug so I try to login and it says in small text “your account has been deactivated’’ and I Apeal to recover the account and I waited a few days and they says they can’t recover the account for violating the terms and I barely used uber eats and those times were if I was really hungry and it was late at night so then it came to my head that I check my bank account and had the charge for uber one and I was still trying to get in the account so I decide to call the customer support and they said they couldn’t do nothing about it so I don’t know what I’m deciding to do now since a have a active subscription on my deactivated account on my card Uber eats support if you please see this message respond and try to help me out on canceling the subscription and removing my payment method. Thank you uber eats</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" t="b">
-        <v>0</v>
-      </c>
-      <c r="E83" t="inlineStr">
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="b">
+        <v>0</v>
+      </c>
+      <c r="E163" t="inlineStr">
         <is>
           <t>Bought uber one and they deactivated my account</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>Teddy Pozas</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="G163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45592.69571759259</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Easily the worst food ordering service out there. I regularly use 6 different services (mostly due to certain restaurants just using one) out of those, this one has the worst customer service with the worst quality of service. The timeframes are more than double other delivery services and their fees are significantly higher. Expect it to take 2+ hours when ordering through here. The restaurants make the food when you order it, and then it sits for hours because they can’t locate a driver. I placed a DoorDash order at the same time as my most recent Uber eats from restaurants that are on the same street (unfortunately this restaurant is only on Uber and half the office wanted it). The DoorDash order was delivered in 20 minutes. I’m over an hour into my wait time with Uber, with another hour of waiting to go. I know when we do finally get our food, it won’t be edible. With as much as food and delivery services cost these days, spend your money with someone else.</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="b">
+        <v>0</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Use another service</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>AnaNic13</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45594.85541666667</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>I ordered some pizza for my daughters birthday. I had one with no pizza sauce since she is allergic to tomato’s. The store messed up and when I called to complain they tell me to call Uber eats and they will take care of it. There is no phone number for me to call so I had to go through the app. It’s has been a back and forth fight since August! They refused to refund me for the pizza or make it right! Same with the store! So I cancel my Uber one and these fool keep charging me every single month! They refuse to issue a refund on the membership that was canceled! Not only that but I keep getting random odd charges and they won’t refund those either! At least door dash will make things right and they do what they can to help their customers! Uber one is pure trash! They need to refund me what is owed and they won’t! They just keep stealing my money and causing me more fees!!! Do NOT trust Uber Eats. Go with another company bc these people have no clue on what good business is and they will steal your money!</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="b">
+        <v>0</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>If I could give 0 stars I would!</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Katt9100</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>45596.03311342592</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>I have a vision disability that unfortunately means I have no ability to drive, meaning I rely on apps like this to assist me in getting food groceries all of that. With Uber eats I have tried again and again to use and it always ends up disappointing me. Either leaving me with insanely high prices to pay only to get the food incredibly late or no food at all. And they don’t let you cancel orders. They will make you pay because the store accepted it. I understand that the food was requested so it should be paid for, but when I ordered my food and it’s well past the delivery time frame Uber eats gave me, and I’m talking hour to hours, I don’t want the food anymore so it’s ridiculous that the app insists I still need to pay for food I no longer want when the reason I don’t want it anymore is because the time frame I was given was false. Another issue is I have gotten my entire order wrong and Uber eats doesn’t give a full refund you still have to partially pay for a meal you didn’t order and if you want the order you did pay for you’re going to need to reorder wait and pay again. It’s the lack of care for its consumers that makes me unable to use this app anymore which is just especially unfortunate for someone like me who already has limited choices.</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>1</v>
-      </c>
-      <c r="D84" t="b">
-        <v>0</v>
-      </c>
-      <c r="E84" t="inlineStr">
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="b">
+        <v>0</v>
+      </c>
+      <c r="E166" t="inlineStr">
         <is>
           <t>Can’t keep giving them money</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>00ken</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="G166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45598.53248842592</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>I quit Uber one due to the search function in this app (along with the high fees).  Yes, I still use it but nowhere to the extent as before.  The app pushes the vendors that are over 10+ miles away with unrealistic times such as “as soon as 30 min”. For example in searching breakfast, I get all these places so far away (I searched by quickest delivery time) saying it will deliver it practically the time it would take for the drive.  For fun, I searched for one to two restaurants nearby and they had quicker times to get to me.    I can’t trust the app search function when I want to be open to trying places, especially after they killed the “if it doesn’t get to you by X estimated time you get $5 back thing”. It’s tiring when you want to be open to trying places.  I feel sorry for the restaurants that pay the ridiculous fees to be on Uber eats but lose out because of Uber’s search function.</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>2</v>
+      </c>
+      <c r="D167" t="b">
+        <v>0</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Pushes recommended places that don’t reflect reality</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Cuetang</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>45598.98334490741</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>I ordered some yummy ol seafood, after a LONG EXHAUSTING DAY OF WORK. just got paid and got my pay check in the mail, and I wanted some seafood so I went on the app and ordered me some o then realized I forget a item so I canceled it RIGHT AFTER I ordered the food. (mind you it was only 1min after I placed the order.) they then CHARGED ME A CANCELLATION FEE of 50$ because they so called were already working on the order as soon as I placed it. and then they took my money and I reached out and they simply said they couldn’t do anything. so basically NO FOOD, AND NO MONEY FOR ME. half of my paycheck is gone, im never using this app again. door dash is way better, this is honestly a fraud. ive been this app for maybe a year with no problems until now and this stupid cancellation fee. you will never catch me on this earth placing a other order on this app. and if your reading this right now, im just letting you know before you press that download button. DO NOT DO IT. use doordash for ur own sake, and then when i had asked for help also they said i should put feedback. SO THIS IS WHAT THEY ASKED FOR. like I said NO FOOD, NO MONEY, STARVING. BYE PAYCHECK.</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="b">
-        <v>0</v>
-      </c>
-      <c r="E85" t="inlineStr">
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="b">
+        <v>0</v>
+      </c>
+      <c r="E168" t="inlineStr">
         <is>
           <t>this app is a fraud.</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>ashomashi</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="G168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45600.25929398148</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>I will never order from Uber eats again they have great customer no service very unhappy I order from Uber eats all the time for years never had an issue then all of a sudden Uber eats app decides to put the address of KFC in my neighborhood a mile away from my house I try to change address as soon as I noticed the app would not allow me to change address I do not have a car so I cannot walk to KFC to get my food a mile away from my home I had to cancel the order because there was no way to change the address I literally had no time to change the address which was weird because I’ve been able to change the address before on the Uber app anyways so I canceled the order and contacted Uber customer no service they did not help at all so they cannot help me so I will not continue business with Uber eats anymore if they want to just charge me for something that their app made a mistake on not me thanks again Uber eats customer no service 👍🏻</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="b">
+        <v>0</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Disappointed</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Jimijamin</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45600.77245370371</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>This company are con artist if you cancel the order, they still charge you for the food. You never get the food nor you don’t get a refund. The customer service people are rude. They yell at you. They treat you with disrespect. They treat you like your animal and you owe them your money that you work hard for This again I will never order these people again and honestly, we all need to link up and call the Better Business Bureau because it’s illegal for them to charge us for service that we did not get if we didn’t get the food. We should not have to pay that does not make sense This is the third time that I placed the order with this company where they would not give me my money back when I did not get no food. I canceled the order two minutes after the order was placed because it was a accidental order. They still charge me for the food, put in my account overdress for $84. I’m splitting to the company that it doesn’t make sense that I didn’t get my refund two times were food was said to be delivered at my house and never made it and I still wouldn’t get a refund.</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="b">
+        <v>0</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Con artist</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Hard working mom34</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>45601.1515162037</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Please learn from my mistake. Do not order food. If there is a problem, you WILL be charged for the food anyway. Honestly, it’s disgusting how rude the support was. They basically trolled me, and laughed in my face. When trying to speak with them, I got scripted answers, and then as I was typing they would end the chat. When I put in an order for some food, I noted an allergy, and asked the merchant to cancel the order if they couldn’t accommodate. Instead they marked that the order was being prepared, and the called me and told me they couldn’t make the food. When I asked them to cancel it, they said they couldn’t and told me to. I had never done it before, so I said I’ll try. They confirmed the cancellation, and then hung up. When I noticed that I was still being charged 75% of the order, and attempted to contact support. The gist of it is, I was told it was my fault for cancelling the order, and to learn my lesson for future orders. I won’t be making future orders. The support was laughably rude. Ignored anything I had to say, and ended the chat on me. I guess they’re cool with merchants taking peoples money? Or they’re cool with taking money? Idk. I wouldn’t avoid the app if I were you.</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" t="b">
-        <v>0</v>
-      </c>
-      <c r="E86" t="inlineStr">
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="b">
+        <v>0</v>
+      </c>
+      <c r="E171" t="inlineStr">
         <is>
           <t>Worst. Support. Ever.</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>Ace Arthur</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="G171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>45601.22189814815</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Waited on a 150$ grocery order for  well over an hour before reaching out to customer service. The driver ignored my message after delaying multiple times. When reaching out to customer service I was told the driver was already at the grocery store and my preset was being tracked and I would be offered 20% in Uber cash. They offered me 16$ which is it 20% of 150 and definitely not 20% of the 185$ which was the true cost of the order they “base tips on”. After sending the driver a screenshot showing that I saw he read the message and did not respond he says his “car broke down”. Uber customer service then cancels the order by this time it’s 10 minutes for the time the store closes it’s Uber eats option. When reaching out to customer service to rectification is given, no resolution except multiple generic messages offering no recompense or remedy. The chat was ended with a notification that my issue has been sent to “another team”. At the end of this I have 0 groceries and the time spent waiting on Uber I could have caught a Lyft and gotten my own groceries and most likely come out cheaper and faster. Delivery fees where about 12$ not including tip while a round trip lift would have been about 16$ not including tip. If there is not major rectification by Uber my account will be definitely deleted and I will be done with this app and moving in to door dash, Grubhub or just lifting to the store when I don’t want to drive.</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>1</v>
-      </c>
-      <c r="D87" t="b">
-        <v>0</v>
-      </c>
-      <c r="E87" t="inlineStr">
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="b">
+        <v>0</v>
+      </c>
+      <c r="E172" t="inlineStr">
         <is>
           <t>Worst Experience</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>UnappreciatedCustomer</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="G172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>45603.55425925926</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>I was a member of their Uber One service so I also paid a monthly membership.  The very few times I needed to contact someone they have been incredibly unhelpful.  I placed an order that had a mistake on it so I tried to modify, but the only option was to cancel.  Several messages popped up in chat showing the price of the order and then a larger message asking if I was sure I want to cancel and yes or no.  I selected yes.  It turns out that wasn’t just the price of my order, it was that they were still going to charge for it.  I would t have cancelled knowing this.  I talked to a phone agent and another one on chat all saying that there would be no refund (never have had to ask for one before.  It was an $18 order, it wasnt an extraordinary amount).  Both proceeded to get rude.  On the chat I said I was considering cancelling my monthly membership if this was how you were treating customers, he transfers me to someone else, and that person asks if I’m having trouble with my last order, I say yes.  He says to hold on for three minutes, then says my membership has been cancelled and transfers me to another agent</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="b">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="b">
+        <v>0</v>
+      </c>
+      <c r="E173" t="inlineStr">
         <is>
           <t>Customer service is terrible</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>Joakee</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="G173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45603.61864583333</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>I don’t usually write reviews because I realize that every company has its faults and benefits and usually every read through others and there’s plenty of them however, in my experience, I lost $40 through this app because it failed to locate me correctly and then wouldn’t let me cancel it five seconds after I placed the order and it said that the reason was because the restaurant had already started to prepare my order when I had called the restaurant and they said they have not begun to prepare the order and I wasn’t even asking for a refund of my card. I was just asking for a credit to my account. When I had made the inquiry I had still intended to use this company now I do not scam you out of money then they won’t even make it right. There’s another person that wrote a review saying that they would rather pay a few more extra dollars to have the security of being able to change or cancel your order and they’re right do not use Uber eats.</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="b">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Be prepared to get scammed</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Mom of 6 and 2</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>45604.2852199074</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Unbelievable customer service policy.
 The offshore customer service department is by far one of the worst I have ever experienced. I was traveling for work with no transportation options during my visit. I placed an order with a highly recommended restaurant an hour before the closing hours. After receiving confirmation the order was received, processed, and picked up by the driver. I was then notified the order was canceled and a refund was issued. Unfortunately all other restaurants were closed at this time. When I reached out to support I was told Uber eats cannot control if the restaurant closes early. As I began to ask why I had received notifications that the order had been through the process I was told it’s out of their control and I should reorder somewhere else. I tired to speak with a supervisor but was told they could not connect me for more than an hour. That would mean I would need to wait until 11:30pm to even continue the conversation. I was told I wasn’t being clear in my message and because the customer service representative felt I was talking in circles that she needed to end the call and hung up on me. I will say I was extremely respectful and never rose my voice or cursed. I simply asked how we could come up with a solution. The only response they were willing to offer was “we’re sorry and you won’t be charged”. Awful! Just Awful.</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" t="b">
-        <v>0</v>
-      </c>
-      <c r="E89" t="inlineStr">
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="b">
+        <v>0</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>Customer service nightmare</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>That one guy. You know him.</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="G175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>45605.95903935185</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Every time I’ve used Uber eats there’s always a problem with the delivery time where it’s gonna be delete an hour and an hour and a half, which is very unprofessional. The last time that I ordered with Uber Eats, I had to wait two hours to get my order, in which I ended up canceling because when I checked the driver’s location, she was on her way to pick up another order, so the time that I was actually given, it wouldn’t have been delivered by that time. So overall, I would’ve waited over two hours and a half to get my order. And when I reached out to customer service, they told me they could not refund me because I’m going to cancel it on my end. I would rather recommend DoorDash for anybody doing orders rather than Uber eats because they have no respect for their customers time. I tried speaking to two different customer service people, and they both ended the chat without even finishing the conversation that we were having. So I ended up paying for a food and the driver did not deliver it so because I canceled it the driver gets to keep the food that I paid with my own. Do not order with Uber Eats because they’re a scam and they do not care about their customer, All they care about is their money so beware</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" t="inlineStr">
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="b">
+        <v>0</v>
+      </c>
+      <c r="E176" t="inlineStr">
         <is>
           <t>Delivery time</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>Wayyy_</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="G176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45606.23855324074</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>My issue is that the map won’t guide the person to my door. I already updated the app to let drivers know I live in an alley; Most refuse to go into the alley and others are foreigners who don’t or refuse to speak ENGLISH. 
+I’m paying to have my orders delivered to my door NOT so that I walk a block to meet the driver. So frustrating!!!! Stop hiring mediocre drivers. Not only are they rude, unprofessional, and slow…. they don’t speak ENGLISH!!! Yesterday I have poor customer service with an Omer who waved me off. All drivers justify themselves with “ oh well the map tells me otherwise”        They don’t read the notes!!!! Seriously I’m thinking about canceling my membership with you guys because you obviously don’t seem to care to lose customers. We pay for an excellent above and beyond service.    Please make  a “ Must speak, read, and understand ENGLISH fully” a requirement for your employees.</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>3</v>
+      </c>
+      <c r="D177" t="b">
+        <v>0</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Delivery Issue</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Nat@96</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>45606.9012962963</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Thus happened two months ago, so I’m not saying it in a heightened state of frustration. I had offered Taco Bell, 12 items ~$70. The driver dropped off one small bag, with a three things and not my order. I contacted customer service for a refund, which sometimes Uber is good at. I have only used their refund system when the orders are actually wrong, and I didn’t get what I paid for. They it said it’s not eligible for a refund, so I went to chat with a rep. They said it’s not eligible for a refund. I asked for a supervisor, or contact information. There must be some kind of mistake, how could it not be eligible to be made right? The chat rep just continued to say not eligible for a refund and refused to give me any reason why.
 So I contacted my credit card company, explained the situation and provided screen shots. The credit card rep reversed the charge. Uber then forced me to pay for a for a meal I never got, by preventing me from ordering a ride until I repaid the dispute I won. This should be illegal. I hope someone in customer service sees this so they can fix it for other people, for me it’s too late. Grubhub and Lyft are fine.</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" t="b">
-        <v>0</v>
-      </c>
-      <c r="E91" t="inlineStr">
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="b">
+        <v>0</v>
+      </c>
+      <c r="E178" t="inlineStr">
         <is>
           <t>Grubhub customer service is 100% better, Uber will straight steal from you</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>iygyuruyfiyfutr</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="G178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>45608.04283564815</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>I wish I could give less then a 1 star rating but I can’t. I’ve been using Uber everyday for almost 10 years and didn’t have a problem tell last week. I was charged twice for an order and I contacted Uber and told me they would refund it. It still hasn’t been refunded so I called my bank and they said Uber hasn’t issued a refund for it. It was $50 EXTRA I was charged. Then yesterday I ordered food and waited outside for the delivery driver who ended up stealing my food which was $40. In the last 24hr I’ve talked to six ppl and they flat out refuse to help me. I’ve been a loyal customer for YEARS! One person I talked to I asked for a supervisor, they said no then hung up the phone. First person I talked to when my order was ongoing did not help me properly from what the 6th person I talked too said. Every person has talked too has refused to let me speak to a supervisor. I was told it would take less then 6hr for someone to email me about this issue, and it’s now been more then 24hr since this delivery driver stole my food. And 3 days since Uber over charged me. I’ve had to cancel my cards and my bank has had to set it up to where Uber can’t take anymore money from me. I’ve canceled my Uber one and am going to dispute with the bank because they have ROBBED me almost $100.</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" t="inlineStr">
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="b">
+        <v>0</v>
+      </c>
+      <c r="E179" t="inlineStr">
         <is>
           <t>Don’t use it you don’t want to get robbed by Uber and the people the hire.</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>Essencemaya</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="G179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45611.63055555556</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>About a year ago, my best friend died in a motorcycle accident and I didn’t leave my house for 9 days. I didn’t eat for 9 days. On the ninth morning I woke up so fragile and weak, I nearly passed out trying to shower. I finally decided Uber Eats was my only option to get food in my system, and when the delivery driver arrived, I fainted opening the door. They got me inside and woke me with chilled water on my forehead and the smell of Taco Bell jolted me back to life.
+The UEDD (Uber Eats Delivery Driver) proceeded to nurse me back to health by hand feeding me one bite of Taco Bell’s Crunch Wrap Supreme at a time until i finally had the strength to feed myself. When they left, they gave me their number and their Church and told me I could save more than just my earthly life.
+Long story short, these guys are heroes and I would probably be dead today if Uber Eats didn’t exist.</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>5</v>
+      </c>
+      <c r="D180" t="b">
+        <v>0</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>A Savior On My Worst Day</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Uber Eats Employees Heroes</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45612.07157407407</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Delivery times in this app have become a huge bait and switch. My consistent experience over many recent orders is seeing a delivery estimate like 45-65 minutes on the checkout screen, and then as soon as checkout is finished it changes to 60 minute estimate with the latest arrival time being 90 minutes from order time. This makes the range effectively 60-90 minutes, not 45-65 like the prior screen said just seconds earlier. 
+And it’s obvious why they do this. They want to pad the latest arrival time so they can stack the driver’s delivery route with other orders. I have been a paying subscriber for years, stayed through dramatic fee increases, and now I feel like the only way to get an order delivered at  the original estimated time is to pay the additional $3.99 (or whatever) for priority, because the standard is just a bait and switch where they stack other deliveries, arriving later with cold food. 
+I’m done with this app. Not sticking around for the next nickel &amp; dime or bait &amp; switch move.</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="b">
+        <v>0</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Delivery times &amp; fees getting worse</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>lucky gander</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>45613.02768518519</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>My family and I utilize(d) UberEats more than I would like to admit. We have spent thousands of dollars on this app. Unfortunately, more often than not, there are issues with orders, items missing, late orders, etc. When paying a substantial amount of money for your order, delivery fees, and driver tips; as a customer you expect these orders to either be correct, or you expect to be refunded for the items you never receive. After being forced to seek refunds multiple times because of RESTAURANT AND/OR DRIVER ERRORS, UberEats has now decided that I have “violated the refund policy”. If it is violating the refund policy to ask for your money back for services and items you did not receive, then I am forced to take my (embarrassingly) thousands of dollars in delivery orders elsewhere. It’s a shame that a company cares more about the few dollars I was rightfully owed - than the future business I, and the rest of my friends and family (and anyone I come in contact with regarding delivery services). Truly not a valued customer and I STRONGLY urge anyone reading to go elsewhere with your business.</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>1</v>
-      </c>
-      <c r="D93" t="b">
-        <v>0</v>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="b">
+        <v>0</v>
+      </c>
+      <c r="E182" t="inlineStr">
         <is>
           <t>Zero Consistency and Terrible Customer Service</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>Anonymous123456753</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="G182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45613.64265046296</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>I am so displeased! My first time using uber eats was terrible and i will NEVER use this app again. The delivery driver was great, and because of her action i at least got the right drink, but the store gave me none of the food i ordered AT ALL. And when i went to get support, they denied me a refund. I started the complaint immediately after opening the bag, the ticket on the bag was the correct order (a kids cheeseburger meal with bacon added, apple bites x 3, a toy, and two drinks) instead i got a fry, and a random burger that was not even customized correctly with the things i PAID EXTRA TO ADD INTO IT. Even with photo evidence i was denied a refund. If i had the money to spare, i probably wouldn't care, but i am extrememely low income and have severe depression and i needed the food i ordered as i was unable to leave the house. I couldn't eat what they sent and it went into the trash. I am livid at their lack of accountability. Use doordash instead they may be a tad more expensive, but they always have amazing customer support and when a store or driver messes up, they ALWAY make it right.</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="b">
+        <v>0</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>BLATANT THEFT</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Rydellina</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45613.79287037037</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>My order was cancelled 1 hour in from order being placed without reason. App shows merchant was preparing food &amp; delivery person heading to merchant. 1 hour from order being placed, received ordered cancel &amp; app shows I cancelled order.  Which i didnt, kids hungry and family Sunday meal together after church.    Contacted customer service, rep MOHAMMED was assigned. Asked what the reason my order was cancelled.  Informed Mohammed, i didnt cancel my order and asked who cancelled it.             First answer received was “cancelled from your side” then second answer “They cancel the order to save your time when they are unable to fulfill it”  Then immediately drops an automated type of response “Since we have already informed you about the resolution that we could offer, we are closing this chat here.” And ends chat.  Horrible customer service and app is deceiving trying to reflect blame on customer canceling the order to finally get confirmation it was merchant.  HORRIBLE! Entire family uses Uber and Postmates for years with paying for membership.  Fees on Uber and Postmate way higher than DOORDASH.</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="b">
+        <v>0</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>RUDE CUST SERVICE REP</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Bunnies29</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45615.90060185185</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Uber Eats has refused to refund items that were never delivered, items that were partially eaten by arguably the delivery driver, and poor quality items. All of these issues were documented with photographs. Photos include what was delivered. 
+The biggest issue is the routinely missing items ordered and yet, Uber Eats refuses to refund those items. If you complain about the missing items, poor quality, or partially eaten food, you are punished. Uber Eats refuses to refund or even discuss the issue with you. Instead, the company writes you off as having “repeated violations of our refund policy.” The refund policy must be you can only complain once or twice regardless of the validity of your complaint. The company refuses to believe it has a delivery issue and instead blames the customer. Many customers do not like to complain, but those who do are punished.  
+This would never happen when you go into a restaurant and sit down. However, with the lack of accountability with restaurants and/or drivers, the customer continues to get ripped off. I am boycotting Uber Eats.</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="b">
+        <v>0</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>“Repeated Violations of our Refund Policy”</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>H. B. C. D.</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45618.20706018519</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>I don’t usually write reviews but I’m genuinely done with this app. My final straw was when I ordered 3 items( 1 shake, 2 waffles) from The Nicollet Diner and only received 1 item and the cheapest item I purchased. The price overall was 40 dollars because it was a little out of the way. When my full order didn’t come I made a detailed complaint and showed proof that only the shake came in. I also explained how I attempted to reach out to my driver and they completely ignored me. I asked them to reach out to the driver first because I didn’t want to jump to conclusions. But they didn’t even tried and told me that I wouldn’t get my refund or my food and that the order was “delivered successfully”. Now this was the third time in a row something like this had happened so I was very suspicious that the app was just stealing money from me or something like that. I know I should’ve quit sooner but they were smaller purchases so I thought they didn’t matter and once I lost $40 I gave up on this app. It’s ridiculous the amount of money you get robbed of from this app.</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="b">
+        <v>0</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>App took lost of money from me</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>hekemvd</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>45619.94340277778</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>Every issue I’ve ever had with Uber Eats usually has to do with missing or incorrect items which I get isn’t the driver or Ubers fault directly but it is up to them as the middle man to make it right. I’ve been give “credits” and “refunds” that never happen. I’ve never gotten a credit and actually had it show up on my account but I’ve had countless emails explaining I was given a credit or a refund or BOTH for messed up orders. Never gotten any money back or an actual remedy. Deleted Uber and Uber eats today after the “support” representatives refusing to answer my questions and ending the chats with me after replying once and not answering anything. They don’t even give me a second to reply or if I do they still end the chat. I don’t know if they’re timed or they’re just not friendly people I get it it sounds like a stressful job but me as a consumer can’t understand how the customer service is SO awful every time and how I have never actually been given any remedy to any of my order mishaps even after being promised these things. Don’t waste your time. Doordash and Grubhub have much better customer service. They usually refund me more than what was messed up and give me discount codes or credits that I can actually use.</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" t="inlineStr">
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="b">
+        <v>0</v>
+      </c>
+      <c r="E187" t="inlineStr">
         <is>
           <t>Terrible Customer Service</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>shhaay</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="G187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>45622.36694444445</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>I am recently an Uber One member I have been using Uber eats for a while now the past couple months I have been using it religiously because I don’t get the luxury of being able to drive where I need to go at all times of the day. Lately though I keep having issues with my order while I’m missing an item or I get the wrong item etc. this is the second time in the past two weeks that I got a wrong order they gave me the incorrect item today and the previous time I was missing items and yet I was still ineligible for a refund even though I was able to send proof through pictures that what I got is not what I asked for or I didn’t get all of what I asked for when I go to customer service to ask for help and explain my issue they tell me they won’t be giving me a refund and then completely in the group chat they won’t even continue to talk with me so I have to restart the conversation all over again with somebody else I feel like if they are not efficient enough to properly run their company they should maybe shut it down for a little bit and reopen it when they have a better understanding of how to treat people and how to run a company properly because I’m tired of having to pay for their mistakes.</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>1</v>
-      </c>
-      <c r="D95" t="b">
-        <v>0</v>
-      </c>
-      <c r="E95" t="inlineStr">
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="b">
+        <v>0</v>
+      </c>
+      <c r="E188" t="inlineStr">
         <is>
           <t>Multiple issues with orders. Bad customer service</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>Serinityhowell1</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="G188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45627.16912037037</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>I will not be using Uber Eats again. There customer “service” is awful. In order to cut costs they have gotten rid of their phone number so you can only reach out via a chat function. When you get connected to a chat agent they only respond with the same 3 responses, mostly apologizing, not helping with the issue, and then disconnecting the chat. Their customer service is either poorly trained AI or poorly paid employees. 
+Regarding the issue, I was able to call the restaurant and they ended up making my order and I went and picked it up. The customer service representatives only told me Uber Eats will be taking my money and I will not be getting my food. They could’ve given me the advice to work it out with the restaurant but instead they repeated the same 3 apologies and then disconnected the chat. Really really bad customer service. I will be using one of the many other food delivery options in the future and will not be using Uber eats anymore. This is strictly because of their terrible customer service.</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="b">
+        <v>0</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Worst Customer Service Ever</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Hunter (yes im a dude)</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45627.87049768519</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Double check your final receipts if you ever have to get refunded from an order that you’ve never received. Apparently, I noticed that the tip amount is deducted from the refunded amount via UberCash - if you request to have the refund put into as UberCash. I checked my final receipts and the same amount of tip would still be charged in the final amount on the regular bill!!! PLUS deducted from UberCash. Horrendous customer service! You’ll be placed on hold for a few minutes and then they’ll say “this issue needs to go to the special team” whom doesn’t have a phone line because they are only contacted via APP messages or email from the customer service reps. You need to wait for DAYS to even get your money back after they’ve stolen it. You have only an hour to change tip amount—so if you did not receive a food item or completely missing an order you only have 60 minutes! They don’t care if you’re on hold for almost 60 minutes or if the intended for were for hungry kids. LACK OF SUPPORT AND APPALLING BUSINESS PRACTICES. THIEVES! Use DoorDash!!!</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="b">
+        <v>0</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Thieves</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>msrcc7</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>45630.07380787037</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>Honestly might switch to doordash because as nice as Uber is, they are cheaper and their customer service is much better, I have Uber one currently and order a lot but I noticed on doordash if I were to get dashpass instead, it would be a few dollars cheaper to order most of the things I get from various restaurants off doordash, in addition I used to get promos WAY more often a year or 2 ago and now I haven’t seen any in months besides the occasional alcohol discount that I never use, DoorDash however has LOTS of various promotions and offers going on and in addition their customer service is significantly better, I can’t tell you how many times I’ve tried to refund something on this app for various reasons and got a MINIMAL amount of money refunded. I ordered food a few times and they gave me the wrong order but when I get support involved, I didn’t get refunded the delivery fee and tip despite being refunded for the order which is obviously frustrating because I didn’t even eat the wrong order I was given. However every time I have an issue on doordash they always have ensured that I’m more than satisfied, often times offering me credits in addition to a refund. Sorry Uber but you better step your game up because right now you look beyond pathetic as a delivery service.</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96" t="inlineStr">
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="b">
+        <v>0</v>
+      </c>
+      <c r="E191" t="inlineStr">
         <is>
           <t>switching to DoorDash</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>Iron_kurtin</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="G191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45631.33248842593</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>I tried this for the first time after being skeptical but I really like it. I get access to restaurants I couldn’t access on doordash for being “too far away” when I live literally 10 minutes away and it’s so much cheaper! For something that would be $30 on doordash is $20 (includes tip). Although I’d wish I have more notifications when my driver is closer or picked up my meal and an updated or “on track” tracker but other than that, no complaints. I’m honestly never going back to doordash
+EDIT: After I wrote the person who was delivering my order stole it, BUT I was grateful to get a refund and the next person was extremely nice. I wish it was easier to deal with complications like that but it’s fine or whatever</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>5</v>
+      </c>
+      <c r="D192" t="b">
+        <v>0</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Better than doordash</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Daniii 🌙</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>45635.10122685185</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>I’ve been a loyal Uber eats customer for years and my order came two hours later requested a certain percentage of a store credit 
 since not only do I have Uber one customer but my order was well over two hours late. 
 With my order being so late, you would expect them to move me up to priority, but instead the Dasher was given a additional order to collect and deliver before picking up mine. I did request to cancel my order being that it was two hours late and my representatives both refused. Customer service representatives were not willing to work with me whatsoever or escalate me to a higher up when I explicitly asked instead they just ended the conversation abruptly without providing me any meaningful information if you were to try to call the Uber phone number available on their website and online, they will tell you that they are no longer active and for you to go and speak to someone in chat, who obviously either is AI or has no higher ups or anywhere to you might be having I would not recommend zero out of 10 use DoorDash instead.</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>1</v>
-      </c>
-      <c r="D97" t="b">
-        <v>0</v>
-      </c>
-      <c r="E97" t="inlineStr">
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="b">
+        <v>0</v>
+      </c>
+      <c r="E193" t="inlineStr">
         <is>
           <t>Horrible customer service</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>angry consumer 🙃</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="G193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>45639.90185185185</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>I’ve been using Uber eats for a while now and I have been satisfied for the most part. Their drivers seem to be good for the most part pay. They don’t have to be vetted or anything. So far I have been luck and they are paying attention to our order notes. The ones that go over and beyond (only two) I have wanted to make sure they were compensated. My problem comes when there is an issue with the order and Uber tries to toss blame on the restaurant which for the most, is the actual problem. Where I have my issue is that when I try to get my money  &amp; have to jump through these hoops, as well as when something’s forgotten I what I had actually been charged for so my refund is Lacking. They do a standard $5 refund. Even on a $14 appetizer. It’s gotten to the point where I only use the app when I need to. Out of pure laziness on my part (so buyer beware), but if I’m able to just go out myself, I’ll do it. Not a bad app just OK.</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="C194" t="n">
         <v>3</v>
       </c>
-      <c r="D98" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" t="inlineStr">
+      <c r="D194" t="b">
+        <v>0</v>
+      </c>
+      <c r="E194" t="inlineStr">
         <is>
           <t>Easy to use as long as nothing goes wrong</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>Murf55</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="G194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>45640.17902777778</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>I will NEVER order food on this app again. After I write this app I am closing my account and deleting the app. 
 I ordered food, right after I pushed the pay icon I realized I had the wrong address so I cancelled it immediately. The restaurant must be psychic because they claimed they had already started my order in the few seconds after I pushed send. I highly doubt that was the case. It was lunch time on a Sat. and the restaurant is in the Haight Ashbury which is usually very busy especially around the holidays. There’s no way they started the order. They just wanted the rip off amount of $86+. They charged my checking account 5 times so it was difficult to tell what was going on. I was in the hospital for goodness sake. I finally saw in my account that the 5 charges and refunds had settled down only to discover that they still charged me for food I never received. I then tried to find on the app how to dispute this and it took forever. I finally started chatting with their robot then my phone died and I wasn’t near any where to charge it. When I returned to the chat it said it was closed and now I’m unable to open a new one. I will never eat at or order from Estrella taqueria again. This is a rip off. Unbelievable. Zero stars… for both this app and that restaurant.</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99" t="inlineStr">
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="b">
+        <v>0</v>
+      </c>
+      <c r="E195" t="inlineStr">
         <is>
           <t>Awful app awful discrimination against customers</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>Ummmwtfh</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="G195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>45640.46880787037</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>Uber Eats (They)  first, have I have encountered significant issues with the customer service experience related to my recent order. It seems that the responses provided by representatives are often scripted and repetitive, indicating a lack of genuine listening to customer concerns. Promises made about a manager returning calls have not been fulfilled.
 Additionally, I faced challenges when attempting to cancel and reorder an item shortly after placing the order due to an unrecognized discount. The company's explanation for not allowing this was that the food was already in preparation at the time of the cancellation. When I followed up with the store directly, I was informed that they could not assist since it was a third-party transaction. However, I was assured that if an order is canceled, there should not be any cancellation charges, and it was confirmed that my order had not been processed.
 Despite having received a receipt for the original order, there appears to be a lack of communication between the store and the third-party service regarding my second order, which the manager claims they never received. This experience raises concerns about the integrity of the company's practices, and I feel it is important to share this information with others to inform them about potential issues in their business operations.</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>1</v>
-      </c>
-      <c r="D100" t="b">
-        <v>0</v>
-      </c>
-      <c r="E100" t="inlineStr">
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="b">
+        <v>0</v>
+      </c>
+      <c r="E196" t="inlineStr">
         <is>
           <t>You're Thieves</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>EdwinaLC21</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="G196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>45640.90028935186</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>I never leave reviews but thought it’s important to mention. The policy and system is poorly created that if you cancel within seconds to fix an address - they will always charge you and say that the restaurant started making food which isn’t true if you cancelled within seconds. In addition- when they make mistakes like the driver taking your food - they get away with it and you still get charged. Basically mistakes on their end is always permitted and it happens frequently but one small mistake and they say it’s within their policy to charge you hundreds of dollars AND charge you for a driver fee which never even picked up the order, so it’s a ridiculous company that I would stay away from. Also, I wasn’t able to escalate the issue because they wouldn’t directly answer me, ended the chat quickly by saying I haven’t responded in awhile which was literally less than 30 seconds. I can’t even speak to anyone on the phone because they say the help center allows you to which is also not true. If you try and find a customer service- the number says we have updated our app help center and this phone number isn’t available - disconnects you so it’s a company that will deliver on their end intermittently but any sort of issue on their end and they are comfortable with allowing it to occur. I don’t think this should be a well trusted company after experiencing that!</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>1</v>
-      </c>
-      <c r="D101" t="b">
-        <v>0</v>
-      </c>
-      <c r="E101" t="inlineStr">
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="b">
+        <v>0</v>
+      </c>
+      <c r="E197" t="inlineStr">
         <is>
           <t>BEWARE of the tiniest mistake!</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>19985SharonJo.Lauren-0987</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="G197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45642.15799768519</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Okay, so Uber eats always does this they make it extremely difficult to contact anyone (a robot)  for a refund and today was the last time I’ll let them do this to me. I ordered some Panera bread and I got about three soups and a sandwich and my soups are wrong and when I reported it which took 20 minutes because they make it extremely hard to contact them cause they don’t wanna give you your money back. Then they finally decided what my food was worth, they give me four dollars back from  $50 I spent. Mind you four dollars doesn’t even cover one soup… I am disgusted I am furious and honestly, this happened to me so many times on this app that now I’m just deleting the app. Don’t download this app. other delivery apps are great. I use them too. I don’t know why I keep on using Uber eats I’m done. I’m tired of getting robbed by Uber Eats and then getting pennies back as if that fixes everything.</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="b">
+        <v>0</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>I got an 4 dollar refund on a 50 dollar order?? Yeah don’t download this app</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Little.Star2442</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45642.93505787037</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>I’m not satisfied with my recent experience with the Uber app. I rarely use Uber Eats, but I’ve been sick all weekend and didn’t have food to take my medicine with. Normally, I rely on family or friends to bring me food, but since no one was available, I decided to try Uber Eats.
+Unfortunately, the entire time I was on the app, I kept getting intrusive pop-ups for Uber One. After deciding on what I wanted to order, I was trying to finalize my payment when yet another pop-up appeared. Thinking it was a confirmation button, I accidentally pressed it and ended up being signed up for Uber One and charged for it.
+I find it frustrating and confusing that Uber is so pushy with these pop-ups. It feels like bad business management and makes it far too easy for someone to unintentionally sign up for a service they don’t want. This experience has left a sour taste, and I hope Uber reconsiders this aggressive approach.</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>2</v>
+      </c>
+      <c r="D199" t="b">
+        <v>0</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Why so many pop ups?</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>R1Concepts</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>45643.05773148148</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Uber Eats’ business practices leave much to be desired, both for customers and their drivers. As a customer, I’ve experienced delays, incorrect orders, and poor customer service without a satisfactory resolution. When something goes wrong, Uber Eats’ support often feels unhelpful, offering automated responses and refusing refunds or credits even when issues are clearly their fault. It’s frustrating to pay for a service that rarely holds itself accountable for its mistakes.
 Equally concerning is how they treat their drivers. Delivery workers, who are the backbone of their service, are underpaid, overworked, and subject to unfair policies. Tips often seem to be the primary source of income because Uber Eats takes a significant cut, leaving drivers struggling to make ends meet. For a multi-billion-dollar company, this exploitation is unacceptable.
 Between mistreating customers and exploiting workers, Uber Eats seems more focused on profit than delivering quality service or fostering fairness. I’ll be looking for alternatives where drivers are better compensated and customers are treated with respect.</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>1</v>
-      </c>
-      <c r="D102" t="b">
-        <v>0</v>
-      </c>
-      <c r="E102" t="inlineStr">
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="b">
+        <v>0</v>
+      </c>
+      <c r="E200" t="inlineStr">
         <is>
           <t>Disappointing business practices - for both customers and drivers</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>Zipstoppah</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="G200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45643.24809027778</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Ive had several experiences where I ordered food and never got the item I wanted or it was wrong. I had this happen with restaurants and also when ordering from a grocery store.  You are supposed to rate the order and there is is meant to be a refund, but if you complain too much, they stop giving you a refund even though its not your fault. The restaurant has messed up, not me. I’ve provided pictures as requested. They just send a message “we understand that this is not an ideal situation/experience, but this order is not available for a refund.” 
+Today i made an order and the driver was going all over the place. I wanted to remove the tip, the app wouldn’t let me. It didn’t even give me the option. I contacted the restaurant, the picked up the phone and hung up.
+The uber agent said sorry , we told you how to adjust the tip, you have to do it within an hour. 
+It was less than 15 minutes of delivery. 
+So messed up.</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="b">
+        <v>0</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>They don’t really want to have a positive customer experience</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>yoni the yeti</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45644.31501157407</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>I have had many issues with over eats over this last year. One they don’t give accurate times for the pickup and drop off of food. An order that was said to be 45 mins AT THE LATEST. Ended up being a hour and a halve. When I tried to tell someone how long my order was taken I got a bot with an automated message of basically “ there is nothing I can do for you move along” this is absurd I should not have to be waiting over an hour and a halve when it was their issues with a driver that made the food take longer. Not to mention nothing to make up for it. The customer service that they provide is non existent. It is simply a robot who cannot do anything for you. My most recent experience that has me the most upset is them charging me for uber one without my knowledge. I have tried emailing them and talking to the bot but no one is responding after two days and I’m sure it is intentional. I was not even made aware I had a uber one subscription and once I knew canceled it. I have been trying to speak to someone to get a refund but no luck yet. UBER EATS GIVE ME MY REFUND!</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="b">
+        <v>0</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>THEY ARE SCAMMING YOU</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>134😡angry face</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45647.59746527778</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>I ordered and had a gift card added and got a message my bank card ending in **** was charged 54 dollars and some change. I panicked and cancelled my order so i can try to reorder but I guess my funds were applied. I attempted for 2 + hours to get a resolution only to be corresponding with a AI generated “customer support rep” I also contacted the merchant and they claimed the order was cancelled before they could see it. According to Uber eats the merchant excepted the order and therefore they will get payment regardless, the cancellation fee for my order was the exact amount of my order. I asked them to verify that they will get this disbursement and if they could prepare the order for pickup and the merchant refused because they did not receive notification they will get disbursement. I am filing a complaint with the BB and the department of financial institution to investigate this further. This app is not user friendly. This business should not be running without actual live support. This is a sketchy and scammy business.</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="b">
+        <v>0</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>AI generated support</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>A'Aisha El</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45647.85903935185</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>I used this app a lot, and only recently, and only because of a TikTok vibes with similar problem, I started to suspect of being charged extra. And whenever I make a order I now realize after doing that math, that whenever I make a order lets say it’s 20 bucks and it will as me to add a tip and  I’ll add one but once I have to pay, it says it’s almost a dollar more then it should be? And I tested it by putting zero as a tip just to see what it will say when I try to pay for it thru Apple Pay and then it does it again charge 50 cents or even a dollar more then it supposed to be? Why ? And I’ve noticed it doing it before. Of course couple cents here and there and I didn’t think it would go as much as a dollar but it did, and now I’m wondering how long has it been where it’s been charging a dollar here or there more. Idk how much more either if it’s just a dollar or even more?  But what is this extra charge coming from?</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="b">
+        <v>0</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Suspicious overcharge?</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Lilah17!</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45647.97039351852</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Only reason not five stars because, the app itself is really simple and quick to navigate and to place order, it’s pricey. Not as pricey as say DoorDash which btw I wasted a ton on a few too many times before finding this app was cheaper then theirs. The tip option comes to higher then DoorDash’s but still about 10$ cheaper on uber eats so this is good enough for someone like me who has just enough money to avoid risking going out on these horribly crowded Pensacola streets. It’s getting downright scary cuz the police will not enforce speed limits and I can’t risk my life and/or about 40,000$ on a replacement vehicle like these rich kids can. So this is I’d say best option if you’d rather spend 50$ to 60$ to not cook and not drive. Hope this review helps others. If I use for groceries or anything else I’ll update👍</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>4</v>
+      </c>
+      <c r="D205" t="b">
+        <v>0</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>It’s a nice app</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Davidmcm</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>45648.04450231481</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Long time user of UberOne here. I usually enjoy Uber and ubereats but recently had a TERRIBLE time with their support team. The other day I ordered 2 coffees &amp; breakfast and BOTH coffees were missing. This is not the first time I’ve been missing beverages from my order. Usually, support is helpful &amp; a proper refund is issued pretty easily. But I guess they’re changing out support people or something because this was the most horrendous experience I’ve had with Ubereats. Not only was I already bummed to not get my coffee (even tried calling my driver to see if they’d bring it), I then logged it as missing and Uber told me they couldn’t refund me for the missing drinks I paid for?? When I asked for further support, 2 different people failed to give me a resolution. It took hours to get a response &amp; the first person only issued a refund for ONE of the beverages, and when I explained this to the 2nd person they said the refund was “already issued” and didn’t offer any further solution. I now have to wait for a 3rd person &amp; possibly contact the restaurant directly and/or my bank to finally get this resolved. If I can’t get a resolution to this issue, I will have to take my business elsewhere because arguing with support is not how I want to spend my days…</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D103" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" t="inlineStr">
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="b">
+        <v>0</v>
+      </c>
+      <c r="E206" t="inlineStr">
         <is>
           <t>Frustrating support…stole my $</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>Melisasevilmis</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="G206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>45648.94353009259</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>I ordered on Uber eats from kfc near me where kfc had a meal deal when I buy one 3 piece chicken with two sides and a drink, I would get one free meal but I called kfc and the lady told me that she doesn’t know if I clicked the button for the deal and so I explained to her that it is my first time using Uber eats and that I did not see a button to click in order to get the deal. The lady from kfc told me they are having the deal until 12:00am tonight but that she has no control whether I get the deal or not. Therefore, I called Roberto my Uber eats driver and asked him if I was getting the deal. I asked if it was two for one and he told me yes I am getting the deal. So I’m patiently waiting for my order to be delivered and i did not end up getting the buy one get one free (3 piece chicken with two sides and a drink).. only one.
 Although I was under the impression that I would get the meal deal from kfc and sure enough I did not. Very unsatisfactory that I did not have information on how to get the buy one get one meal from kfc. Even after the driver told me that I would get the deal.
 I am an unsatisfied customer.</t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="C207" t="n">
         <v>3</v>
       </c>
-      <c r="D104" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" t="inlineStr">
+      <c r="D207" t="b">
+        <v>0</v>
+      </c>
+      <c r="E207" t="inlineStr">
         <is>
           <t>Uber eats delivery</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>Eugene59921</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="G207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45650.34038194444</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>There delivery driver was about 20 min late with order cause he didn't follow route the app said to take   Food was cold soda water down.   And all they gave me was a $2 credit    I asked for them to at least credit the amount for the food and drink.  I didnt even ask for it to be refunded to card. They just kept saying gave gave me $3 credit to make it right. How is it on a 15 order  I couldn't even eat they only really give me $2 credit  so I lost out on $13 dollars and to even use the credit I would have to spend more money to have a meal delivered.  Cause I can't get anything for $2.    I spend $90 a week to take uber to work plus my house hold spends a lot of money with uber eats to be treated like that.   It was there drivers fault. He actully took a street that has a stop sign at like every intersection  instead of highway like the app said he was suppose to take.     They make so much money from customers and couldn't even give me $15 credit  for. Meal to fix issue vdruver caused</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+      <c r="D208" t="b">
+        <v>0</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>The rip customers off</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>crisguz77</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>45651.210625</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>Why would you pay thirty dollars for cold McDonald’s two hours from now? Nothing has ever arrived to me in edible condition from Uber Eats. The problem is they put short-term profit before absolutely everything else, including customer satisfaction. They have your delivery driver take five orders from five different restaurants. After your food gets picked up, it sits in your driver’s car while he picks up the next order and the next. By the time it gets to you it is garbage. Meanwhile you’re paying what it would cost to go out and get yourself a positively stellar hot meal. The model only works because you stupid consumer pigs will buy anything if it’s on your phone. Why don’t you stop and think for a minute sometimes? You know what was cooler than summoning a car on your phone? The days when you could hail a taxi. As recently as 2014 I was able to step outside of my building, stick out my hand and a cab would instantly pull over and pick me up. Now you need to use a stupid ride hailing app. All of you morons agreed to make things less convenient.  Seeing a 4.8 star aggregate rating for this app gives my yet another reason to root for the  downfall of Western civilization.</t>
         </is>
       </c>
-      <c r="C105" t="n">
-        <v>1</v>
-      </c>
-      <c r="D105" t="b">
-        <v>0</v>
-      </c>
-      <c r="E105" t="inlineStr">
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" t="b">
+        <v>0</v>
+      </c>
+      <c r="E209" t="inlineStr">
         <is>
           <t>You have to be stupid to buy food this way</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>IH8PGS</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="G209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>45652.20967592593</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>I have had uber eats for the longest and enjoyed it , but recently have been having the worst experience ever, if you are thinking of getting a foot delivery app CHOOSE ANY OTHER ONE I PROMISE YOU THIS MESSAGE WILL SAVE HEADACHES IN THE FUTURE . my final straw was my last order , a simple chick fil a order due to the fact I am to busy to eat food at home due to having a supervisor role at work , order was supposed to be delivered at 11:15 , the driver was changed 5 TIMES YES 5 TIMES , and once the driver arrived to the restaurant my order was cancelled at 11:45ish , waited nearly an hour for no reason , contacted customer service , they were also no help at all , asked about my food , no reason why is was canceled , asked about my refund they said they were ending the chat to go help someone else…. MIND YOU I WAS PAYING THE UBER ONE MEMBERSHIP AND I WAS BEING TREATED LIKE THIS IS UNACCEPTABLE, I can understand people say “ it’s a food delivery app stuff happens “ no , this happens constantly, food being missing and nothing being done to compensate, late orders to the points food is cold , save yourself a headache and go with someone else . Officially going to door dash , this was seriously THE WORST EXPERIENCE ( can’t even do half a star rating )</t>
         </is>
       </c>
-      <c r="C106" t="n">
-        <v>1</v>
-      </c>
-      <c r="D106" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" t="inlineStr">
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" t="b">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>Make this your final opinion</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>GO WITH DOORDASH</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="G210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>45653.85340277778</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>I ordered a prime rib and baked potato and French onion soup from a high-end restaurant to a hotel that I was staying at. The app said it would take approximately an hour and 15 minutes - no problem. I assumed the restaurant was busy. The order was picked up within 15 minutes and was only 10 minutes away from me so I thought it would arrive early. Upon looking at the route, my driver was taking. I noticed that it said he had additional stops he had to make. My food sat in his car for one full hour while he made three other stops. This is not the driver‘s fault this is Uber Eats fault for tasking drivers with multi orders. When my food arrived, everything was cold. There was also no utensils, even though I for them and I’m in a hotel that does not provide them. I’m aware that that’s the restaurant issue but the arrived cold when I paid $100 for one meal was unacceptable. Uber eats would not make any accommodation due to temperature. Buyer beware that when you order food from this app and it arrives cold after sitting in somebody’s car, you’re on your own. Trash and I’m deleting the app.</t>
         </is>
       </c>
-      <c r="C107" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" t="b">
-        <v>0</v>
-      </c>
-      <c r="E107" t="inlineStr">
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="b">
+        <v>0</v>
+      </c>
+      <c r="E211" t="inlineStr">
         <is>
           <t>Drivers are tasked with multi orders so your food arrives cold</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>TiaBlake44</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="G211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>45653.90319444444</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>I have used Uber Eats for at least 6 years, and it has gotten worse and worse. I will be deleting this app and never using it again. On multiple occasions my drinks have been forgotten about, my orders have been incorrect, and I’ve had orders delivered to the wrong home. The last time I reported a drink missing I was not issued a refund and was told that I needed to read their policy. Still, I have used them. However today I was contacted then to cancel an order due to the time of which it would arrive. They said they could help by reassigning me a driver, to which I agreed. After being reassigned a driver it added 20 minutes to the original delivery time. By this point I wanted to cancel the order, regardless of the fact that I would not be refunded. I asked FOUR TIMES for them to cancel my order, to which they would not. I was patient and used kind words, yet when I asked if they were saying I could not cancel the order, the person I was speaking to (Suraj) ended the chat, without answering my question or cancelling my order. This was the last time I will continue to be given the service for something that is, at this point, is not worth the extra fees or hassles.</t>
         </is>
       </c>
-      <c r="C108" t="n">
-        <v>1</v>
-      </c>
-      <c r="D108" t="b">
-        <v>0</v>
-      </c>
-      <c r="E108" t="inlineStr">
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" t="b">
+        <v>0</v>
+      </c>
+      <c r="E212" t="inlineStr">
         <is>
           <t>Never Again</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>17ambition</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="G212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45655.03716435185</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>You can’t even order Creamy Cilantro Dressing on the side or extra dressings if u need them if you order through Uber Eats app @ El Pollo Loco. There are multiple menu items as well as modifications that you cannot utilize and Uber Eats should change that in the app you should be able to do everything that you do at the restaurant or in the drive-thru. Also, for Lourdes’ Mexican Food/Chicken Soup there IS NOT AN OPTION to request certain soup ingredients like the Avocado &amp; Cilantro ON THE SIDE, which is almost CRUCIAL for delivery. Lastly, the PAYMENT PORTAL NEEDS WORK: when selecting a payment method, or CHANGING which card you want it charges to, after TAPPING ON THE card you want, you SHOULD just be rerouted back to your cart, but INSTEAD have to exit out of the payment selection screen and HOPE that the card you selected IS the one being used, and then RE SELECT if it didn’t go thru.</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>3</v>
+      </c>
+      <c r="D213" t="b">
+        <v>0</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Needs ALL MENU OPTIONS for Paired Restaurants</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>MissMommaMia</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45655.62444444445</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>It’s a nice app honestly especially the uber app for those who don’t have transportation, but with uber eats when someone delivers anything you order to the wrong address or delivers food with terrible quality, like the temperature, taste, under/over cooked OR you order yourself groceries and they get delivered to the wrong house, your first instinct is to contact uber eats for your money back or reorder your items and for the third time they have not been able to help. It’s honestly wasted money and I won’t be using this app anymore, I’ve never had this problem with DoorDash. The only upside to uber eats is that they also have uber for rides. Clearly they need to have some type of delivery setup that won’t allow you to continue with delivery if you’re at the wrong location, it’s very frustrating to spend hard earned money on apps like this and it go to waste. Unfortunately I don’t have a car at the moment, so this is how I get everything I need.</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="b">
+        <v>0</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Terrible app now</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>It’sKayla</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45656.16219907408</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>I would give 0 stars if I could. I had made an order but then my delivery driver called me saying that the restaurant didn’t have my order and to contact support. The website says you can call through the app but there’s option was never there. After waiting on support chat for 30 minutes be connected to a “person”. I was told by my driver he would cancel my order. It the just tried to send another driver to get my none existent order so I was forced to cancel. Since I canceled it uber is saying I’m at fault and refuses to refund me or even offer a simple credit. I’ve voiced my concerns to their live chat but after a few interactions it became to clear to me it just an AI chat bot that didn’t listen to my concerns at all. Absolutely horrible way to conduct business as a company over all and completely deceiving that the live chat would actually connect to a person who would be understanding of the situation. Nope just a bot programmed to read off a script.</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+      <c r="D215" t="b">
+        <v>0</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Horrible experience</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>FxLyfe</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45656.76019675926</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>I ordered a meal for my family and the person who was assigned to it had taken it to a random spot, took a picture and ate it. Once i found this out i had called the person and they hung on me so i thought the best thing to do was, go to the help desk and ask for help. Which wasn’t really as much “help” as i needed. I wanted to report this person and get them off the app so it wouldn’t happen to anyone else but i couldn’t because the app said they took a picture so that means they delivered it which was false. Please do something to help change the way people scam on here like doing background report and setting the people that has low scores to not be able to deliver anymore, because this is outrageous. I did get a refund though and it did help but other than that, this person needs to be taken accounted for.</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>3</v>
+      </c>
+      <c r="D216" t="b">
+        <v>0</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Bad experience</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>india6177</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45659.11204861111</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>There was a bug where I selected pick up when I was at the vendors page but it switched to delivery on the payment page. They also prioritized trying to get me to order more things by showing me more things I could order on the confirmation page and hid important info like what payment method I'm using at the very bottom of the page, where I had to scroll to find it. And then once I made my mistake using the wrong payment method neither me nor the vendor or the customer service rep could cancel or modify the order for 24h. They're making sure you can't cancel no matter what. Their customer help page says you can call them to cancel, but with no phone number. Another time I ordered something from a bakery and got to the store only to find out they were out. Again, the store can't cancel the order. The items in the app are more expensive than in the store anyways. I only use it because of my credit card benefits and it only confirms how terribly worthless this app is.</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="b">
+        <v>0</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>prioritizes profits at expense of customer experience</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>bokestar</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45662.95881944444</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>I bought a 100 dollar order and that went fine the problem came when the driver said she was having car trouble and that her car broke down so I looked at the gps and the driver was moving as she was telling me that she wasn’t able to move and what would you guess I never got my food for my family of 5 but the app still had me pay for it so I went ahead and called customer service and the experience was abysmal I was hung up on by 3 representatives and one put me on hold and disconnected the call so as to mislead me and stop me from calling back but I will not be eating that 100 dollar order that is a lot of money for me the only thing customer service can do is tell you that they can’t help you or tell you that they’ll call you back and never call back what an absolute joke sorry for my bad grammar and no punctuation but this really irked me and I will be using doordash instead as I had zero problems and they give refunds</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+      <c r="D218" t="b">
+        <v>0</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Uber eats does not give refunds on any order use Doordash</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Myopinionisforfeit</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45664.06561342593</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>UberEats has gone downhill over time. They used to have better customer service when a delivery item is missing or order is incorrect. Lately, they do not hold the restaurant accountable and merely ask you leave them a review. In my last two orders, an item was missing, to which they provided a refund for the one item that wasn't each the same cost I paid, and the second order, they said the order was correct despite me saying there was a item I paid for missing and closed my case. I've also experienced times where I was offered a promotion for groceries, but then it wouldn't come up at the end of the order. They said I never had it, but I provided a screenshot as it was still coming up in the promotions page. Despite this, they wouldn't admit it was bug and refused to honor it.
+I've moved back to DoorDash, where I've had a great experience with in the past. After a couple orders, the customer service and perks are already more superb.</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="b">
+        <v>0</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Terrible Delivery and Poor Customer Service</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Mid_Foodie</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>45665.28436342593</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>I contacted uber eats numerous times on numerous occasions to get feedback on what had happened to my order and how it said completed although I was never contacted nor had I given the pin to anyone accepting my order. I came outside immediately when it says it was so called delivered after already waiting almost 3 hours for it to even get to me in the first place and there was no delivery person nor was there any food. One of the representatives called the driver to get the drivers take on things and said the driver said they may had put it at the wrong door which still is not on me (ie. I DID NOT RECEIVE MY ORDER) but the escalation team full of greed and discriminating keeps trying to state that I received an order that I never received. $53 may not be a lot to some but to me it’s too much to just be giving away without getting anything in return. And I for one clearly am not cheap, if I want something I’m going to get it no matter the price but I will not tolerate for someone to keep money that I worked hard for and they didn’t and feel entitled to my money.</t>
         </is>
       </c>
-      <c r="C109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D109" t="b">
-        <v>0</v>
-      </c>
-      <c r="E109" t="inlineStr">
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="b">
+        <v>0</v>
+      </c>
+      <c r="E220" t="inlineStr">
         <is>
           <t>Uber Eats Kept My Money although I NEVER received my order</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>Teej*</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="G220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45665.97622685185</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>We used the Uber Eats app recently and had a horrible experience. We placed our order through Uber Eats and we were quoted a time within which the order would arrive. However, that delivery window came and went. The app kept extending the window, but we were waiting for over an hour for our food, and there was still no delivery driver assigned at all. Due to other personal appointments, we needed to leave, so we canceled our order, which was likely going to be cold and unappetizing by then anyway. Uber Eats still charged us the full price of the order! When we called customer support, the representative was rude and completely unhelpful, reiterating that we would be charged the full amount. We expect to use Uber Eats as a tool of convenience. But when they can’t follow through on their mission, they should make it right by their customers. Here, they have failed us, and we won’t be using them again. I suggest you avoid using them, too.</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="b">
+        <v>0</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>No convenience or support</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>AJH1983AJH</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>45668.85510416667</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>If I could rate 0 I would’ve. I’ve been using DoorDash for a while, but after hearing so many people rave about Uber Eats, I decided to give it a shot. My first order was a disappointment—I received the wrong pizza. When I contacted support, they offered a refund either back to my card or as Uber Cash. I chose Uber Cash, thinking I’d definitely use the app again.
 However, when I tried to place another order, the app wouldn’t let me. It said to contact support. After reaching out, they discovered my card was restricted. When I asked why, they couldn’t give me an answer and said they couldn’t lift the restriction.
 This is absolutely ridiculous for a company as big as Uber Eats. You’d think they’d have a system in place to resolve issues like this quickly. While the customer service agent did their best and escalated my issue to a specialist, who promised a response within 12–24 hours, it doesn’t help me now. DoorDash is down, it’s snowing outside, and I guess I’m not eating today. Uber Eats should be ashamed of this level of service. I was excited to give it a try, but this experience has been nothing but disappointing.</t>
         </is>
       </c>
-      <c r="C110" t="n">
-        <v>1</v>
-      </c>
-      <c r="D110" t="b">
-        <v>0</v>
-      </c>
-      <c r="E110" t="inlineStr">
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="b">
+        <v>0</v>
+      </c>
+      <c r="E222" t="inlineStr">
         <is>
           <t>Restricted my card &amp; they don’t know why</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F222" t="inlineStr">
         <is>
           <t>UghReview</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="G222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>45669.09388888889</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>IM ONLY USING DOORDASH for now on!! Uber probably has the WORST customer support and hat I have ever experienced. IF you actually ever get in touch with someone, they are unhelpful, not knowledgeable, and rude. I ordered food for my kids that never arrived so while uber was investigating the charge and deciding if I’m worthy of a refund, I ordered them something else (kids still gotta eat) and paid for it with my Apple Pay. One hour after I got the food that I ordered second, uber granted me uber cash for my first order. Minutes later, they took the uber cash back. I inquired as to why and was told that I used it to pay for the second order… how?? I paid for the second order before I even had the uber cash and most importantly they already took the money from my Apple Pay for the second order. All in all uber took $28 for my Apple Pay twice (the first and second order) and $28 for my uber cash. Im told that they can’t do anything to assist me because “I authorized it he over cash payment” which I didn’t so I’m disputing with my bank and never using this terrible app again, this was the final straw.</t>
         </is>
       </c>
-      <c r="C111" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" t="b">
-        <v>0</v>
-      </c>
-      <c r="E111" t="inlineStr">
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="b">
+        <v>0</v>
+      </c>
+      <c r="E223" t="inlineStr">
         <is>
           <t>DOORDASH IS BETTER!! Payments &amp; Customer Support</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F223" t="inlineStr">
         <is>
           <t>OhGeeC</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="G223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>45669.54568287037</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Received a gc for Christmas and attempted to create an account (note: I have NEVER had an Uber account). It tells me upon registering that suspicious activity has been found that violates terms of service. Wait..what?! So I reach out to support to tell them the same thing I have said here and they say basically there’s nothing they can do because I somehow violated their terms though I previously never had an account with them nor have used them by any means in the past. They won’t even tell me what alleged terms of service I supposedly violated. It’s as though their support is completely automated or foreign and therefore is useless. So I guess if you are new to their service, you are at their mercy whether they allow you to join or not. Stick with Lyft and Doordash -at least those work and I think I’ve heard they are cheaper too. Doordash has great customer service if you have an issue with the order whereas they will at least give you a credit.  Uber support is useless if you run into trouble creating an account like I did. AND if it’s this hard to create an account just to try them with a giftcard I don’t even want to imagine what it would be like if I had a problem as others have talked about here. Not worth the aggravation or frustration in my opinion.</t>
         </is>
       </c>
-      <c r="C112" t="n">
-        <v>1</v>
-      </c>
-      <c r="D112" t="b">
-        <v>0</v>
-      </c>
-      <c r="E112" t="inlineStr">
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="b">
+        <v>0</v>
+      </c>
+      <c r="E224" t="inlineStr">
         <is>
           <t>Useless app and support</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>Rbaz81</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="G224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>45673.10501157407</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>I placed an order today because I have awful awful experiences with DoorDash and I was trying to pick something different. I subscribed to Uber One and everything, trying to give it an honest shot. The delivery person was phenomenal and followed instructions very well, I do not blame them at all. I ordered from a Mexican restaurant had three items for a subtotal of $15 so after the tip and things I spent $20. Shortly after placing my order they tell me they’re out of an item and I had 10 minutes to make a change no biggie they have other dessert options so I am actively trying to change my order and the restaurant cancels part of my order before 1). the 10 minutes was up and 2). I was trying to pick a different thing to replace what they didn’t have. So all in all I should have at the very least been refunded $5 for the item I was missing. Instead they barely refund me $1 and tell me “Oh well your subtotal wasn’t $15 so I can’t help you” and the live support person ended the chat on me.  They tried to gaslight me by telling me “there was no dessert on there” but there was initially. How do you have someone pay for a subscription and not even honor the subscription? How do you punish your paying customer because a restaurant has low availability?! How is it good customer service to end a live chat on your customer? I’m canceling my subscription and yall can take your little app and shove it.</t>
         </is>
       </c>
-      <c r="C113" t="n">
-        <v>1</v>
-      </c>
-      <c r="D113" t="b">
-        <v>0</v>
-      </c>
-      <c r="E113" t="inlineStr">
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="b">
+        <v>0</v>
+      </c>
+      <c r="E225" t="inlineStr">
         <is>
           <t>Poor customer service and stole money from me.</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>lysserdaire</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="G225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>45673.58265046297</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>I was exciting to try UberEats for the first time on the 14th. Ordered 2 big plates from Panda Express. The total came out to be more than the food was worth, but whatever we were still willing to give it a shot and pay for the “extra fees.” We even through in a tip for the driver. We were told our food was on the way, name of the driver, and it showed her on the way. Not even 5 minutes later we get a message that our order has been cancelled. We called Panda Express and they said that the food had been picked up. Driver didn’t even try to deliver it, call, or anything. You can’t get ahold of anyone at UberEats, it’s all through texts to bots who don’t get back to you. There’s no number to call. We’ve sent out at least 6 messages with all the information to the “help” which are just bots, and every time it just says to wait 6-12 hours for a response which never comes. This was 2 days ago mind you and our first time ever trying UnerEats or any food delivering service. ABSOLUTELY TERRIBLE. Dishonest people, horrible customer service, and a bunch of extra fees besides taxes. We are going to have to just lose out on $43.</t>
         </is>
       </c>
-      <c r="C114" t="n">
-        <v>1</v>
-      </c>
-      <c r="D114" t="b">
-        <v>0</v>
-      </c>
-      <c r="E114" t="inlineStr">
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="b">
+        <v>0</v>
+      </c>
+      <c r="E226" t="inlineStr">
         <is>
           <t>DON’T DO IT!!</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F226" t="inlineStr">
         <is>
           <t>Mrs. Fitzgerald 2024</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="G226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>45674.17587962963</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>This app great for convenience but extremely bad for your wallet with repeated use. They have decent customer service but lack the means when it comes to “refunds or complaints” as it’s mostly AI assistance. I’ve personally use this app numerous times over the years as I’m sure most have, but I still would recommend if possible to just go wherever yourselves as it’s cheaper in the long run with repeated use. The deliveries rate amount over time, meaning it’s more cost effective for the consumer as delivery costs more but hey it’s convenient when you don’t have to leave the comfort of your home or workplace. The one complaint I would address would be “lack of trust” as other people deliver “sometimes” our food and well I’ve had it stolen or ate from multiple times and all I get is a coupon or discount like anyone cares for that as a “resolve”. Yes I know they suspend the person responsible but I’d like money not a coupon, or the very least no fees till the sum stolen is equivalent. But you know we ourselves are responsible for using this app. Well that’s enough of my 2cents in.</t>
         </is>
       </c>
-      <c r="C115" t="n">
+      <c r="C227" t="n">
         <v>4</v>
       </c>
-      <c r="D115" t="b">
-        <v>0</v>
-      </c>
-      <c r="E115" t="inlineStr">
+      <c r="D227" t="b">
+        <v>0</v>
+      </c>
+      <c r="E227" t="inlineStr">
         <is>
           <t>It’s a fair deal but would recommend going yourself</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F227" t="inlineStr">
         <is>
           <t>TOOKMEFOREVERTOFINDANICKNAME</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="G227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>45676.0141087963</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Uber Eats was very convenient at first, until my delivery was completely wrong. I ordered a lot of food for my family of 5 and paid a lot of money. The person dropped the food off and it was one burger, which was 5 times cheaper than what I paid for. I contacted the restaurant and unfortunately they couldn’t do anything about it because it was through Uber eats and they told me to contact customer support, so I did. This is where I knew Uber Eats has the absolute worst service. I made a report on the app and they didn’t get back to me until 12 hours later. They asked for a receipt so I sent it and they proceeded to tell me my order wasn’t eligible for a refund. I’m sorry?!? I paid over 100 dollars for my family to eat and I got sent a 20 dollar, if that, meal. So after being out 80 dollars, I will be charging back and I will absolutely never use their service again. I recommend others doing the same because it might be smooth at first but once your order is messed up they won’t do absolutely anything to help. Shame on this company, absolutely terrible.</t>
         </is>
       </c>
-      <c r="C116" t="n">
-        <v>1</v>
-      </c>
-      <c r="D116" t="b">
-        <v>0</v>
-      </c>
-      <c r="E116" t="inlineStr">
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="b">
+        <v>0</v>
+      </c>
+      <c r="E228" t="inlineStr">
         <is>
           <t>If I could give 0 stars I would.</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>Disgusting….</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="G228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>45677.04211805556</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>I have had an issue with my order every time I have ordered from uber eats. Rather it be missing food, incorrect items, or the driver never going to the restaurant to pick the food up. I realize sometimes this is the restaurants fault, however, if you let customer service know about your missing items they never issue you a refund. While I know it is not their fault the items are missing it is most definitely not my responsibility as the customer to pay for 
 items I didn’t receive. My most recent issue was that my driver never left his residence to pick up my food. I tried to cancel the order and was going to be charged $13 just to cancel which is just ridiculous. I then tried to reach out to customer service (which is nearly impossible to speak with a live representative) and was told that the best they could do to help was to get me a new driver. I asked to at least be given a discount, since my food was obviously going to be cold at this point but was told no. If I ever run into problems on door dash, they do not hesitate to assist me with whatever I need. Uber eats customer service is awful.</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>1</v>
-      </c>
-      <c r="D117" t="b">
-        <v>0</v>
-      </c>
-      <c r="E117" t="inlineStr">
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="b">
+        <v>0</v>
+      </c>
+      <c r="E229" t="inlineStr">
         <is>
           <t>Terrible customer service</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F229" t="inlineStr">
         <is>
           <t>Kaylat2311</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="G229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45677.57144675926</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>I am absolutely livid with Uber Eats. Not only did I receive the wrong food order—despite my order being crystal clear and 100% different from what was delivered—but when I tried to report the issue and request a refund or even just a price adjustment, I was met with nothing but frustration. I provided clear photo evidence of the incorrect items, yet they still denied my claim. It’s like they don’t even care about their customers.
+The customer service is utterly useless. It’s as if their team is just going through the motions without actually reading or acknowledging complaints. If you’re not going to take real issues seriously, then honestly, you might as well automate the entire process. It would probably be more efficient and less frustrating than dealing with people who can’t even be bothered to look at a picture. This is the last time I’ll be using Uber Eats. If they can’t even handle a simple complaint like this, what’s the point of using their service?
+Use DoorDash instead, DoorDash would never!</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="b">
+        <v>0</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Useless customer service-use DoorDash instead</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>M-raged</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45677.95837962963</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>I want to preface this by saying I never cancel orders and normally do not get upset at cancellation fees. I had to cancel one of my orders because the store I had ordered from through the app did not have the food that I ordered. The store had called me and told me my options to replace it with and I did not want either of the options and so I asked if I could just cancel my order and they said that I would have to do that through the app so I did. I understand that that is a hassle for the store and the driver for me to cancel when I did, but they didn’t have the food that I wanted. I was still charged the full order amount, even though I couldn’t get anything. I spoke to two different people from the customer service chat, and they both would not budge at all on a refund. They were very rude and not understanding at all of the situation. As someone that has worked in customer service before I understand what it is like, but this is not how you handle this kind of situation.</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" t="b">
+        <v>0</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Horrible customer service and cancellation fees</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Prissy290</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45678.85709490741</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Uber Eats has its advantages, but there are significant drawbacks that make it a frustrating experience for many users. One of the main issues is the high cost. Beyond the price of the food itself, users are often hit with delivery fees, service fees, and small-order fees, which can easily double the cost of a meal. Adding a tip for the driver further increases the expense, making the service feel overpriced.
+Another issue is inconsistent delivery quality. Food often arrives late, cold, or in poor condition due to delays or improper handling. While this might not be entirely Uber Eats’ fault, it negatively impacts the overall experience. Customer service is another major weak point—resolving issues like incorrect or missing orders can be tedious and unsatisfying, with refunds or credits sometimes denied even when the issue is clear.
+The app itself can also be glitchy. There are frequent complaints about orders being canceled without explanation or tracking systems that don’t update accurately, leaving users in the dark about their food’s whereabouts. Additionally, the limited availability of certain restaurants in some areas and frequent “unavailability” during peak times can make the platform unreliable.
+Overall, Uber Eats often feels overpriced and unreliable, especially compared to alternatives. For users seeking convenience and consistent service, it might not live up to expectations.</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="b">
+        <v>0</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>NEEDS WORK</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Tryfffh</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45680.52003472222</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>I placed an order on the app quickly before a restaurant closed, without knowing a pin delivery was set up by the Uber Eats app for me. Usually my delivery is set to leave at door. The driver arrived and tried to contact me. Again, I did not knowingly set up a pin for my order, I’ve never used this pin feature before, so I didn’t have my phone around waiting for the call. The order was then marked as cancelled by the driver. The driver also never knocked on the door or even rang the doorbell to get my attention. Not only that, he took a picture and sent it to Uber Eats to look like he left the food at the door. In reality and according to my camera footage, he took the food and went home. This is a horrible loophole that Uber Eats has. When I tried to contact support, they couldn’t help resolve my issue. They claim that the driver delivered the food even though I told them I have camera footage evidence. So keep in mind for this pin feature, if you don’t have your phone on standby, your driver might never ring the doorbell and your food might get stolen as well.</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="b">
+        <v>0</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Extremely disappointed, my food was taken</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Skye_002</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45680.78962962963</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>So, I’m writing this because I had to cancel an order for it was going to an address that didn’t exist. Cancelled the order less than 30 seconds after I hit send. They charged me for the entire order and not even a credit for the lost food. So, they just took all of my money and no food or anything for something that would’ve been the exact same outcome if I had them cancel the order. I don’t know if that’s normal for uber eats but it’s asinine. So I will no longer be using this app or any of its services. Not to mention when I went and tried to complain to them they kept saying there was nothing that could’ve been done because it was 28 seconds after it had been sent in and the food was already done by then. Very upset with uber eats.</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>5</v>
+      </c>
+      <c r="D234" t="b">
+        <v>0</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Terrible customer service</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Secuff</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45686.09185185185</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Uber is usually pretty solid. Much more reliable than other  food delivery apps. However, on a recent order, I ordered Taco Bell at around 1am, and the latest eta arrival was 235. I see my driver sitting in the same location for at least an hour. It’s now 3 am. I’ve texted him twice. He doesn’t respond. I get a call from an uber representative. They say “your driver popped a tire and will be unable to deliver your food”. I said, “Why didn’t the driver tell me himself like an hour ago when he popped the tire? Then asked for some sort of credit since I was now up at 3am with no Taco Bell. She was like “nah you gotta call customer support for that”. I’m like “aren’t you customer support”? Then she basically just said bye and peaced out. I went to sleep sad and hungry. Uber, you did me dirty on this one. Still love you though I guess.</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>4</v>
+      </c>
+      <c r="D235" t="b">
+        <v>0</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Disappointed</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Zack.Ryan</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45690.98370370371</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Used deceptive user experience to trick me and several friends into “subscribing” to uber one. This is my friendly evaluation of what happened if it wasn’t more dubious. Incredibly deceptive to hide the true value of fees. They increase the price of menu items vs the restaurant and other services to hide fees. They never show you the final price at checkout after tips. Very slimy, I will never use this app again. I recommend the app Chow Now. I just did a side by side comparison of my order tonight and I am saving $8, (15%) by moving away from uber. I also have friends that intentionally subscribed to uber one in the past and claimed they would be charged more than their peers without uber one, so that the “discounts” of uber one could be applied without actually providing the user a discount. Incredible.</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>5</v>
+      </c>
+      <c r="D236" t="b">
+        <v>0</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Deceptive Scammers</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>NickMohh</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>45693.82662037037</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>I had an incredibly frustrating experience with Uber Eats while on vacation. I placed an order, waited an hour at my Airbnb, only for the delivery person to arrive with my food spilled inside his carrying case. So now, after waiting all that time, I had nothing to eat.
 Trying to resolve this was even worse. The Uber Eats app was completely unhelpful, and there was no easy way to speak to a live person. I finally found an 800 number online, but when I called, the representative was dismissive and unhelpful. I tried to explain how inconvenient this was—especially since I was on vacation—but all she kept repeating was, “Your order was canceled, sir, and you will receive a full refund.” That completely missed the point. The issue wasn’t just about the money; it was about my wasted time and now having to scramble to find something else to eat.
 For a company as big as Uber Eats, I expected better customer service. They could have at least offered a promo or some form of compensation for the inconvenience, but they didn’t. If you run into an issue, don’t expect any real support. Extremely disappointing.</t>
         </is>
       </c>
-      <c r="C118" t="n">
-        <v>1</v>
-      </c>
-      <c r="D118" t="b">
-        <v>0</v>
-      </c>
-      <c r="E118" t="inlineStr">
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="b">
+        <v>0</v>
+      </c>
+      <c r="E237" t="inlineStr">
         <is>
           <t>Frustrating Experience with Uber Eats – Poor Customer Service!</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>AbeNGon</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="G237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>45695.17151620371</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Tonight will be the last time I use Uber Eats. The customer service with delivery mishaps is horrendous. The customer service representatives seem obsessed with immediately resolving tickets with no regard for what issues you might be having. Tonight I ordered some produce to be delivered to my apartment. When i got to my apartment to find the order, the produce was unbagged, poorly handled (crushed), some items were missing, and some incorrect. I took picture and went to customer service and  was denied a refund by a frustrated representative bc the food "looked technically still edible." Interesting observation. Anyway, i told them about the missing items and took pictures of the incorrect items and those messages were flat out ignored. I messaged after some time and my messaged had been put on hold for 6-12 hours while a special team resolves the issue. Ridiculous. I've had my food stolen by a driver and was denied a refund. I've had a grocery order never arrive and have been denied a refund. This is the last straw. If you value your time or money, go with DoorDash. Uber does not care about its customers.</t>
         </is>
       </c>
-      <c r="C119" t="n">
-        <v>1</v>
-      </c>
-      <c r="D119" t="b">
-        <v>0</v>
-      </c>
-      <c r="E119" t="inlineStr">
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" t="b">
+        <v>0</v>
+      </c>
+      <c r="E238" t="inlineStr">
         <is>
           <t>Abysmal customer service</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>perrywonderclub</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="G238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>45696.65563657408</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Uber eats has refused to refund my money when they have drivers whom either keep the food, delivery at wrong location or I have missing items. I have a ring doorbell and I have proof that my items wasnt delivered or missing yet uber eats refused to process a refund. This have been happening for over a yet. I’ve submitted the refund request and they denied it. For example last night I spent $60 on food that was never delivered to my home. I called the driver no answer I contact support they called the driver no answer thats because he kept the food and acted like he delivered it. The store told me the driver picked it up. This type of service is bad. I will never use this app again. I’ve lost over $500 if I was to calculate all my order since last year. This is the worst delivery service and terrible customer service. I realized they’re not for consumers only what they can gain and retrieve from us. I feel like I was stripped for my money when you have these terrible delivery drivers that steal from consumers. I’m sure I’m not the only one if uber eats behaves this way and treat their customers this way. There needs to be a lawsuit so that everyone can recoup the money they lost. All I wanted was my money back for an order that was never delivered.</t>
         </is>
       </c>
-      <c r="C120" t="n">
-        <v>1</v>
-      </c>
-      <c r="D120" t="b">
-        <v>0</v>
-      </c>
-      <c r="E120" t="inlineStr">
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" t="b">
+        <v>0</v>
+      </c>
+      <c r="E239" t="inlineStr">
         <is>
           <t>Worst delivery service</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F239" t="inlineStr">
         <is>
           <t>Trolled yet</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="G239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>45699.90206018519</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>TLDR: Tried sending an Uber Eats order to my partner and it was sent to the wrong location. Restaurant did not accept order, but me nor my partner were able to cancel the order. UE customer service said nothing they can do so I’m not getting a refund.
 So attempted to send my partner lunch from one of the vendors on the app (Subway), but since it’s a chain restaurant I did not realize I chose a location that was closest to me instead of the her place of work. I’m assuming since I sent the order as a “gift” option that it’s the reason why I wasn’t able to cancel the order within the first 75 minutes (according to UE). After receiving the link my partner was not able to schedule her drop off time of her order (even though that’s the prompt on the app when you select the gift option).
 So I proceeded to contact customer support the first time. After some back and forth, it resulted in no solution and the associate explaining to just wait for the timer of the delivery window to run its course. That did not solve the issue so I contacted customer support a second time, and the associate gave me a run around explaining they aren’t able to cancel the order nor are they able to offer a refund.</t>
         </is>
       </c>
-      <c r="C121" t="n">
-        <v>1</v>
-      </c>
-      <c r="D121" t="b">
-        <v>0</v>
-      </c>
-      <c r="E121" t="inlineStr">
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+      <c r="D240" t="b">
+        <v>0</v>
+      </c>
+      <c r="E240" t="inlineStr">
         <is>
           <t>Sent an order as a “gift” to my partner, but link was broken and customer service won’t refund me</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>Godatee</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="G240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45703.32172453704</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>I was on the verge of collapse—my stomach growling like a caged beast, my vision blurring, my soul slipping into the abyss of hunger. The fridge? Empty. The cupboards? Barren. The outside world? A cruel wasteland of inconvenience. Just as I was about to accept my fate, a beacon of hope appeared on my phone screen. Uber Eats.
+With the speed of a celestial chariot, my order was placed. I chose my meal like a desperate sailor grasping at a lifeboat, praying for salvation. And lo! The gods of Uber Eats answered.
+A heroic driver, clad in the armor of a windbreaker and wielding a mighty insulated bag, emerged from the night like a divine messenger. As they approached my door, I heard the chorus of angels singing in the background. With trembling hands, I received my bounty—a feast fit for a king, a miracle wrapped in plastic and paper.
+The first bite? Transcendental. My taste buds wept tears of joy. My body, once weak and weary, surged with newfound energy. I felt reborn, like a phoenix rising from the ashes of hunger. Uber Eats did not just deliver food—they delivered salvation.
+I now worship at the altar of Uber Eats, leaving offerings of five-star ratings and generous tips. They are not just a service; they are a lifeline, a deity, the answer to humanity’s greatest struggle: hunger.
+Would I use them again? Absolutely. In fact, I may never cook again. Why challenge fate when Uber Eats reigns supreme?</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>5</v>
+      </c>
+      <c r="D241" t="b">
+        <v>0</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Uber East’s saved my life</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Qws 246</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45703.88302083333</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Absolutely ridiculous. The app is ridiculous, the delivery person is ridiculous, and most of all, the support is ridiculous. I got charged for an order I didn’t receive and got no refund! Why? Because I gave the delivery person the pin. How would I know that he didn’t have my order?? He came all the way to my dorm to ask me for the pin.. I gave it to him, then he proceeds to say that the restaurant was closed and he couldn’t get me my food. I tried contacting support, which in itself took so long, then when I finally got in contact, they said we can’t help you because you gave him the pin! It’s my first time ordering from uber eats rather than DoorDash and I didn’t know this rule, but sure enough that didn’t matter to them. This is definitely my last time ordering from this app, trust me you would rather order from DoorDash than order from this scam of an app. Since they don’t want to refund me, I will use every opportunity I have to thrash them on social media.</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" t="b">
+        <v>0</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Charged for nothing</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>i.a7md</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45706.67636574074</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>I ordered breakfast for my husband and I and the first driver who was assigned to my order, picked up my order and took off with it leaving 5 other drivers being assigned to my order and being told it was picked up already. I called customer service for them to tell me I wasn’t charged for my order and didn’t offer Uber cash in additional to my refund. I don’t care too much about the refund. I care about the fact that the first driver took off with my order and the restaurant wasn’t going to remake my order. So that driver needs to be deactivated and banned from ever using Uber services. That was criminal. My husband and I are thinking about suing. Because this has happened before. How can we rely on Uber Eats and DoorDash when this happens!? It wastes our time, our money, and other drivers time in the process. Don’t download unless you’re ordering from a trusted restaurant local or if you are desperate to get food delivered.</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>3</v>
+      </c>
+      <c r="D243" t="b">
+        <v>0</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Uber Eats doesn’t reprimand their drivers</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Dari Barnes</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
         <v>45707.17871527778</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>I’m not usually one to write a review for much but this app moved me to say something. Let me start off with this app is great when it comes to offers, options, and features BUT when it comes to something going wrong they drop the ball big time. There have been multiple occasions where unfortunately food was never delivered or main courses were missing from my orders. You would think you could simply report it and get your money back for the missing items or lost order. Unfortunately that’s not the case and in one of the biggest slaps to the face i had lost nearly 25 dollars after not getting a refund on a missing order and getting a mere 40 cents. It’s honestly laughable how Uber Eats has a great system set for reporting these mishaps yet when it comes to delivering that customer service they miss it big time. I just wish that the way they handle refunds or partial refunds would be better and wouldn’t screw over the customer.</t>
         </is>
       </c>
-      <c r="C122" t="n">
+      <c r="C244" t="n">
         <v>3</v>
       </c>
-      <c r="D122" t="b">
-        <v>0</v>
-      </c>
-      <c r="E122" t="inlineStr">
+      <c r="D244" t="b">
+        <v>0</v>
+      </c>
+      <c r="E244" t="inlineStr">
         <is>
           <t>Great options but terrible customer service</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="F244" t="inlineStr">
         <is>
           <t>nicksblocked</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="G244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45708.67768518518</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Update years later: cancelled an order literally less than a minute later. Orders cancelled successfully but they charged me the entirety of the order because the restaurant accepted…within thirty seconds. Uber eats is horrible and I will never use this app again. Also, Khushboo in customer support simply said I couldn’t get a refund then stopped responding immediately when I asked for a manager.
+Pretty much impossible to cancel an order even though I tried within seconds of clicking the order button. I called the assigned uber driver and he told me he cancelled the order for me. I put my phone away because I was at a memorial service. Next thing you know, my order gets dropped off by someone else and I’m charged $55 even though the first driver told me my order was cancelled. Support was not helpful, refused to give any sort of refund or even credit even though I was literally told my order was cancelled.</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="b">
+        <v>0</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>No refunds/credits, Khushboo customer support stopped responding</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>everynicknameisTaken77777</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>45709.84480324074</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>I seem to receive more issues with this app than I receive ease and comfort like I am supposed to through delivery . This is the second grocery order this week that has been incorrect. Not only that, but they are not wanting to refund me for the incorrect item that I received , stating that I will only be charged for the single items I incorrectly got , instead of the bulk bagged items that I was supposed to get,  so now I still have to fork out more money for the item I should have got to begin with. Not only that, the Winn-Dixie receipt and my Uber Eats receipt had a $25 difference and their reasoning was “ sometimes the items are more expensive or CHEAPER in store but we don’t change it to the cheaper price and still charge you higher price on our app”’. Mind you the delivery was 0.00 FREE and taxes amount does not add up to $25 so Uber Eats literally charged me an extra $25 when the items I paid for from Winn-Dixie where cheaper . Absolutely ridiculous. SO , if you don’t want your proper refund or you want to be charged for unnecessary things and get your money cheated out of you ,then by all means get Uber eats but there are much better apps</t>
         </is>
       </c>
-      <c r="C123" t="n">
+      <c r="C246" t="n">
         <v>2</v>
       </c>
-      <c r="D123" t="b">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr">
+      <c r="D246" t="b">
+        <v>0</v>
+      </c>
+      <c r="E246" t="inlineStr">
         <is>
           <t>Ridiculous</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F246" t="inlineStr">
         <is>
           <t>Rare-reviewer24</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="G246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45710.27667824074</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>5 stars to keep the review at the top. But actually it’s a ZERO star company. This company is horrible. When you have an issue and need help, you don’t get an actual person. You get an AI bot with canned answers. I was LIED to by one of these bots and told the order I questioned was in and would be delivered. That was a LIE. Nearly 1.75 hours of an order for it not to come through. There are NO HUMANS helping you. I have yet to have a full order delivered. The drivers either drink the drink or eat part of the order or the restaurants don’t pack it all. Uber eats is the ghetto of food ordering. You may or may not get your order processed. You may or may not get the whole order. What you are promised to get is 100% overcharged in fees. Also the tip they suggest is on the WHOLE ORDER including taxes and fees. It’s is not on the food. It’s a SCAM.</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>5</v>
+      </c>
+      <c r="D247" t="b">
+        <v>0</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Horrible AP and service</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>momofoneteen</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45713.25129629629</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Ever since moving to new franklin 2 years ago. No matter how much I’d over tip. Almost every time my order was stupid late, cold, never showed up, wrong items, missing items. One dude completely missed my drive way and got stuck in a ditch, a mom and a daughter fist caught in my drive way. Best case scenario my food was left next door. For 2 years! But now finally. I musta gotta hold of the right agent cause he straightened everyone out about 6 orders ago. Now they’re on time or early, they’re nicer in general. I’m beside myself with how everything has been working like it’s advertised. Heck, I even started getting attractive AND kind delivery drivers half the time. 5 stars uber eats. You’ve really out done yourselves. I seriously appreciate everything. Golf clap and 2 thumbs up. Door dash who?????</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>5</v>
+      </c>
+      <c r="D248" t="b">
+        <v>0</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>They’re finally taken care of me.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>D_Roth</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45713.83516203704</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>The help center isn’t the best. I recently ordered from a restaurant and my delivery driver was not moving whatsoever, and if he was moving, it was not on route. He was quite literally driving to random parking lots and parking there for 5+ minutes at a time. I requested to have my order switched to where I can pick it up myself because I did not want to cancel my order. For some reason it wouldn’t allow me to pick it up myself because it was too late to choose that option ?? Even though my delivery driver never even made it to his stop before my restaurant that I chose. I unfortunately had to cancel my order and was still charged $23+ because the restaurant had already made my order. It wasn’t until AFTER I cancelled my order that I found out I could contact the driver or the restaurant to have them cancel it on their end so I wouldn’t be charged. There was no way for me to request a new driver or pick up the order myself even though my driver was quite literally NOT MOVING.</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" t="b">
+        <v>0</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>“Okay” at best.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Kianakawa</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>45715.31936342592</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>It may seem strange to title a review for a food delivery app this way, but hear me out: Disabled people exist! Surprise! I know, it’s a shock that we are around, but it’s the truth. Sometimes that even means that it’s hard for us to leave our houses or even to get groceries delivered. Sometimes I don’t know if or what my tummy will be able to handle in the next few hours let alone throughout an entire week or two between grocery store trips. And so, Uber Eats is a service that I rely upon almost daily if not more than that simply because it helps me, as disabled human being, to make sure I eat enough food to help my body and gives me the ability to not waste so much of my energy going out during times when it’ hard enough to sit up at my desk and write this review. But that’s how much I appreciate it. Uber eats is a great app to use, and it’s really easy to order. I have had some complaints over all things haven’t been awful though.  I appreciate everyone who works for the entire Uber team and all the drivers and everyone else in between and related or not! Until next time friends! Stay precious!</t>
         </is>
       </c>
-      <c r="C124" t="n">
+      <c r="C250" t="n">
         <v>5</v>
       </c>
-      <c r="D124" t="b">
-        <v>0</v>
-      </c>
-      <c r="E124" t="inlineStr">
+      <c r="D250" t="b">
+        <v>0</v>
+      </c>
+      <c r="E250" t="inlineStr">
         <is>
           <t>An Actual Life Saving App</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F250" t="inlineStr">
         <is>
           <t>MunchoScore</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="G250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45717.91898148148</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>I had two incidents with uber eats and they were unable to help me both times. First, my deliver driver delivered the food at my doorstep but then came back 5 minutes later and took the food and marked it as delivered. I caught this incident on ring doorbell camera and they still gave me a hard time. Their app didn’t allow me to share the video to show proof and they didn’t even have the technology to receive it via email. This was incredibly frustrating. And just yesterday I ordered a couple drinks but mistakenly put for “pick up” instead of “delivery” so by the time I noticed it was tooo late and the merchant marked my order as completed and uber eats was unable to cancel or return my money. I paid for uber one account so now I won’t be doing business with uber eats because of how difficult it is to get resolutions. Save yourself the money and go with Grubhub who’ve i had a better experience with</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>3</v>
+      </c>
+      <c r="D251" t="b">
+        <v>0</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Issues with order</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>AT from LA</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45718.03429398148</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Will submit your order to the furthest restaurant possible. Will continuously push back the time that your order is supposed to arrive. Won't let you cancel even if no one has picked up your order yet and will charge you the price of your order if you decide to cancel with no way of trying to come to a better solution. Customer service is horrible. It took almost TWO hours for my order to get here and there was no way of canceling because they were going to charge me the full amount anyway with no way of contacting a real person to resolve this dispute. The only reason why this app seems to have high reviews on the app store is because people are purposely rating them higher so that their rating can get to the top and they can warn people.</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>5</v>
+      </c>
+      <c r="D252" t="b">
+        <v>0</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Read full review</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>NuNu0202!</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45718.98608796296</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Customer support, depending on the issue at hand, are so useless. They will have you waiting hours-days if they transfer you to some other person. In my case, I needed groceries for myself and kids. 1. None of my payment methods were working so I resorted to buying Uber cash hoping that could fix the issue (it didn’t). there goes my grocery money. I tried reaching out to customer support and none of them can help me in this timely manner. I am currently still waiting for a specialist member to reach back out to me to fix my issue or at least refund me my uber cash deposit.. they don’t care about the health and safety of you and your loved ones, they’re simply following a script. Once (if) I get this issue resolved, I am no longer going to be using UberEats. I gave it two stars because I actually like the user-interface and they’re slightly less expensive than other apps. other than that, 🗑️.</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>2</v>
+      </c>
+      <c r="D253" t="b">
+        <v>0</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Customer Support 🗑️</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Two-Signs</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
         <v>45719.99964120371</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>It’s a decent app, it does its best, if your order is messed up they will try to refund it and stuff. The only real problem in the website is that 1, you can’t send feedback about restaurants which have problems(for example a restaurant I ordered from multiple times with a week had my order processed but cancelled when the driver got there) another problem is the drivers, most of the time it’s fine but sometimes you’ll get some thing like a driver accepting your order and either forgetting or dragging it out until you cancel it so as to not ruin their record. It’s kinda annoying and you can’t report this at all because you can only review drivers who completed your order. The final problem is that you can’t increase tips during the delivery process, this is a problem when you put too low of tip and no one wants to pick up your food. Naturally most times that’s on you for tipping too low, but sometimes when the city you are in is busy even a higher tip won’t get accepted and you gotta cancel your order or wait and pray you get a driver who will accept it.
 Overall, as long as there’s no problems with the restaurants or drivers the app is good.</t>
         </is>
       </c>
-      <c r="C125" t="n">
+      <c r="C254" t="n">
         <v>4</v>
       </c>
-      <c r="D125" t="b">
-        <v>0</v>
-      </c>
-      <c r="E125" t="inlineStr">
+      <c r="D254" t="b">
+        <v>0</v>
+      </c>
+      <c r="E254" t="inlineStr">
         <is>
           <t>It’s pretty good, but could be better.</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="F254" t="inlineStr">
         <is>
           <t>Sunape444</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="G254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45721.060625</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Ordered food that is guaranteed for 35 minute delivery paid extra for it and the restaurant had the food ready but Uber eats couldn’t get a driver. There took them an hour to get a driver there. The food arrived an hour and a half later and cold half of it had to be thrown out. my kids were angry and angry… So I had to go get the other food. I simply asked for a credit or refund and went all the way up the train with Uber eats management to be told that there’s nothing that they can do sorry… these people are crooks so I recommend that you use DoorDash or grub or any other delivery service. In fact I think calling the local taxi would be more reliable to get my food to my house….. so send your business elsewhere..  
+I get it people make mistakes things happen and I would totally be OK if they gave me some sort of credit or refund, but they just ignored all my request and said sorry there’s nothing that they could do… 
+I wish Lyft delivered food</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" t="b">
+        <v>0</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Don’t care about the customer</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>napolm01</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
         <v>45721.31679398148</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Uber has an issue of hiring workers that don’t follow the actual protocol. I had issues multiple times where uber drivers either drive to their homes, heading somewhere else instead of their destination, canceling orders to steal food from other people and disrespecting their customers by not caring whether or not their orders is damaged. If uber could please hold responsible to their drivers and maybe we wouldn’t have such issues as this. Also the customer support that we receive in this issue does not understand how to respond when such issues are happening. Of course if we cancel we get charged, if not we wait for such orders to come which is 50/50 chance it does and when we finally get their attention we get what? A 20% discount from what we paid. I give them one thing though, your choses for fine restaurant is outstanding but if I have to wait 1 hour and 30 mins for an order that was suppose to arrive half of that and your response is to say that there is “traffic” then best believe you will lose customers. Fire the non dependent drivers and start hiring good ones that ACTUALLY does a good job.</t>
         </is>
       </c>
-      <c r="C126" t="n">
-        <v>1</v>
-      </c>
-      <c r="D126" t="b">
-        <v>0</v>
-      </c>
-      <c r="E126" t="inlineStr">
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" t="b">
+        <v>0</v>
+      </c>
+      <c r="E256" t="inlineStr">
         <is>
           <t>Who are you hiring?!</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="F256" t="inlineStr">
         <is>
           <t>Misael Reese</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="G256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
         <v>45721.65922453703</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>I’ve already had issues with Uber Eats in the past, but this is the cherry on top. Lets’s first start off with how they refuse to refund items that are missing from your order. I placed an order and had not one but multiple missing items that were confirmed by a uber driver and the restaurant itself, and they still told me I couldn’t get a refund. also, all of the customer support is AI respond messages. So you’re not actually getting any help. And you also can’t call them. Whenever I try to use a promotion, it wouldn’t go through. So I reached out to help and they told me to place the order and they would apply it for me. Little did I know it was a scam. After placing that order, they suggest for me to wait till the order is delivered and after waiting I asked for the promotion to be applied and they told me LAST MINUTE that the promotion was not eligible and was deactivated, so in the end, I wasted $30 of my hard earned money. I’m surprised this company has not been sued yet because I’ve heard this keeps happening. So don’t use Uber because it’s a scam.</t>
         </is>
       </c>
-      <c r="C127" t="n">
-        <v>1</v>
-      </c>
-      <c r="D127" t="b">
-        <v>0</v>
-      </c>
-      <c r="E127" t="inlineStr">
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+      <c r="D257" t="b">
+        <v>0</v>
+      </c>
+      <c r="E257" t="inlineStr">
         <is>
           <t>Scam scam scam this app is a big scam and only wants to take your money</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F257" t="inlineStr">
         <is>
           <t>Ihateubereats777</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="G257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
         <v>45721.80525462963</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Long story short, I ordered my food at 10:45am when store opened. I called store at 10:57am to add a side of dressing at no charge to order because app does not give option to add the restaurants house made dressing (which is absurd for this well known restaurant chain). The lady informed me she is putting the dressing in the bag for me now which indicates that my order was ready. I had two drivers make it to the restaurant to sit there for god knows how long just to cancel the pickup. I even had one driver respond back to me that they would make sure the dressing was in the bag. Finally after all this I reached out for help in the app at 11:50am just to have a robot not do anything that was required, and to get a human to help me that also seemed like they were just another robot that didn’t help at all. At the end of the day I received no food, even though I ordered well before my lunch break at work, I received 0 help, and I now have to wait until after work to eat which is most likely dinner because an app who’s sole purpose is to deliver food was unable to meet their basic requirements. Sorry not really short story</t>
         </is>
       </c>
-      <c r="C128" t="n">
-        <v>1</v>
-      </c>
-      <c r="D128" t="b">
-        <v>0</v>
-      </c>
-      <c r="E128" t="inlineStr">
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="b">
+        <v>0</v>
+      </c>
+      <c r="E258" t="inlineStr">
         <is>
           <t>Terrible customer service</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="F258" t="inlineStr">
         <is>
           <t>young_blake3223</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="G258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>45723.19258101852</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>The app is good but could use some work. I’ve lost lots of money due to uber providing wrong pin to enter neighbourhood and where my house is. It takes them to a dead end street. I have contacted uber as well as the drivers about how to get into the area and how to find my house and yet it still takes them wrong way and usually most of the time result in driver cancelling my order and when I try to chat with customer support or get a refund for MY food I PAID for not being delivered it most always says the order is not eligible for a refund and that I will have to wait to contact support for 24 hours and when I do they always say same thing we have determined that this order is not eligible for a refund and that is not fair or my fault because yall have a messed up gps and refuse to fix it! You are letting your drivers take my food or leave it where ever is basically what you are doing. And yes I have tried multiple times to set the pin to correct entrance but it says it’s outside of the circle and so I put pin as close as I can yet it still takes them to the back broken gate. Besides that the app is good but I wouldn’t use it anymore until they fix that because I’m always losing out on my money.</t>
         </is>
       </c>
-      <c r="C129" t="n">
+      <c r="C259" t="n">
         <v>2</v>
       </c>
-      <c r="D129" t="b">
-        <v>0</v>
-      </c>
-      <c r="E129" t="inlineStr">
+      <c r="D259" t="b">
+        <v>0</v>
+      </c>
+      <c r="E259" t="inlineStr">
         <is>
           <t>Let drivers get away with anything</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="F259" t="inlineStr">
         <is>
           <t>Cluelessari</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="G259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>45724.04412037037</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>Every time I order from two locations it’s always an ordeal to bundle them! The app should ask if I’d like to bundle the second place but instead (even if they’re literally right next door to each other), it’ll send two different delivery people! Such a waste of time and resources!  
 When I place the first order, it’ll give me places I can bundle with, but inevitably it’s never the places that I want to bundle. So I’ll make two different carts, which in itself is stupid, then I’ll place the first order, look in the bundle section for the second place, it’s never there, so I go back to the second cart and place that order. And I’ll then reach out to the driver second after placing the order, but it’s already too late. They’ll be two drivers listed.
 This is a problem for me because I give them a good tip in the app, but I usually like to add on a few more dollars after they deliver the food if they’ve been relatively fast with it.  But when I have to give an additional tip to two people rather than one, then I debate whether to tip them extra at all because now I’m putting out the cost of the meal in tips alone.  It’s just very inefficient.</t>
         </is>
       </c>
-      <c r="C130" t="n">
+      <c r="C260" t="n">
         <v>3</v>
       </c>
-      <c r="D130" t="b">
-        <v>0</v>
-      </c>
-      <c r="E130" t="inlineStr">
+      <c r="D260" t="b">
+        <v>0</v>
+      </c>
+      <c r="E260" t="inlineStr">
         <is>
           <t>Bundling is never easy with this app!</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="F260" t="inlineStr">
         <is>
           <t>redheama</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="G260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>45724.21287037037</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>I RARELY! Use delivery services and this is why!!!! I’ve waited for almost 2 hours for food. The delivery driver took extremely long with my food so I messaged him and got no response. I called him and he tells me that he is going home for the night!  He also did not cancel the order so someone else could pick it up! I contacted uber and they told me they could find me another driver which meant my husbands food would have been cold! The restaurant also closed in less than 30 minutes so the delivery driver probably wouldn’t have gotten there in time or my food wouldn’t have been remade. The customer service rep told me all they could do is cancel my order! It was also too late to replace the order because the restaurant was closing. So after working a 12 hour shift my husband is going to bed with no dinner! And uber said that they couldn’t give me any credit for my inconvenience. I feel as big as the company is that is extremely ridiculous and POOR service!! They kept telling me I’m getting a full refund like they did me a favor by doing so. I for sure better be getting a full refund for something I DID NOT GET!</t>
         </is>
       </c>
-      <c r="C131" t="n">
-        <v>1</v>
-      </c>
-      <c r="D131" t="b">
-        <v>0</v>
-      </c>
-      <c r="E131" t="inlineStr">
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+      <c r="D261" t="b">
+        <v>0</v>
+      </c>
+      <c r="E261" t="inlineStr">
         <is>
           <t>Horrible customer service!!!!</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="F261" t="inlineStr">
         <is>
           <t>briibraay</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="G261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45724.8022337963</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>I truly love uber eats and the convenience of the app and service but I strongly request them to bring back human to human contact for support issues!  When I have issues with orders that are real and genuine the support system through the app has sometimes denied me of any compensation or refunds which makes no sense, I need to be able to speak with support, a actual human being to discuss my issue/issues instead of spending all my time typing up a support claim while my food gets cold trying to correct or fix a issue!  Please bring back real customer support where customers can speak with someone on the phone to resolve order issues, the automated/in app support only is not good enough especially for Uber One customers/subscribers, we need real support to resolve issues!  Thank you and keep the app growing!</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>3</v>
+      </c>
+      <c r="D262" t="b">
+        <v>0</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>I love uber eats but support needs to be fixed!</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Duff-Beer2021</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45725.02957175926</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>I’ve never had any issues with other food delivery services. The set up of the app is horrible. Can’t leave a detailed proper review of the driver or food. The WORST incident was I babysitting tonight and forgot to change my address. It prompts me AFTER I put the order in “looks like you’re far away”. I realize and go to change the address. It tells me it cannot change the address!! It was seconds after I put the order in! So I cancel the order to start over, it tells me there will be a $10 and change FEE!!!!! Plus I’ll lose the promotion. So I have to lose $10 bc you can’t allow an address change?! Why is the option even there?! What a scam. Instead of automatically changing the address like DoorDash you force ppl to pay a cancel fee for an oversight. It wasn’t like it was ten minutes later I did all that in under 2mins. Called customer service within 5mins if all this and she says “they don’t have the tools to change the address “. Stressful and frustrating. Luckily my driver was nice enough to bring it to my current address.</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" t="b">
+        <v>0</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Frustrating</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Rowboat50</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45725.65905092593</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>For over a year I've been having problems ordering food to my house because for whatever reason the UberEats app doesn't recognize my address. They either think I'm living in a completely different neighborhood or they don't recognize the extents of my building complex. So even when I adjust the pin, they say it's not allowed to drop off over there because that's not my address. And when I try to talk to customer service, they tell me to refresh the app, they tell me to make sure the app is updated, they tell me to log in and out of the app, and nothing works. So I haven't been using UberEats even though I pay for Uber One. And even though my Uber rides work every time when I need to get picked up because they simply cannot understand my address to drop off food. And their customer service is completely useless because they fail to recognize every time what's the problem, even when I send them screenshots. So, if I could give 0 stars to this stupid app, I would. Unfortunately, I cannot.</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="b">
+        <v>0</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Can’t recognize my home address</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Cakethebestbunny</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>45728.6840162037</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>On March 9th 2025 I, a 4’11 woman, was verbally assaulted by my Uber eats driver at my front door. The hostility did not end until my boyfriend heard the commotion and intervened. I immediately contacted Uber support to let them know the issue. Unfortunately Uber support only provided me with copy and paste responses despite all of my begging and pleading to speak to a real person or actually have a real conversation with somebody regarding this issue. They simply provided me with a $7 credit and links to their community guidelines and refund policies for uber riders (which I was not a rider in this situation). I tried to contact customer support regarding this issue again today and received the exact same responses, that again, were copy and pasted and I was ignored when I request requested to actually have a real conversation. They no longer have a customer support phone number, so there is literally no way to actually talk to somebody if you have an issue. They clearly do not care about loyal customers nor the safety of them. According to the refund guidelines they sent me even if I was in a car with somebody on an Uber ride, and I was verbally abused by them, I would still not be refunded for that ride. In a world where women are currently in danger everywhere we look I would highly advise not giving a company who clearly does not care about your safety or well-being your money.</t>
         </is>
       </c>
-      <c r="C132" t="n">
-        <v>1</v>
-      </c>
-      <c r="D132" t="b">
-        <v>0</v>
-      </c>
-      <c r="E132" t="inlineStr">
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="b">
+        <v>0</v>
+      </c>
+      <c r="E265" t="inlineStr">
         <is>
           <t>DO NOT SUPPORT THIS COMPANY</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="F265" t="inlineStr">
         <is>
           <t>63930272</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="G265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45729.15633101852</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>I have never downloaded Uber eats on my phone before besides this specific time and it wasn’t giving me the discount that I was supposed to so I contacted support and asked for the discounts or asked what was wrong and this lady literally told me to order it and that she would give me the compensation of $20 so I spent $40 on this stupid meal and I was supposed to get $20 back so it would only be $20 because it’s the first time using Uber eats in the lady lied to me because then I contacted support again and asked to get my $20 back like I was told I was going to and they told me that I’m not eligible for the stupid compensation, blah blah blah this is ridiculous and utterly insane. I literally screenshot it. The text that the lady lied to me about telling me I got $20 waiting for me, and everyone that I contacted just ignored me and disconnected me this is unprofessional and insane. I should’ve contacted my lawyer about this in fact, I still have the photos.</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" t="b">
+        <v>0</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Uber eats support lied to me about a discount that I was supposed to receive</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>y8rjjrj</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>45729.57564814815</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>I've had way too many awful experiences with drivers to rate this highly. If you get groceries they never see the replacements you chose. Today I waited four hours for a meal delivery and the courier stopped responding to me and it took that entire time to speak to an actual sales representative to get a full refund and have them cancel the order. i'm updating this review to say that absolutely nothing has changed since I originally wrote it. There are also way too many buttons in this app. If you use VoiceOver on iPhone then most of the buttons don't even tell you what they are. It just says button and where it does say the function you cannot even click it like send a message, call etc. maybe most importantly when you go to help and it gives you options to click you don't even know what you're clicking. You just have to try them all.
 Another update: Now the total and subtotal buttons do not even read the numbers so I have no idea what I'm about to pay. I have received no communication from Uber concerning the inaccessibility of this app which tells me they do not care about their customers and especially those with Disabilities of any kind. Absolutely abysmal.</t>
         </is>
       </c>
-      <c r="C133" t="n">
+      <c r="C267" t="n">
         <v>2</v>
       </c>
-      <c r="D133" t="b">
-        <v>0</v>
-      </c>
-      <c r="E133" t="inlineStr">
+      <c r="D267" t="b">
+        <v>0</v>
+      </c>
+      <c r="E267" t="inlineStr">
         <is>
           <t>If you're not lucky enough to get a good courier then this is a miserable experience</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F267" t="inlineStr">
         <is>
           <t>DeFreshMode</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="G267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>45729.7983912037</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>I am heavily pregnant and ordered some food as I was not able to leave the house. It not only took someone 2 hours to get here but the driver showed up with no food in his hand and unable to speak English. He did not know what went wrong or where the food was nor could he communicate with me. I called the restaurant and the food was sitting there waiting on the driver.
 When I called Uber they said that they can either give me a refund which would take 5 days or refund my delivery charge and wait on the driver to deliver my food. I kept telling her that the driver showed up empty handed and had no clue what was going on and yet she still was telling me to wait on the same driver to deliver my food because they can’t change drivers. The worse part of this was I was on bed rest pregnant with limited funds on hand and had now wasted $30. 
 This app is a mess. Customer service is a joke. To be such a big company you should be able to change drivers on the back end and accommodate customers better. What if that was the last $30 I had on me? I would have to wait 5 days to get refunded??? I will be switching to another platform and make sure everyone I know does too.</t>
         </is>
       </c>
-      <c r="C134" t="n">
-        <v>1</v>
-      </c>
-      <c r="D134" t="b">
-        <v>0</v>
-      </c>
-      <c r="E134" t="inlineStr">
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D268" t="b">
+        <v>0</v>
+      </c>
+      <c r="E268" t="inlineStr">
         <is>
           <t>The worst service ever!</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="F268" t="inlineStr">
         <is>
           <t>Dr. E Kab</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="G268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45731.07016203704</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Giving this 5 stars so people will actually see this. I’ve had so many issues with uber eats like my food getting stolen not getting my order or only getting half my order. Their customer support? Useless. Beyond disappointed. Using the “help” option is a waste of time because they won’t respond to you for days at a time between each response or they will just quit replying to you all together. Calling uber eats customer support? Also useless. I had my food stolen twice on the same order and all they could say is “all we can do is report the issue.” Or oh you want a refund after not getting your order? Well Ig you will have to wait 1 to 2 days for an email. This company is a joke. Getting food delivered is suppose to be for convenience not headaches.</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>5</v>
+      </c>
+      <c r="D269" t="b">
+        <v>0</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Uber eats is awful.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>DoorDash would never.</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45731.7849074074</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>i live in pa and one of my favorite places to eat at is wendy’s, so i order it right? expecting a perfectly good meal except it wasn’t. IT WAS COMPLETELY DISGUSTING burger was undercooked and raw, fries were leaking strange liquid, i received a half drank drink and 2 other strange drinks that i didn’t pay for and smelled weird. so cool i’m like okay no biggie ill just get a refund so i contact support they make me say what happened ask for proof blah blah blah. mid call the lady hangs up on me… so im like wow okay, i call back same thing go through the process again then she tells me a “specialist will be emailing me shortly regarding a refund” so im like okay that’s cool same thing with the “specialist” send him the proof no email back. so i text support AGAIN on the app this time and they say i cant get a refund. i’m not being cheap or anything but seriously? like the food was inedible and the restaurant service was too so i emailed them about it. uber eats service was worse though 😭 ill never be buying off here again THANK YOU.</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+      <c r="D270" t="b">
+        <v>0</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>HORRIBLE.</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>divendent</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45734.1137037037</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>This service has gotten worse consistently over the years. I’m a long time Uber One member and I can’t even tell you why I’m paying for it anymore. The only deals you get are on groceries now, the old rewards system was so much better. Something that always has bugged me is that the order isn’t even prioritized if you’re a member. I just had my order cancelled after over an HOUR waiting on it because my driver had another order to pick up and drop off before mine, and on top of that I could see them on the map making a delivery for another delivery service. I placed my order a good 30-45 minutes before the restaurant closed. If they could have at least picked it up I still could’ve had it. And now it’s so late most restaurants are closed besides the usual fast food places. I’m moving soon, hopefully the town change will make things better. If not I’m canceling my subscription, even the rides are double the price they were a year ago.</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>2</v>
+      </c>
+      <c r="D271" t="b">
+        <v>0</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Steady Decline</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>PeeJuh</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45736.71438657407</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>If you pay an extra 5 bucks for priority they will go out of their way to give you the slowest dasher or a dasher that still has stops from the last order they were delivering. I’m done with this app. I have to order food 2 hours early in order to get it anywhere near my lunch break. I pay 15 dollars for delivery fees and tip and all that when I could walk to the restaurant got my food and walked back before my dasher would’ve been close to the restaurant. I use this app 5 times a week. You’d think they would try and make my service good considering the money I spend but no they go out of their way to make it terrible. All I want is someone to drive 5 mins to a restaurant pick up my food then drive 5 mins to drop it off to me and somehow it’s always a 2 hour process. It shouldn’t take longer for my driver to drive to the restaurant than it does for them to make the food…</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" t="b">
+        <v>0</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Don’t use and if u do don’t pay extra for priority if u want it faster</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>zackbg</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45740.03534722222</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Short form: 
+Unhelpful and patronizing customer service.
+Long form: 
+I decided to see if I could get my priority fee removed since my driver clearly went in the opposite direction and made multiple stops. Not a big deal, not mad at my driver and I would have gladly taken a simple "No it's non-refundable". Staff not only did not understand my question, but responded with a long patronizing paragraph about how I need to allow my driver time to deliver my order. I write back that I don't think they understood my question as that isn't what I asked, and they write back again saying that I need to understand that the priority fee doesn't necessarily make it get there fast due to traffic and the like. If you're advertising "delivered directly to you" and it isn't delivered straight to me, that's one thing. When after this, your support staff, instead of simply saying "no" sees it fit to lecture me when they did not understand my question in the first place, that's another. They just had to say no.</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>2</v>
+      </c>
+      <c r="D273" t="b">
+        <v>0</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>I genuinely deleted the app over this</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Oliver Gale</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45740.86079861111</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Our order was dropped off at the wrong apartment complex. We at first tried looking everywhere in our apartment complex but after no luck we realized that the driver might have dropped it off at the other apartment complex as this has happened before. We had to run out into the rain to the other apartment and beg the front door person to let us go up to the floor and search for our order. After being allowed, we finally found our order right before the actual resident of that apartment was about to report the unknown delivery in front of their door. We had to run back out into the rain and back home to finally enjoy our order that had already at that point cooled down and the ice in the drink had melted. After asking support for help, all I received was a copy paste automated message and no other compensation. I only use Uber eats to use my $10 monthly credit that I receive through Amex but I’d rather that money go to waste than use this app again.</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+      <c r="D274" t="b">
+        <v>0</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Unfortunate experience</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Amanda's Jukebox</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>45741.93248842593</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>I ordered MATT’s barbecue. I placed the order to have it sent to my job. When I cashed out the address had changed to my home address. The only option was to cancel the order. Because the only options it was giving was cancel or just let the food go to my house and sit outside until I get off at midnight! It didn’t say get help or contact help nothing. Uber has no number to talk to anyone. Which is sad because if they paid attention the order in the app they could see everything that was going on. My order was 42 bucks! I was out of the delivery area. I had them delivered to my job before! Soon as they make me cancel they are closed and unavailable! That is a bunch of B.S. I would never trust them again I promise anyone comes up with a ride share or food delivery  I will help them to over throw uber they are such theives! Such liars and Matt’s bbq is good but sneaky too watch you’re cards and accounts . If they are out they will charge u and take the money anyway. Give u what they feel!</t>
         </is>
       </c>
-      <c r="C135" t="n">
+      <c r="C275" t="n">
         <v>5</v>
       </c>
-      <c r="D135" t="b">
-        <v>0</v>
-      </c>
-      <c r="E135" t="inlineStr">
+      <c r="D275" t="b">
+        <v>0</v>
+      </c>
+      <c r="E275" t="inlineStr">
         <is>
           <t>Great</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="F275" t="inlineStr">
         <is>
           <t>Truthfully43foodjunky</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="G275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45744.03554398148</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>As a loyal UberEats user I’ve done the memberships and promotions and all that, but the service isn’t improving. In fact, I’ve argued that Uber One has virtually no benefits other than a very occasional “discount” on delivery.  I’m very displeased with how many stops are in a single delivery now and it’s to such an extent that short-distance deliveries take 15-30min longer than necessary. So now I have to wait for multiple stops, deal with all the extra fees that the delivery driver never gets cut in on, AND UberEats also tries to prompt us to pay an in-restaurant portion of a so-called tip (with calculations that are inflated by fees). It seems to me that UberEats should pay its drivers well enough that a tip can be truly OPTIONAL again. Because, why would
+I possibly reward my driver an extra 10/15 bucks to take other people’s food to their houses?! 
+I really need Uber to shape up and make its service make sense. Or let’s make room for a new competitor. Uber(et. al) is just annoyingly greedy. Cancelling the worthless membership.</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>2</v>
+      </c>
+      <c r="D276" t="b">
+        <v>1</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>UberEats makes delivery and eating…slow</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>VideoGmChick</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>{'id': 9888825, 'body': "Hi, we're always looking to improve your experience with Uber Eats. We wouldn't want you to \\\\. So please get back to us with any specific order as such, right here.", 'modified': '2019-07-29T06:27:28Z'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45744.88060185185</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Uber eats is horrible!!! It automatically updates my order, and it was impossible for me to cancel when there automation made it impossible to get the order. Here are the details. First, I tried to order something a few minutes before 8:30 pm last October. It was a bit late and the store closed at 8:30 pm. I did not noticed that when I placed the order, the store closed. Automatically, uber re-scheduled the order to tomorrow 8:30 pm without warning me about it. After I placed the order, I tried to correct the mistake by canceling the order. However, the system showed that it cannot be cancelled because the store is preparing the food. This is ridiculous! After complaining about this to the system, still the same argument remains and I was not able to change or cancel the order. More interestingly, as the store closes at 8:30 pm. My order was never delivered, but my complaint was also never resolved. I got so frustrated that I deleted this SMART app :). 40 usd wasted! Good luck!</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+      <c r="D277" t="b">
+        <v>0</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Horrible app</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Mimi-Niki-jojo</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
         <v>45750.39986111111</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B278" t="inlineStr">
         <is>
           <t>I paid for priority delivery. They switched drivers multiple times. I tried to cancel. They wouldn’t allow me to do so. I knew because they were taking so long my food was likely getting cold. Eventually they got someone and lo and behold my food was COLD AND HARD nearly 1 hour later. Plus the cherry on top is my order was missing an item and the bag was ripped halfway open when it was delivered. 
 Of course you can’t immediately report it because genius Uber Eats doesn’t allow you to say anything else while another concern is “open for investigation” which was me simply trying to cancel earlier. I’ve also noticed when you chat now they abruptly end the chat to transfer you to email. Someone was supposed to reach out 6-12 hours later. Nobody followed up until 2 days later saying my order was within normal ETA. So 1 hour is within priority delivery range? ETA was supposed to be 15-20 minutes as advertised. Plus what about my other issues?! 
 They could care less if you have been a loyal customer. Plus, fees are ridiculously expensive! Deleting the app today. Gonna try DoorDash instead.</t>
         </is>
       </c>
-      <c r="C136" t="n">
-        <v>1</v>
-      </c>
-      <c r="D136" t="b">
-        <v>0</v>
-      </c>
-      <c r="E136" t="inlineStr">
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" t="b">
+        <v>0</v>
+      </c>
+      <c r="E278" t="inlineStr">
         <is>
           <t>Customer Support Nonexistent!!</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F278" t="inlineStr">
         <is>
           <t>If I Wrote A Review It’s True</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="G278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
         <v>45751.99200231482</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B279" t="inlineStr">
         <is>
           <t>Absolutely ridiculous to claim “delivery times” that don’t end up being even remotely close to what they actually are. I’m traveling for work and yesterday I ordered a meal and it said 10-30 minutes. 5 minutes later it says delivery delayed, it’s now gonna be 1 hour. Then the next night, I think “I’m gonna get ahead of this and order my dinner super early”. It says 60-75 minute delivery time. Okay that’s fine. The order was prepared within just a few minutes..but 1 hour 20 minutes went by without a driver accepting. I reach out and finally got past the help chat bot to talk to a real person, and they ignored my question. Offered literally zero help other than replying that I can reach out at the end of the “window”, which was 1hr50 mins after order placed. I’m sorry…. Why is 1 hr 50 min the end of the window?? The delivery claimed 60-75 minutes? But now I have to wait nearly 2 hours- not to have my order delivered- but to simply receive any sort of assistance?! So by the time I finally get my food, it’s been 2hrs15 minutes and my salad is warm. They do the same shady stuff on the Uber app. Deleting them both.</t>
         </is>
       </c>
-      <c r="C137" t="n">
-        <v>1</v>
-      </c>
-      <c r="D137" t="b">
-        <v>0</v>
-      </c>
-      <c r="E137" t="inlineStr">
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" t="b">
+        <v>0</v>
+      </c>
+      <c r="E279" t="inlineStr">
         <is>
           <t>Dishonest, shady delivery times</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F279" t="inlineStr">
         <is>
           <t>iamg69</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="G279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
         <v>45754.73462962963</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B280" t="inlineStr">
         <is>
           <t>I’ve been a loyal Uber Eats One member for years and had many issues over that time, but stuck with the membership and ordered very frequently. April 6th, 2025 was the last straw. My order from McDonald’s was extremely late, switched between 3 different drivers and then the last driver came to my house to tell me he didn’t have my order and wanted to let me know, which is the weirdest thing to do and then the order was marked as delivered and I never received anything. I ended up ordering through DoorDash and got my order quickly from Burger King instead. Awful experience with them over the years. It’s always pulling teeth to try and get your order fixed or submitting a complaint, when you’re a member and order frequently, for them to steal from you and outright refuse a refund. Awful customer service and just going downhill for years. I’m switching to a competitor that does right by their customers. I highly recommend to go for any other delivery services over Uber Eats. Any issues with other delivery services, they fix things right away, including never receiving your order. Uber Eats doesn’t care about their business or reputation and screwing paying members. Don’t get robbed like I did.</t>
         </is>
       </c>
-      <c r="C138" t="n">
-        <v>1</v>
-      </c>
-      <c r="D138" t="b">
-        <v>0</v>
-      </c>
-      <c r="E138" t="inlineStr">
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+      <c r="D280" t="b">
+        <v>0</v>
+      </c>
+      <c r="E280" t="inlineStr">
         <is>
           <t>Thieves</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="F280" t="inlineStr">
         <is>
           <t>Jordan M. Morales</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="G280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
         <v>45754.77663194444</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B281" t="inlineStr">
         <is>
           <t>If it’s a person, not an automated response, the customer service care is just lacking. Issues brought up that compromise food safety are not properly addressed by their staff. They don’t seem to care and believe the only reason I bring the issue up is because of a refund and completely ignored the fact that I’m concerned about the safety of my food. Main issue that it took almost 2 hours to arrive, it was cold and soggy (perfect ground for bacteria to spread), damaged packaging brought to me by someone riding a bicycle (aka exposed to outdoor elements), and they completely overlooked all that. The only response I got after bringing that up, was they can’t issue a refund…? 
 I can overlook the increased pricing for getting food delivered. But if I’m showing a genuine concern for my health and well being and that’s all I get in response? I expect some cookie cutter explanation, at least! But nothing? Also, they took 15 hours to respond…. I just no longer see the point in supporting this service, everything is getting expensive and if I’m willing to spend my hard earned money. I should at least be treated with respect, when doing so.</t>
         </is>
       </c>
-      <c r="C139" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" t="b">
-        <v>0</v>
-      </c>
-      <c r="E139" t="inlineStr">
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="b">
+        <v>0</v>
+      </c>
+      <c r="E281" t="inlineStr">
         <is>
           <t>Customer Service and prices</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F281" t="inlineStr">
         <is>
           <t>Just A Guy From 96</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="G281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45757.59721064815</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>I ordered two pizzas and a salad through Uber Eats, and I’m extremely disappointed with the experience. Uber has clearly intentionally changed the checkout process to hide the full total until after you pay.
+Just seconds after I confirmed the order with Apple Pay, the total came out to $95—far more than expected due to excessive hidden fees. I immediately canceled the order, not even a full minute later, but Uber still charged me $75, claiming the restaurant had already started preparing the food.
+That’s simply not true. The order was placed at 8:47 PM, and the restaurant closes at 9:00 PM. There’s no way the kitchen began making the food in under a minute, especially that close to closing time.
+Uber’s practices here are deceptive, misleading, and exploitative. Customers should be fully aware of what they're being charged before committing to a payment—not after. Be cautious when ordering from Uber Eats, especially if you’re considering canceling due to their astronomical hidden fees.</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="b">
+        <v>0</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Shady business practices</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>jc2563</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>45757.72516203704</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B283" t="inlineStr">
         <is>
           <t>Uber Eats is the most unregulated service I have ever seen. A RC car can bring my food faster then the drivers themselves. The drivers are not to blame, the system of Uber Eats is everything to blame for. I ordered from the McDonalds app which is another third party arrangement they have with Uber Eats. I ordered nuggets, fries, ice cream, and soda. Doesn’t sound like it would last long right? Anyway, I ordered from there and I’m quite literally 0.8 miles away meaning 5 minutes from McDonalds from my work location. I ordered it at 11:10 and waited. The McDonald’s app tells me it was picked up at 11:25. The driver, instead of delivering my food drives 25 minutes with ice cream, fries , nuggets and a soda to handle other orders before dropping off mine. He arrives at 11:50. The driver walks in nonchalantly to my store I stopped him and explained why this is ridiculous. All the “Genius” said was “the app told me to do it.” Uber eats gave me most of my money back but because McDonalds was another third party I got to ask McDonalds app for my money back like I’m some beggar. this is only a small story I can tell you compared to the rest of this horrible service I was given from this app. May you do yourself a favor and do not get Uber eats. The only thing you will be eating is regret. Have a great day.</t>
         </is>
       </c>
-      <c r="C140" t="n">
-        <v>1</v>
-      </c>
-      <c r="D140" t="b">
-        <v>0</v>
-      </c>
-      <c r="E140" t="inlineStr">
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" t="b">
+        <v>0</v>
+      </c>
+      <c r="E283" t="inlineStr">
         <is>
           <t>Terrible delivery system</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F283" t="inlineStr">
         <is>
           <t>Don’tgetubereats</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="G283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45757.86274305556</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>So I am hungry I go to order food it says 45 mins after ordering estimated delivery time I think cool okay then I make the payment pay the money and exorbitant delivery fees and after taking my money the estimated delivery time is now 90 mins. When I ordered food the time is an important constraint I ordered only because it was coming in a certain time window. By doubling that after taking the payment now I won’t be at home when the food came, I have to spend again for food at my college canteen because I could get my food on time by uber and I have to miss gym because I didn’t eat on time and wastage of the orders food which is gonna sit at my door for 5 hours till night when I come back and they do this often they show one estimated time and after taking money they double that time I don’t usually write reviews but I am fed up of uber and their looting tactics I’m gonna start using some other app which is more transparent and honest.  Worst experience with the uber guys.</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="b">
+        <v>0</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>They are big fat liars</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>gaurav.995</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45759.05158564815</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>I gave an order, and canceled it as soon as possible before they start preparing my food!? They didn’t even chose driver but just because that store accepted my order I didn’t get the money in return. “NOT EVEN ONE DOLLAR “ I trusted this app a lot thought they will treat equally but no instead they support only one side “ Which is the owner of the store” and guess what!????customers even if they get scammed that doesn’t bother them at all!? 
+Like Wth I am getting out of here because I can't continue to trust this app anymore since they don't know how to support they're follower... It's their responsibility to take care of the payment system but they kept it in way where if owner accept it even if they don't start preparing will end up taking the money and in return you will " NOT GET THE FOOD SINCE YOY CANCELLED IT ALSO WON'T GET YOUR MONEY" 🤨🥹 I won't be stopped because "GRUBHUB" App + I can use who is much better then your's but putting this review to let people know how these people work I don't want anyone else to face the thing I faced</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" t="b">
+        <v>0</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Horrible</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Fairy.688</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
         <v>45760.76954861111</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B286" t="inlineStr">
         <is>
           <t>Worst food delivery app of my life. I legitimately don’t think any other food delivery app has come close to how bad this app is. I ignored all those times an item in my food went missing or when my food came back destroyed and they refused to give me a refund or gave me about $2 in uber cash, which by the way what am I supposed to do with that when a $10 item I ordered was missing, and I continued to use uber because I’ve been a loyal customer for five years. Back in august my card got charged after a two week trial of uber one for the ANNUAL plan. I cancelled immediately and tried to dispute the charge. Long story short I’ve not gotten back my $96 and I also don’t have uber one benefits so they essentially stole $96 from me. For three months I’ve been trying to contact uber support to give me the money back because I’m a broke college student and they either don’t respond or lie and tell me it’ll be in my account within 3-5 business days, which is yet to happen by the way because it’s been 3-5 business MONTHS. Use any other food delivery app I guarantee they won’t screw you the way uber screwed me.</t>
         </is>
       </c>
-      <c r="C141" t="n">
-        <v>1</v>
-      </c>
-      <c r="D141" t="b">
-        <v>0</v>
-      </c>
-      <c r="E141" t="inlineStr">
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D286" t="b">
+        <v>0</v>
+      </c>
+      <c r="E286" t="inlineStr">
         <is>
           <t>Thiefs</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="F286" t="inlineStr">
         <is>
           <t>ilovedreamestories</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="G286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
         <v>45764.64671296296</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B287" t="inlineStr">
         <is>
           <t>I placed a food order two days ago because we were busy at work and I did not have time to drive out to get something. I placed an uber eats order and as my delivery person picked up the food, I noticed them driving into the wrong direction for drop off. I contacted the delivery driver and got no response, I contacted the support team and was told to wait as “some drivers take alternate routes”. I continued to inform the support person that the driver was going nowhere near the location I set as drop off and they continued to ignore me. The food ended up being dropped off at someone else’s apartment complex and I never received my order. As I was trying to request a refund I was told my request was denied due to “waiting too long”. I then called support and was told that “because the food was made and the delivery was completed I cannot get a refund”. I then spoke to a third person who claimed that “I never attempted to reach out to support nor the delivery person” which is clearly false. I hate being ripped off for purchasing something I did not receive. In addition I am highly dissatisfied and disappointed with the “customer service” I have received let alone the lies that I have been told. I work hard for my money as I am sure others do as well. I hope this does not happen to anyone else! :(</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>1</v>
-      </c>
-      <c r="D142" t="b">
-        <v>0</v>
-      </c>
-      <c r="E142" t="inlineStr">
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" t="b">
+        <v>0</v>
+      </c>
+      <c r="E287" t="inlineStr">
         <is>
           <t>Does not care about its customers/money driven</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="F287" t="inlineStr">
         <is>
           <t>Cj5777</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45764.68439814815</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>It pisses me off how many times i’ve gotten my uber eats food stolen by a driver and uber did nothing about it. I would get a refund thank goodness but the drivers don’t get repercussion for actually stealing my food. I’m a college student so when I order food it’s because I cannot cook at the moment and a lot of the times this happens I go to bed hungry. It’s not fair I have to order food and expect to get it then i don’t get it so its too late to order anything else and i’m starving. Uber genuinely needs to start doing something about this and i’m sure it’s based on location where food theft is more common but they need to have a specific button for reporting stolen food. Usually this happens because an uber driver has the name for the food and they ask for the order after they dropped the order for another driver to pick up. Usually the second driver will tell me that my food as gotten stolen. PLEASE DO SOMETHING ABOUT THIS UBER!</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>2</v>
+      </c>
+      <c r="D288" t="b">
+        <v>0</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Uber eats has a lot of problems they need to fix</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Ribby</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45765.58615740741</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>I’ve been using the Uber app primarily for taxi services, but recently discovered that I was unknowingly subscribed to Uber One for over a year. The app did not notify me about this subscription or provide any clear way to view, manage, or cancel it. Charges were silently deducted via PayPal under the Uber brand, making it extremely difficult to notice unless you closely monitor your transactions.
+This lack of transparency in billing and subscription management is very concerning. The app cleverly hides the Uber One subscription details and does not offer adequate notifications or reminders about the ongoing payments. The cancellation process is confusing and not user-friendly.
+For an app as widely used as Uber, I expected better clarity and honesty in handling user subscriptions. I urge Uber to improve its user experience, especially in terms of subscription control, notifications, and account settings visibility. Be cautious if you are using Uber—always double-check your subscription status and payment history (Which is difficult to find).</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+      <c r="D289" t="b">
+        <v>0</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Misleading Uber One Subscription Practices and Poor Billing Transparency</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>lasttrolley</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
